--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Avagraha" sheetId="7" r:id="rId7"/>
     <sheet name="Special Anuswaram" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="1191">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -3763,6 +3763,9 @@
   </si>
   <si>
     <t>Y/N</t>
+  </si>
+  <si>
+    <t>Raja</t>
   </si>
 </sst>
 </file>
@@ -3891,7 +3894,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3940,6 +3943,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3968,7 +3977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4046,6 +4055,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9848,13 +9858,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J45"/>
+  <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9868,17 +9878,17 @@
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="C2" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>340</v>
       </c>
@@ -9896,7 +9906,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5.4</v>
       </c>
@@ -9912,8 +9922,11 @@
       <c r="H6" s="4" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K6" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5.4</v>
       </c>
@@ -9929,8 +9942,11 @@
       <c r="H7" s="4" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K7" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5.5</v>
       </c>
@@ -9946,8 +9962,11 @@
       <c r="H8" s="4" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K8" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5.6</v>
       </c>
@@ -9963,8 +9982,11 @@
       <c r="H9" s="4" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K9" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5.7</v>
       </c>
@@ -9978,7 +10000,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>5.8</v>
       </c>
@@ -9994,8 +10016,11 @@
       <c r="H11" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K11" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>5.9</v>
       </c>
@@ -10012,7 +10037,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <v>5.0999999999999996</v>
       </c>
@@ -10035,7 +10060,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>5.0999999999999996</v>
       </c>
@@ -10058,7 +10083,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>5.0999999999999996</v>
       </c>
@@ -10081,7 +10106,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>5.1100000000000003</v>
       </c>
@@ -10089,7 +10114,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>5.12</v>
       </c>
@@ -10102,8 +10127,11 @@
       <c r="F17" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K17" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>5.13</v>
       </c>
@@ -10122,8 +10150,11 @@
       <c r="I18" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K18" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>5.13</v>
       </c>
@@ -10142,8 +10173,11 @@
       <c r="I19" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K19" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>5.14</v>
       </c>
@@ -10162,8 +10196,11 @@
       <c r="I20" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K20" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>5.15</v>
       </c>
@@ -10177,7 +10214,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>5.15</v>
       </c>
@@ -10191,7 +10228,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>5.15</v>
       </c>
@@ -10205,7 +10242,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>5.16</v>
       </c>
@@ -10216,7 +10253,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>5.17</v>
       </c>
@@ -10226,8 +10263,11 @@
       <c r="F25" s="4" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K25" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>5.17</v>
       </c>
@@ -10237,8 +10277,11 @@
       <c r="F26" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K26" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>5.17</v>
       </c>
@@ -10248,8 +10291,11 @@
       <c r="F27" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K27" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>5.17</v>
       </c>
@@ -10259,8 +10305,11 @@
       <c r="F28" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K28" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>5.17</v>
       </c>
@@ -10270,8 +10319,11 @@
       <c r="F29" s="4" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K29" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>5.18</v>
       </c>
@@ -10282,7 +10334,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>5.19</v>
       </c>
@@ -10293,7 +10345,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="27">
         <v>5.2</v>
       </c>
@@ -10443,11 +10495,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10462,13 +10514,13 @@
     <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>400</v>
       </c>
@@ -10476,7 +10528,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -10494,7 +10546,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>6.2</v>
       </c>
@@ -10510,8 +10562,11 @@
       <c r="I6" s="4" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K6" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>403</v>
       </c>
@@ -10524,8 +10579,11 @@
       <c r="I7" s="4" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K7" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>404</v>
       </c>
@@ -10538,8 +10596,11 @@
       <c r="I8" s="4" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K8" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>405</v>
       </c>
@@ -10552,8 +10613,11 @@
       <c r="I9" s="4" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K9" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>606</v>
       </c>
@@ -10563,8 +10627,11 @@
       <c r="F10" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K10" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>406</v>
       </c>
@@ -10574,8 +10641,11 @@
       <c r="F11" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K11" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>407</v>
       </c>
@@ -10585,8 +10655,11 @@
       <c r="F12" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K12" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>408</v>
       </c>
@@ -10596,8 +10669,11 @@
       <c r="F13" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K13" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
         <v>1026</v>
       </c>
@@ -10610,8 +10686,11 @@
       <c r="I14" s="4" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K14" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
         <v>409</v>
       </c>
@@ -10624,8 +10703,11 @@
       <c r="I15" s="4" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K15" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>410</v>
       </c>
@@ -10638,14 +10720,17 @@
       <c r="I16" s="4" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K16" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>6.3</v>
       </c>
@@ -10655,17 +10740,19 @@
       <c r="I19" s="4" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>415</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>6.4</v>
       </c>
@@ -10673,8 +10760,8 @@
         <v>975</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>6.5</v>
       </c>
@@ -10690,8 +10777,9 @@
       <c r="F24" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>6.5</v>
       </c>
@@ -10707,8 +10795,9 @@
       <c r="F25" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>6.5</v>
       </c>
@@ -10721,8 +10810,11 @@
       <c r="F26" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K26" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>6.5</v>
       </c>
@@ -10735,8 +10827,11 @@
       <c r="F27" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K27" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>6.5</v>
       </c>
@@ -10749,8 +10844,11 @@
       <c r="F28" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K28" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>6.5</v>
       </c>
@@ -10763,8 +10861,11 @@
       <c r="F29" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K29" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>6.5</v>
       </c>
@@ -10777,8 +10878,11 @@
       <c r="F30" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K30" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>6.5</v>
       </c>
@@ -10791,8 +10895,11 @@
       <c r="F31" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K31" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>6.5</v>
       </c>
@@ -10805,8 +10912,11 @@
       <c r="F32" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K32" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>6.5</v>
       </c>
@@ -10819,8 +10929,11 @@
       <c r="F33" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K33" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>6.5</v>
       </c>
@@ -10833,8 +10946,11 @@
       <c r="F34" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K34" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>6.5</v>
       </c>
@@ -10847,8 +10963,11 @@
       <c r="F35" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K35" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>6.5</v>
       </c>
@@ -10861,8 +10980,11 @@
       <c r="F36" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K36" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>6.5</v>
       </c>
@@ -10875,9 +10997,12 @@
       <c r="F37" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K37" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>6.13</v>
       </c>
@@ -10885,58 +11010,67 @@
         <v>457</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C42" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H46" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H47" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>467</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11495,10 +11629,10 @@
   <dimension ref="A3:L294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M68" sqref="M68"/>
+      <selection pane="bottomRight" activeCell="K139" sqref="K139:K145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11512,10 +11646,10 @@
     <col min="8" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F3" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -11533,8 +11667,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>7.2</v>
       </c>
@@ -11547,8 +11681,11 @@
       <c r="F7" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K7" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>910</v>
       </c>
@@ -11558,8 +11695,11 @@
       <c r="F8" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K8" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>483</v>
       </c>
@@ -11572,8 +11712,11 @@
       <c r="G9" s="4" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K9" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>484</v>
       </c>
@@ -11586,8 +11729,11 @@
       <c r="G10" s="4" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K10" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>485</v>
       </c>
@@ -11600,8 +11746,11 @@
       <c r="G11" s="4" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K11" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>486</v>
       </c>
@@ -11620,8 +11769,11 @@
       <c r="I12" s="4" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K12" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>487</v>
       </c>
@@ -11634,8 +11786,11 @@
       <c r="G13" s="4" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K13" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
         <v>488</v>
       </c>
@@ -11645,8 +11800,11 @@
       <c r="F14" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K14" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
         <v>489</v>
       </c>
@@ -11659,8 +11817,11 @@
       <c r="G15" s="4" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K15" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>490</v>
       </c>
@@ -11670,8 +11831,11 @@
       <c r="F16" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K16" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
         <v>419</v>
       </c>
@@ -11681,9 +11845,12 @@
       <c r="F17" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K17" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>7.3</v>
       </c>
@@ -11691,7 +11858,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>492</v>
       </c>
@@ -11699,8 +11866,8 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>7.4</v>
       </c>
@@ -11710,32 +11877,44 @@
       <c r="F22" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K22" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>493</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K23" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K24" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
         <v>281</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K25" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>7.5</v>
       </c>
@@ -11743,8 +11922,8 @@
         <v>494</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>7.6</v>
       </c>
@@ -11757,8 +11936,9 @@
       <c r="H28" s="4" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K28" s="51"/>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
         <v>496</v>
       </c>
@@ -11774,40 +11954,46 @@
       <c r="J29" s="4" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K29" s="51"/>
+    </row>
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
         <v>497</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K30" s="51"/>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K31" s="51"/>
+    </row>
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K32" s="51"/>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C33" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K33" s="51"/>
+    </row>
+    <row r="34" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>7.7</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K34" s="51"/>
+    </row>
+    <row r="35" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>7.8</v>
       </c>
@@ -11823,8 +12009,11 @@
       <c r="G36" s="4" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K36" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
         <v>501</v>
       </c>
@@ -11837,9 +12026,12 @@
       <c r="G37" s="4" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K37" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>7.9</v>
       </c>
@@ -11855,8 +12047,11 @@
       <c r="G39" s="4" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K39" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
         <v>505</v>
       </c>
@@ -11869,42 +12064,63 @@
       <c r="G40" s="4" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K40" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>507</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K42" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K43" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K44" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K45" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K46" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+      <c r="K47" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>7.11</v>
@@ -12303,6 +12519,9 @@
       <c r="C94" s="4" t="s">
         <v>630</v>
       </c>
+      <c r="E94" s="4" t="s">
+        <v>629</v>
+      </c>
       <c r="F94" s="4" t="s">
         <v>841</v>
       </c>
@@ -12311,6 +12530,9 @@
       <c r="C95" s="4" t="s">
         <v>631</v>
       </c>
+      <c r="E95" s="4" t="s">
+        <v>629</v>
+      </c>
       <c r="F95" s="4" t="s">
         <v>841</v>
       </c>
@@ -12319,6 +12541,9 @@
       <c r="C96" s="4" t="s">
         <v>632</v>
       </c>
+      <c r="E96" s="4" t="s">
+        <v>629</v>
+      </c>
       <c r="F96" s="4" t="s">
         <v>841</v>
       </c>
@@ -12327,6 +12552,9 @@
       <c r="C97" s="4" t="s">
         <v>633</v>
       </c>
+      <c r="E97" s="4" t="s">
+        <v>629</v>
+      </c>
       <c r="F97" s="4" t="s">
         <v>841</v>
       </c>
@@ -12335,6 +12563,9 @@
       <c r="C98" s="4" t="s">
         <v>634</v>
       </c>
+      <c r="E98" s="4" t="s">
+        <v>629</v>
+      </c>
       <c r="F98" s="4" t="s">
         <v>841</v>
       </c>
@@ -12343,6 +12574,9 @@
       <c r="C99" s="4" t="s">
         <v>635</v>
       </c>
+      <c r="E99" s="4" t="s">
+        <v>629</v>
+      </c>
       <c r="F99" s="4" t="s">
         <v>841</v>
       </c>
@@ -12351,6 +12585,9 @@
       <c r="C100" s="4" t="s">
         <v>636</v>
       </c>
+      <c r="E100" s="4" t="s">
+        <v>629</v>
+      </c>
       <c r="F100" s="4" t="s">
         <v>841</v>
       </c>
@@ -12359,6 +12596,9 @@
       <c r="C101" s="4" t="s">
         <v>637</v>
       </c>
+      <c r="E101" s="4" t="s">
+        <v>629</v>
+      </c>
       <c r="F101" s="4" t="s">
         <v>841</v>
       </c>
@@ -12367,6 +12607,9 @@
       <c r="C102" s="4" t="s">
         <v>638</v>
       </c>
+      <c r="E102" s="4" t="s">
+        <v>629</v>
+      </c>
       <c r="F102" s="4" t="s">
         <v>841</v>
       </c>
@@ -12375,6 +12618,9 @@
       <c r="C103" s="4" t="s">
         <v>1141</v>
       </c>
+      <c r="E103" s="4" t="s">
+        <v>629</v>
+      </c>
       <c r="F103" s="4" t="s">
         <v>841</v>
       </c>
@@ -12382,6 +12628,9 @@
     <row r="104" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C104" s="4" t="s">
         <v>639</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>629</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>841</v>
@@ -12727,7 +12976,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C129" s="4" t="s">
         <v>660</v>
       </c>
@@ -12738,7 +12987,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C130" s="4" t="s">
         <v>661</v>
       </c>
@@ -12749,8 +12998,8 @@
         <v>654</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>9.24</v>
       </c>
@@ -12764,7 +13013,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C133" s="4" t="s">
         <v>662</v>
       </c>
@@ -12775,8 +13024,8 @@
         <v>654</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>13.6</v>
       </c>
@@ -12790,7 +13039,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E136" s="4" t="s">
         <v>882</v>
       </c>
@@ -12798,7 +13047,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E137" s="4" t="s">
         <v>367</v>
       </c>
@@ -12806,7 +13055,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E138" s="4" t="s">
         <v>360</v>
       </c>
@@ -12814,7 +13063,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>13.5</v>
       </c>
@@ -12824,52 +13073,59 @@
       <c r="G139" s="4" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K139" s="51"/>
+    </row>
+    <row r="140" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G140" s="4" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K140" s="51"/>
+    </row>
+    <row r="141" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G141" s="4" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K141" s="51"/>
+    </row>
+    <row r="142" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G142" s="4" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K142" s="51"/>
+    </row>
+    <row r="143" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G143" s="4" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K143" s="51"/>
+    </row>
+    <row r="144" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G144" s="4" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="145" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K144" s="51"/>
+    </row>
+    <row r="145" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G145" s="4" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="146" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="147" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+      <c r="K145" s="51"/>
+    </row>
+    <row r="146" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="147" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="161" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="162" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="163" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13932,7 +14188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1402">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -1298,9 +1298,6 @@
     <t>niH</t>
   </si>
   <si>
-    <t>midhuH</t>
-  </si>
-  <si>
     <t>viduH</t>
   </si>
   <si>
@@ -1310,9 +1307,6 @@
     <t>sumatiH</t>
   </si>
   <si>
-    <t>agnimAkiH</t>
-  </si>
-  <si>
     <t>IyuH</t>
   </si>
   <si>
@@ -1389,9 +1383,6 @@
   </si>
   <si>
     <t>sani</t>
-  </si>
-  <si>
-    <t>saniH</t>
   </si>
   <si>
     <t>sanIH</t>
@@ -3891,9 +3882,6 @@
     <t>catuH</t>
   </si>
   <si>
-    <t>4.3.11</t>
-  </si>
-  <si>
     <t>1.8.15.2</t>
   </si>
   <si>
@@ -3903,9 +3891,6 @@
     <t>antarikShAt</t>
   </si>
   <si>
-    <t>6.2.1</t>
-  </si>
-  <si>
     <t>2.6.10</t>
   </si>
   <si>
@@ -3933,27 +3918,6 @@
     <t>Except dhi</t>
   </si>
   <si>
-    <t>7.4.21</t>
-  </si>
-  <si>
-    <t>5.2.6</t>
-  </si>
-  <si>
-    <t>5.6.8</t>
-  </si>
-  <si>
-    <t>5.1.6</t>
-  </si>
-  <si>
-    <t>5.2.5</t>
-  </si>
-  <si>
-    <t>5.7.3</t>
-  </si>
-  <si>
-    <t>2.1.3</t>
-  </si>
-  <si>
     <t>5.6.23</t>
   </si>
   <si>
@@ -3966,12 +3930,6 @@
     <t>7.5.2</t>
   </si>
   <si>
-    <t>7.1.8</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
     <t>4.5.10</t>
   </si>
   <si>
@@ -3981,48 +3939,18 @@
     <t>7.1.19</t>
   </si>
   <si>
-    <t>1.6.11</t>
-  </si>
-  <si>
-    <t>6.2.6</t>
-  </si>
-  <si>
     <t>4.2.4</t>
   </si>
   <si>
-    <t>5.1.2</t>
-  </si>
-  <si>
     <t>6.3.10</t>
   </si>
   <si>
-    <t>3.2.4</t>
-  </si>
-  <si>
-    <t>5.3.5</t>
-  </si>
-  <si>
-    <t>6.4.6</t>
-  </si>
-  <si>
-    <t>1.6.8</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
     <t>ShaH</t>
   </si>
   <si>
     <t>5.5.15</t>
   </si>
   <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
-    <t>6.4.7</t>
-  </si>
-  <si>
     <t>1.1.10</t>
   </si>
   <si>
@@ -4032,18 +3960,9 @@
     <t>3.1.10</t>
   </si>
   <si>
-    <t>6.1.11</t>
-  </si>
-  <si>
     <t>1.8.5</t>
   </si>
   <si>
-    <t>7.5.10</t>
-  </si>
-  <si>
-    <t>7.5.9</t>
-  </si>
-  <si>
     <t>5.6.9</t>
   </si>
   <si>
@@ -4107,21 +4026,6 @@
     <t>1.1.11</t>
   </si>
   <si>
-    <t>2.4.11</t>
-  </si>
-  <si>
-    <t>1.4.14</t>
-  </si>
-  <si>
-    <t>1.4.33</t>
-  </si>
-  <si>
-    <t>4.4.4</t>
-  </si>
-  <si>
-    <t>4.2.3</t>
-  </si>
-  <si>
     <t>2.3.8.1</t>
   </si>
   <si>
@@ -4143,9 +4047,6 @@
     <t>ni</t>
   </si>
   <si>
-    <t>savara</t>
-  </si>
-  <si>
     <t>sAhasra</t>
   </si>
   <si>
@@ -4246,13 +4147,265 @@
   </si>
   <si>
     <t>adhi - sthAnam</t>
+  </si>
+  <si>
+    <t>2.5.1.5</t>
+  </si>
+  <si>
+    <t>4.6.2.5</t>
+  </si>
+  <si>
+    <t>2.5.12.5</t>
+  </si>
+  <si>
+    <t>mIdhuH</t>
+  </si>
+  <si>
+    <t>4.5.1.4</t>
+  </si>
+  <si>
+    <t>1.4.33.1</t>
+  </si>
+  <si>
+    <t>1.3.14.4</t>
+  </si>
+  <si>
+    <t>4.2.3.2</t>
+  </si>
+  <si>
+    <t>tava</t>
+  </si>
+  <si>
+    <t>2.1.11.4</t>
+  </si>
+  <si>
+    <t>tam</t>
+  </si>
+  <si>
+    <t>agne mAkiH</t>
+  </si>
+  <si>
+    <t>1.2.14.2</t>
+  </si>
+  <si>
+    <t>7.4.21.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pari#santAneByaH </t>
+  </si>
+  <si>
+    <t>5.2.6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trisaptABiriti tri - saptABiH </t>
+  </si>
+  <si>
+    <t>vedi - sammitAm</t>
+  </si>
+  <si>
+    <t>5.1.6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvistanAmiti dvi - stanAm </t>
+  </si>
+  <si>
+    <t>5.2.5.5</t>
+  </si>
+  <si>
+    <t>anusItamityanu - sItam</t>
+  </si>
+  <si>
+    <t>5.7.3.1</t>
+  </si>
+  <si>
+    <t>prati - spaSaH</t>
+  </si>
+  <si>
+    <t>pRuSni - sakthAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vRuShTi - saniH </t>
+  </si>
+  <si>
+    <t>4.4.6.2</t>
+  </si>
+  <si>
+    <t>vRuShTi - sanIH</t>
+  </si>
+  <si>
+    <t>su - saBeyaH</t>
+  </si>
+  <si>
+    <t>1.2.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">su - sasyAyai </t>
+  </si>
+  <si>
+    <t>aBi | sattvA</t>
+  </si>
+  <si>
+    <t>5.1.2.1</t>
+  </si>
+  <si>
+    <t>ayajuH - kena</t>
+  </si>
+  <si>
+    <t>4.6.3.2</t>
+  </si>
+  <si>
+    <t>SrI - manAH</t>
+  </si>
+  <si>
+    <t>7.1.12.1</t>
+  </si>
+  <si>
+    <t>1.3.14.5</t>
+  </si>
+  <si>
+    <t>nRu - manAH</t>
+  </si>
+  <si>
+    <t>7.2.15.1</t>
+  </si>
+  <si>
+    <t>2.5.4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2.10.2 </t>
+  </si>
+  <si>
+    <t>6.2.1.1</t>
+  </si>
+  <si>
+    <t>pAri - nahyasya</t>
+  </si>
+  <si>
+    <t>prAyaNamiti pra - ayanam</t>
+  </si>
+  <si>
+    <t>1.6.11.1</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pra - yavena</t>
+  </si>
+  <si>
+    <t>pra - vanam</t>
+  </si>
+  <si>
+    <t>6.2.6.4</t>
+  </si>
+  <si>
+    <t>6.3.10.6</t>
+  </si>
+  <si>
+    <t>tri - a~ggAnAm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duH - one </t>
+  </si>
+  <si>
+    <t>1.2.14.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duH -gAni </t>
+  </si>
+  <si>
+    <t>purogANAmiti puraH - gAnAm</t>
+  </si>
+  <si>
+    <t>3.2.4.4</t>
+  </si>
+  <si>
+    <t>suvargyANIti suvaH - gyAni</t>
+  </si>
+  <si>
+    <t>5.3.5.3</t>
+  </si>
+  <si>
+    <t>antaH - yAmena</t>
+  </si>
+  <si>
+    <t>6.4.6.1</t>
+  </si>
+  <si>
+    <t>agnihotra - havanI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aparAhNa ityapara - ahne </t>
+  </si>
+  <si>
+    <t>2.1.2.5</t>
+  </si>
+  <si>
+    <t>3.5.11.4</t>
+  </si>
+  <si>
+    <t>vRutra - hanam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakShaH - hanaH </t>
+  </si>
+  <si>
+    <t>1.3.2.1</t>
+  </si>
+  <si>
+    <t>dAru - mayAni</t>
+  </si>
+  <si>
+    <t>6.4.7.3</t>
+  </si>
+  <si>
+    <t>puru - anIka</t>
+  </si>
+  <si>
+    <t>pari - Anahyati</t>
+  </si>
+  <si>
+    <t>6.1.11.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pra | nUnam | </t>
+  </si>
+  <si>
+    <t>1.8.5.1</t>
+  </si>
+  <si>
+    <t>pari | nRutyanti |</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pra | anyaH |</t>
+  </si>
+  <si>
+    <t>pra | anyABiH</t>
+  </si>
+  <si>
+    <t>7.5.9.3</t>
+  </si>
+  <si>
+    <t>7.5.10.1</t>
+  </si>
+  <si>
+    <t>6.5.11.1</t>
+  </si>
+  <si>
+    <t>pra | anyAni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pari | antarikShAt </t>
+  </si>
+  <si>
+    <t>3.1.10.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4373,6 +4526,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -4463,7 +4622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4547,6 +4706,8 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4902,14 +5063,14 @@
     <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="8" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.35">
@@ -5460,7 +5621,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -6423,7 +6584,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
@@ -6442,7 +6603,7 @@
         <v>10</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
@@ -6843,7 +7004,7 @@
         <v>108</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>109</v>
@@ -7353,7 +7514,7 @@
         <v>26</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
@@ -7390,7 +7551,7 @@
         <v>135</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E141" s="15" t="s">
         <v>136</v>
@@ -7444,7 +7605,7 @@
         <v>2</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
@@ -8421,19 +8582,19 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8782,7 +8943,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E43" s="4">
         <v>4.1100000000000003</v>
@@ -8830,7 +8991,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E47" s="4">
         <v>4.1100000000000003</v>
@@ -8893,10 +9054,10 @@
         <v>4.12</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8970,7 +9131,7 @@
         <v>4.12</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>233</v>
@@ -8981,7 +9142,7 @@
         <v>4.12</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>233</v>
@@ -9014,7 +9175,7 @@
         <v>4.12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>233</v>
@@ -9073,7 +9234,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>239</v>
@@ -9165,7 +9326,7 @@
         <v>4.17</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>242</v>
@@ -9188,7 +9349,7 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9351,7 +9512,7 @@
         <v>259</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9362,7 +9523,7 @@
         <v>4.25</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>265</v>
@@ -9777,7 +9938,7 @@
         <v>293</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>298</v>
@@ -9795,7 +9956,7 @@
         <v>293</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>299</v>
@@ -9813,10 +9974,10 @@
         <v>293</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9831,7 +9992,7 @@
         <v>293</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>300</v>
@@ -9849,7 +10010,7 @@
         <v>293</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>301</v>
@@ -9867,7 +10028,7 @@
         <v>293</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>302</v>
@@ -9885,7 +10046,7 @@
         <v>293</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="I132" s="4" t="s">
         <v>303</v>
@@ -9903,7 +10064,7 @@
         <v>293</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>304</v>
@@ -9911,7 +10072,7 @@
     </row>
     <row r="134" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E134" s="4" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10133,7 +10294,7 @@
     <row r="153" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="154" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B154" s="34" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C154" s="34"/>
       <c r="D154" s="34"/>
@@ -10420,7 +10581,7 @@
         <v>346</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10440,7 +10601,7 @@
         <v>346</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10460,7 +10621,7 @@
         <v>346</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10480,7 +10641,7 @@
         <v>352</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10500,7 +10661,7 @@
         <v>352</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10520,7 +10681,7 @@
         <v>356</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10534,17 +10695,17 @@
         <v>358</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>360</v>
       </c>
       <c r="K12" s="55"/>
       <c r="L12" s="4" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10570,7 +10731,7 @@
         <v>366</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10596,7 +10757,7 @@
         <v>366</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10622,7 +10783,7 @@
         <v>366</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10630,7 +10791,7 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10647,10 +10808,10 @@
         <v>368</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10673,10 +10834,10 @@
         <v>372</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10699,10 +10860,10 @@
         <v>372</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10725,13 +10886,13 @@
         <v>372</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10742,13 +10903,13 @@
         <v>375</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>372</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10759,13 +10920,13 @@
         <v>376</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>372</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10776,13 +10937,13 @@
         <v>377</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>372</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10796,10 +10957,10 @@
         <v>379</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10813,7 +10974,7 @@
         <v>380</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10827,7 +10988,7 @@
         <v>381</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10841,7 +11002,7 @@
         <v>382</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10855,7 +11016,7 @@
         <v>383</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10869,7 +11030,7 @@
         <v>384</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10883,7 +11044,7 @@
         <v>386</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -10898,7 +11059,7 @@
         <v>388</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="K31" s="34"/>
     </row>
@@ -10930,16 +11091,16 @@
         <v>276</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10953,10 +11114,10 @@
         <v>276</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10970,13 +11131,13 @@
         <v>276</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10990,10 +11151,10 @@
         <v>276</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11007,15 +11168,15 @@
         <v>276</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C38" s="4" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>395</v>
@@ -11024,10 +11185,10 @@
         <v>276</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11041,13 +11202,13 @@
         <v>276</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1309</v>
+        <v>1277</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>1310</v>
+        <v>1278</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11079,11 +11240,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="F99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11145,10 +11306,10 @@
         <v>366</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11162,10 +11323,10 @@
         <v>366</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11179,10 +11340,10 @@
         <v>366</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11196,15 +11357,15 @@
         <v>366</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>352</v>
@@ -11213,10 +11374,10 @@
         <v>366</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1311</v>
+        <v>1279</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11230,10 +11391,10 @@
         <v>366</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1312</v>
+        <v>1280</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11247,10 +11408,10 @@
         <v>366</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1313</v>
+        <v>1281</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11264,15 +11425,15 @@
         <v>366</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>352</v>
@@ -11281,10 +11442,10 @@
         <v>366</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11298,10 +11459,10 @@
         <v>366</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11315,10 +11476,10 @@
         <v>366</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11335,10 +11496,10 @@
         <v>412</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11346,10 +11507,10 @@
         <v>413</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11358,39 +11519,39 @@
         <v>6.4</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>1215</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="N22" s="6" t="s">
         <v>1217</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>1218</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>1219</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11410,11 +11571,11 @@
         <v>366</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="J24" s="56"/>
       <c r="K24" s="39" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11434,10 +11595,10 @@
         <v>366</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>1314</v>
+        <v>1282</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11454,10 +11615,13 @@
         <v>366</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>1276</v>
+        <v>1252</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>1319</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11465,7 +11629,7 @@
         <v>6.5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>409</v>
@@ -11474,10 +11638,10 @@
         <v>366</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>1153</v>
+        <v>1320</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11485,7 +11649,7 @@
         <v>6.5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>418</v>
+        <v>1321</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>409</v>
@@ -11494,13 +11658,13 @@
         <v>366</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>1259</v>
+        <v>1322</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11508,7 +11672,7 @@
         <v>6.5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>409</v>
@@ -11517,10 +11681,10 @@
         <v>366</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1305</v>
+        <v>1106</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11528,7 +11692,7 @@
         <v>6.5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>409</v>
@@ -11537,10 +11701,10 @@
         <v>366</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1163</v>
+        <v>1061</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11548,7 +11712,7 @@
         <v>6.5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>409</v>
@@ -11557,10 +11721,10 @@
         <v>366</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>1290</v>
+        <v>1263</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11568,7 +11732,7 @@
         <v>6.5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>422</v>
+        <v>1329</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>409</v>
@@ -11577,10 +11741,10 @@
         <v>366</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1136</v>
+        <v>1330</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11588,7 +11752,7 @@
         <v>6.5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>409</v>
@@ -11597,10 +11761,10 @@
         <v>366</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1306</v>
+        <v>1323</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11608,7 +11772,7 @@
         <v>6.5</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>409</v>
@@ -11617,10 +11781,10 @@
         <v>366</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1137</v>
+        <v>1324</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11628,7 +11792,7 @@
         <v>6.5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>409</v>
@@ -11637,10 +11801,10 @@
         <v>366</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1307</v>
+        <v>1062</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11648,7 +11812,7 @@
         <v>6.5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>409</v>
@@ -11657,10 +11821,16 @@
         <v>366</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1308</v>
+        <v>1325</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11668,7 +11838,7 @@
         <v>6.5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>409</v>
@@ -11677,10 +11847,16 @@
         <v>366</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1149</v>
+        <v>1327</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11689,50 +11865,50 @@
         <v>6.13</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1315</v>
+        <v>1283</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>366</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1315</v>
+        <v>1283</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1316</v>
+        <v>451</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>366</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>366</v>
@@ -11741,38 +11917,38 @@
         <v>348</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C42" s="4" t="s">
-        <v>1317</v>
+        <v>1284</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>366</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>1317</v>
+        <v>1284</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>366</v>
@@ -11781,110 +11957,110 @@
         <v>348</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>366</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>366</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>1318</v>
+        <v>1285</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>1319</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>1319</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>1320</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
-        <v>1321</v>
+        <v>1288</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="34" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>1319</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11896,7 +12072,7 @@
       </c>
       <c r="B53" s="28"/>
       <c r="C53" s="28" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -11905,7 +12081,7 @@
         <v>6.7</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>281</v>
@@ -11914,18 +12090,18 @@
         <v>352</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>281</v>
@@ -11934,30 +12110,30 @@
         <v>352</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>1322</v>
+        <v>1289</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1325</v>
+        <v>1292</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>1323</v>
+        <v>1290</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>1324</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H57" s="54"/>
     </row>
     <row r="58" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>352</v>
@@ -11966,72 +12142,72 @@
         <v>352</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="I58" s="34" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>1326</v>
+        <v>1293</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>1327</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>1328</v>
+        <v>1295</v>
       </c>
       <c r="I59" s="34" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>1329</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>1330</v>
+        <v>1297</v>
       </c>
       <c r="I60" s="34" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>1331</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>1332</v>
+        <v>1299</v>
       </c>
       <c r="I61" s="34" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>1333</v>
+        <v>1300</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>1334</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>352</v>
@@ -12040,16 +12216,16 @@
         <v>352</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>1335</v>
+        <v>1302</v>
       </c>
       <c r="I62" s="34" t="s">
-        <v>1338</v>
+        <v>1305</v>
       </c>
       <c r="J62" s="34" t="s">
-        <v>1336</v>
+        <v>1303</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>1337</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12057,22 +12233,22 @@
         <v>6.8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I63" s="34" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="J63" s="34" t="s">
-        <v>1340</v>
+        <v>1307</v>
       </c>
       <c r="K63" s="34" t="s">
-        <v>1339</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12083,302 +12259,369 @@
         <v>359</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>1342</v>
+        <v>1309</v>
       </c>
       <c r="I64" s="34" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>6.9</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E66" s="41"/>
       <c r="H66" s="4" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="27">
         <v>6.1</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>1343</v>
+        <v>1310</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C69" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>1346</v>
+        <v>1313</v>
       </c>
       <c r="I69" s="34"/>
       <c r="K69" s="4" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>6.11</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>1348</v>
+        <v>1315</v>
       </c>
       <c r="I70" s="34"/>
       <c r="K70" s="4" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C71" s="47" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>1349</v>
+        <v>1316</v>
       </c>
       <c r="I71" s="34"/>
       <c r="K71" s="4" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>6.12</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="L73" s="53" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C74" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L74" s="53" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C75" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>1246</v>
-      </c>
-      <c r="L73" s="53" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C74" s="4" t="s">
+      <c r="G75" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L75" s="53" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C76" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L76" s="53" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C77" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>1247</v>
-      </c>
-      <c r="L74" s="53" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C75" s="4" t="s">
+      <c r="G77" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L77" s="53" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C78" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="L75" s="53" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C76" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>1249</v>
-      </c>
-      <c r="L76" s="53" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C77" s="4" t="s">
+      <c r="G78" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="L78" s="53" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C79" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>1250</v>
-      </c>
-      <c r="L77" s="53" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C78" s="4" t="s">
+      <c r="G79" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L79" s="53" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C80" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>1251</v>
-      </c>
-      <c r="L78" s="53" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C79" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>1252</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="L79" s="53" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C80" s="4" t="s">
-        <v>448</v>
-      </c>
       <c r="G80" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>1255</v>
+        <v>1344</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>1182</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>1256</v>
+        <v>1343</v>
       </c>
       <c r="L80" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C81" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="L81" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="82" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C82" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1255</v>
+        <v>929</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>1345</v>
       </c>
       <c r="L82" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="83" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1257</v>
+        <v>986</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>1346</v>
       </c>
       <c r="L83" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="84" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>1168</v>
+        <v>1165</v>
+      </c>
+      <c r="I84" s="57"/>
+      <c r="J84" s="4" t="s">
+        <v>1349</v>
       </c>
       <c r="L84" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="85" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C85" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>1258</v>
+        <v>1347</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>1348</v>
       </c>
       <c r="L85" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="86" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12387,405 +12630,405 @@
         <v>6.14</v>
       </c>
       <c r="B87" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G87" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="88" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B88" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G88" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="89" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B89" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G89" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B90" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="L90" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="P90" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="M90" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="N90" s="4" t="s">
+      <c r="Q90" s="4" t="s">
         <v>988</v>
-      </c>
-      <c r="O90" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="P90" s="4" t="s">
-        <v>990</v>
-      </c>
-      <c r="Q90" s="4" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B91" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="G91" s="32" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="G91" s="32" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H91" s="4" t="s">
+      <c r="I91" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="L91" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="J91" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="L91" s="4" t="s">
-        <v>961</v>
-      </c>
       <c r="M91" s="4" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B92" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G92" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B93" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G93" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B94" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G94" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B95" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G95" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B96" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="97" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B97" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G97" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="I97" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="M97" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="J97" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="K97" s="4" t="s">
+      <c r="N97" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="L97" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="N97" s="4" t="s">
-        <v>984</v>
-      </c>
       <c r="O97" s="4" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="98" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B98" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G98" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="99" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B99" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G99" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="100" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B100" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G100" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="101" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B101" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G101" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="102" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B102" s="53" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G102" s="52" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="103" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12795,27 +13038,27 @@
     </row>
     <row r="104" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C104" s="25" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="J104" s="4" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="105" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C105" s="25" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -12828,11 +13071,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D134" sqref="D134"/>
+      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12873,7 +13116,7 @@
         <v>7.2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>276</v>
@@ -12882,12 +13125,12 @@
         <v>397</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>276</v>
@@ -12896,12 +13139,12 @@
         <v>397</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>276</v>
@@ -12910,15 +13153,15 @@
         <v>397</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>276</v>
@@ -12927,15 +13170,15 @@
         <v>397</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>276</v>
@@ -12944,15 +13187,15 @@
         <v>397</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>276</v>
@@ -12961,21 +13204,21 @@
         <v>397</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>276</v>
@@ -12984,15 +13227,15 @@
         <v>397</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>276</v>
@@ -13000,13 +13243,16 @@
       <c r="F14" s="4" t="s">
         <v>397</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>1357</v>
+      </c>
       <c r="K14" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>276</v>
@@ -13015,15 +13261,15 @@
         <v>397</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>276</v>
@@ -13031,8 +13277,11 @@
       <c r="F16" s="4" t="s">
         <v>397</v>
       </c>
+      <c r="G16" s="58" t="s">
+        <v>1358</v>
+      </c>
       <c r="K16" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13045,8 +13294,11 @@
       <c r="F17" s="4" t="s">
         <v>397</v>
       </c>
+      <c r="G17" s="58" t="s">
+        <v>1359</v>
+      </c>
       <c r="K17" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13055,30 +13307,30 @@
         <v>7.3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13093,24 +13345,27 @@
         <v>397</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1236</v>
+        <v>1360</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>1361</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>397</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1259</v>
+        <v>1245</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13121,10 +13376,10 @@
         <v>397</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13135,10 +13390,10 @@
         <v>397</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13146,13 +13401,13 @@
         <v>7.5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1261</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13161,86 +13416,98 @@
         <v>7.6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="K28" s="51" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K29" s="51" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="K30" s="51" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>1364</v>
+      </c>
       <c r="C31" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>1262</v>
+        <v>1363</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>1362</v>
       </c>
       <c r="K31" s="51" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>1232</v>
+        <v>1287</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>1365</v>
       </c>
       <c r="K32" s="51" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C33" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1263</v>
+        <v>1367</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>1366</v>
       </c>
       <c r="K33" s="51" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>7.7</v>
       </c>
@@ -13248,175 +13515,208 @@
         <v>43</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
       <c r="K34" s="51" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>7.8</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C37" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>999</v>
-      </c>
       <c r="G37" s="4" t="s">
-        <v>1265</v>
+        <v>1350</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>1351</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>7.9</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C40" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C40" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="G42" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>1167</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="G43" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C44" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="G44" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C45" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>1266</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C43" s="4" t="s">
+      <c r="G45" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C46" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C44" s="4" t="s">
+      <c r="G46" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C47" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C45" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>1267</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C46" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C47" s="4" t="s">
-        <v>508</v>
-      </c>
       <c r="G47" s="4" t="s">
-        <v>1269</v>
+        <v>1378</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>7.11</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>359</v>
       </c>
       <c r="E49" s="52"/>
       <c r="G49" s="4" t="s">
-        <v>1270</v>
+        <v>997</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>1379</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13428,40 +13728,47 @@
       </c>
       <c r="E50" s="52"/>
       <c r="G50" s="4" t="s">
-        <v>1271</v>
+        <v>1381</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>359</v>
       </c>
       <c r="E51" s="52"/>
       <c r="G51" s="4" t="s">
-        <v>1160</v>
+        <v>1382</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>1383</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1272</v>
+        <v>1250</v>
       </c>
       <c r="E52" s="52"/>
       <c r="G52" s="4" t="s">
-        <v>1136</v>
-      </c>
+        <v>1133</v>
+      </c>
+      <c r="I52" s="52"/>
       <c r="L52" s="4" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13469,29 +13776,33 @@
         <v>325</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1272</v>
+        <v>1250</v>
       </c>
       <c r="E53" s="52"/>
       <c r="G53" s="4" t="s">
-        <v>1273</v>
-      </c>
+        <v>1251</v>
+      </c>
+      <c r="I53" s="52"/>
       <c r="L53" s="4" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1272</v>
+        <v>1250</v>
       </c>
       <c r="E54" s="52"/>
       <c r="G54" s="4" t="s">
-        <v>1274</v>
+        <v>1385</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>1384</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13500,26 +13811,32 @@
         <v>7.12</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E56" s="52"/>
       <c r="G56" s="4" t="s">
-        <v>1275</v>
+        <v>1387</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E57" s="52"/>
       <c r="G57" s="4" t="s">
-        <v>1137</v>
+        <v>1113</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13528,16 +13845,16 @@
         <v>7.13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>1273</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13548,10 +13865,10 @@
         <v>409</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13560,16 +13877,16 @@
         <v>7.14</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>517</v>
-      </c>
       <c r="G62" s="4" t="s">
-        <v>1276</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13577,163 +13894,187 @@
         <v>346</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>1277</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>7.15</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D65" s="28"/>
       <c r="G65" s="4" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1401</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C66" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>7.16</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>276</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1390</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>7.16</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>276</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1392</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>7.16</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>276</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1397</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>7.16</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>276</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1396</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>7.16</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>276</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1336</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>7.16</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>276</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1398</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C74" s="28" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="27">
         <v>9.1999999999999993</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
         <v>276</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
         <v>276</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C80" s="4" t="s">
         <v>276</v>
       </c>
@@ -13741,10 +14082,10 @@
         <v>169</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13753,67 +14094,67 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>1283</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>616</v>
-      </c>
       <c r="H83" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>617</v>
-      </c>
       <c r="J84" s="4" t="s">
-        <v>1284</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C85" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>1285</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13822,238 +14163,238 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>1286</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C88" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>1286</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C89" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>1286</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C90" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>624</v>
-      </c>
       <c r="F90" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>1278</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>1287</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>1287</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C94" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>1288</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>1286</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>1289</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C97" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>1290</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>1280</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>1280</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C101" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>1291</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="4" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>1292</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C104" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>1291</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14062,327 +14403,327 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>1293</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>1293</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>1294</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>1295</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C112" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>1291</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="113" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="114" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="115" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G115" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="J115" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="K115" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="I115" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>934</v>
-      </c>
       <c r="L115" s="4" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="116" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="117" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>1296</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="118" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="119" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>1288</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="120" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C120" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>1298</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="121" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="I121" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="L121" s="4" t="s">
         <v>987</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="122" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>1299</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="123" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14391,121 +14732,121 @@
         <v>9.23</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1300</v>
+        <v>1273</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="125" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C125" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1277</v>
+        <v>1253</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="126" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C126" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="127" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C127" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="128" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C128" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C129" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="130" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C130" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14520,30 +14861,30 @@
         <v>276</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>1301</v>
+        <v>1274</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C133" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14555,24 +14896,24 @@
         <v>276</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>397</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>1266</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E136" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>397</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14583,7 +14924,7 @@
         <v>397</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>1302</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="138" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14594,7 +14935,7 @@
         <v>397</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1303</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="139" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14602,46 +14943,46 @@
         <v>13.5</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="K139" s="51"/>
     </row>
     <row r="140" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G140" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="K140" s="51"/>
     </row>
     <row r="141" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G141" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="K141" s="51"/>
     </row>
     <row r="142" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G142" s="4" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="K142" s="51"/>
     </row>
     <row r="143" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G143" s="4" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="K143" s="51"/>
     </row>
     <row r="144" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G144" s="4" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="K144" s="51"/>
     </row>
     <row r="145" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G145" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="K145" s="51"/>
     </row>
@@ -14827,7 +15168,7 @@
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -14858,13 +15199,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14873,13 +15214,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14888,13 +15229,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14903,13 +15244,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14918,13 +15259,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14933,13 +15274,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14948,13 +15289,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14963,13 +15304,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14978,13 +15319,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14993,13 +15334,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15014,7 +15355,7 @@
         <v>359</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15023,13 +15364,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15038,13 +15379,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="19" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15053,13 +15394,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="20" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15068,13 +15409,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15083,13 +15424,13 @@
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="22" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15098,13 +15439,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="23" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15113,13 +15454,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15128,13 +15469,13 @@
         <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="25" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15143,13 +15484,13 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="26" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15158,13 +15499,13 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="27" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15173,13 +15514,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="28" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15188,13 +15529,13 @@
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="29" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15203,13 +15544,13 @@
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="30" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15218,13 +15559,13 @@
         <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15233,13 +15574,13 @@
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15248,13 +15589,13 @@
         <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15263,16 +15604,16 @@
         <v>8.9</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15280,16 +15621,16 @@
         <v>8.9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15298,16 +15639,16 @@
         <v>8.1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15316,13 +15657,13 @@
         <v>8.11</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H39" s="54"/>
       <c r="I39" s="54"/>
@@ -15335,13 +15676,13 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15350,24 +15691,24 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15378,7 +15719,7 @@
         <v>359</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15387,24 +15728,24 @@
         <v>8.14</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>567</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15413,10 +15754,10 @@
         <v>8.15</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15426,13 +15767,13 @@
         <v>8.23</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>571</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -15440,10 +15781,10 @@
     </row>
     <row r="54" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E54" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -15454,7 +15795,7 @@
         <v>271</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -15466,57 +15807,57 @@
         <v>8.24</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C64" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C65" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C66" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C67" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15525,35 +15866,35 @@
         <v>8.25</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E70" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E71" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15561,68 +15902,68 @@
         <v>8.26</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E73" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E74" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E75" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E76" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E77" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15631,30 +15972,30 @@
         <v>8.27</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C80" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15663,10 +16004,10 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>352</v>
@@ -15680,7 +16021,7 @@
         <v>299</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>352</v>
@@ -15691,10 +16032,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>366</v>
@@ -15705,16 +16046,16 @@
         <v>8.31</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C87" s="38" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15722,42 +16063,42 @@
         <v>8.32</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C89" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C90" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15765,7 +16106,7 @@
         <v>8.33</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F93" s="5"/>
     </row>
@@ -15782,7 +16123,7 @@
         <v>8.34</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15804,19 +16145,19 @@
         <v>9.16</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15824,13 +16165,13 @@
         <v>9.17</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>604</v>
-      </c>
       <c r="G101" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15838,13 +16179,13 @@
         <v>9.17</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15888,7 +16229,7 @@
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15897,10 +16238,10 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>342</v>
@@ -15909,7 +16250,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15917,13 +16258,13 @@
         <v>12.2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15931,10 +16272,10 @@
         <v>12.3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>397</v>
@@ -15942,10 +16283,10 @@
     </row>
     <row r="8" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>397</v>
@@ -15953,10 +16294,10 @@
     </row>
     <row r="9" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>664</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>397</v>
@@ -15964,10 +16305,10 @@
     </row>
     <row r="10" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>397</v>
@@ -15979,46 +16320,46 @@
         <v>12.4</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="29" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -16027,24 +16368,24 @@
         <v>12.5</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -16053,58 +16394,58 @@
         <v>12.6</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H20" s="44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K20" s="44" t="s">
         <v>1038</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="L20" s="44" t="s">
         <v>1039</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="M20" s="44" t="s">
         <v>1040</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="N20" s="44" t="s">
         <v>1041</v>
-      </c>
-      <c r="L20" s="44" t="s">
-        <v>1042</v>
-      </c>
-      <c r="M20" s="44" t="s">
-        <v>1043</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D21" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D22" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D23" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16112,245 +16453,245 @@
         <v>12.7</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E26" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E35" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E36" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E37" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E39" s="4" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="40" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E40" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E41" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E43" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E44" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E45" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="47" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E48" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E49" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E50" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E51" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E52" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E53" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -16358,120 +16699,120 @@
         <v>12.8</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D55" s="41" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D56" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D57" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D58" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D59" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D60" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D61" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D62" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D63" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D64" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D65" s="4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D66" s="4" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D67" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B69" s="30"/>
       <c r="C69" s="30">
@@ -16484,18 +16825,18 @@
         <v>11.3</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C72" s="29" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F72" s="29" t="s">
         <v>302</v>
@@ -16509,73 +16850,73 @@
     </row>
     <row r="73" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C73" s="29" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H73" s="29" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I73" s="29" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J73" s="29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K73" s="29" t="s">
         <v>1141</v>
       </c>
-      <c r="I73" s="29" t="s">
+      <c r="L73" s="29" t="s">
         <v>1142</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="M73" s="29" t="s">
         <v>1143</v>
-      </c>
-      <c r="K73" s="29" t="s">
-        <v>1144</v>
-      </c>
-      <c r="L73" s="29" t="s">
-        <v>1145</v>
-      </c>
-      <c r="M73" s="29" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C74" s="29" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="H74" s="42" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="I74" s="42" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="J74" s="42" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="K74" s="42" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C75" s="29" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H75" s="42" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I75" s="44" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="J75" s="42" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C76" s="29" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H76" s="49">
         <v>4.0999999999999996</v>
@@ -16586,220 +16927,220 @@
     </row>
     <row r="77" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C77" s="29" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H77" s="42" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C78" s="29" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H78" s="44" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C79" s="29" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H79" s="44" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I79" s="42" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J79" s="43" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K79" s="43" t="s">
         <v>1031</v>
-      </c>
-      <c r="I79" s="42" t="s">
-        <v>1032</v>
-      </c>
-      <c r="J79" s="43" t="s">
-        <v>1033</v>
-      </c>
-      <c r="K79" s="43" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="80" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C80" s="42" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="81" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C81" s="29" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H81" s="29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I81" s="29" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J81" s="29" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K81" s="29" t="s">
         <v>1165</v>
       </c>
-      <c r="I81" s="29" t="s">
+      <c r="L81" s="29" t="s">
         <v>1166</v>
-      </c>
-      <c r="J81" s="29" t="s">
-        <v>1167</v>
-      </c>
-      <c r="K81" s="29" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L81" s="29" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="82" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C82" s="29" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="I82" s="29" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="J82" s="29" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="K82" s="30" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="83" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="29" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="84" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="29" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H84" s="29" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I84" s="29" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J84" s="29" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K84" s="29" t="s">
         <v>1135</v>
       </c>
-      <c r="I84" s="29" t="s">
+      <c r="L84" s="29" t="s">
         <v>1136</v>
       </c>
-      <c r="J84" s="29" t="s">
+      <c r="M84" s="29" t="s">
         <v>1137</v>
       </c>
-      <c r="K84" s="29" t="s">
-        <v>1138</v>
-      </c>
-      <c r="L84" s="29" t="s">
-        <v>1139</v>
-      </c>
-      <c r="M84" s="29" t="s">
-        <v>1140</v>
-      </c>
       <c r="N84" s="29" t="s">
+        <v>1144</v>
+      </c>
+      <c r="O84" s="29" t="s">
+        <v>1145</v>
+      </c>
+      <c r="P84" s="29" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Q84" s="29" t="s">
         <v>1147</v>
       </c>
-      <c r="O84" s="29" t="s">
+      <c r="R84" s="29" t="s">
         <v>1148</v>
       </c>
-      <c r="P84" s="29" t="s">
+      <c r="S84" s="29" t="s">
         <v>1149</v>
       </c>
-      <c r="Q84" s="29" t="s">
+      <c r="T84" s="29" t="s">
         <v>1150</v>
       </c>
-      <c r="R84" s="29" t="s">
+      <c r="U84" s="29" t="s">
         <v>1151</v>
       </c>
-      <c r="S84" s="29" t="s">
+      <c r="V84" s="29" t="s">
         <v>1152</v>
-      </c>
-      <c r="T84" s="29" t="s">
-        <v>1153</v>
-      </c>
-      <c r="U84" s="29" t="s">
-        <v>1154</v>
-      </c>
-      <c r="V84" s="29" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="85" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F85" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H85" s="29" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I85" s="29" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J85" s="29" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K85" s="29" t="s">
         <v>1156</v>
       </c>
-      <c r="I85" s="29" t="s">
+      <c r="L85" s="29" t="s">
         <v>1157</v>
       </c>
-      <c r="J85" s="29" t="s">
+      <c r="M85" s="29" t="s">
         <v>1158</v>
       </c>
-      <c r="K85" s="29" t="s">
+      <c r="N85" s="29" t="s">
         <v>1159</v>
       </c>
-      <c r="L85" s="29" t="s">
+      <c r="O85" s="29" t="s">
         <v>1160</v>
-      </c>
-      <c r="M85" s="29" t="s">
-        <v>1161</v>
-      </c>
-      <c r="N85" s="29" t="s">
-        <v>1162</v>
-      </c>
-      <c r="O85" s="29" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="86" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C86" s="29" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H86" s="29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I86" s="29" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J86" s="29" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K86" s="29" t="s">
         <v>1173</v>
       </c>
-      <c r="I86" s="29" t="s">
+      <c r="L86" s="29" t="s">
         <v>1174</v>
       </c>
-      <c r="J86" s="29" t="s">
+      <c r="M86" s="29" t="s">
         <v>1175</v>
       </c>
-      <c r="K86" s="29" t="s">
+      <c r="N86" s="29" t="s">
         <v>1176</v>
       </c>
-      <c r="L86" s="29" t="s">
+      <c r="O86" s="29" t="s">
         <v>1177</v>
-      </c>
-      <c r="M86" s="29" t="s">
-        <v>1178</v>
-      </c>
-      <c r="N86" s="29" t="s">
-        <v>1179</v>
-      </c>
-      <c r="O86" s="29" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="87" spans="1:22" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -16808,32 +17149,32 @@
         <v>11.4</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="89" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E89" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="90" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E90" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="91" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E91" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="92" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="93" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E93" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="94" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16841,97 +17182,97 @@
         <v>11.5</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G94" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H94" s="45" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="95" spans="1:22" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="C95" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H95" s="45" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="96" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G96" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H96" s="45" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C97" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G97" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H97" s="45" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="6" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G99" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H99" s="45" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G100" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H100" s="45" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="I100" s="45" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="J100" s="45" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -16940,30 +17281,30 @@
         <v>11.6</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G102" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G103" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H103" s="45" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -16972,30 +17313,30 @@
         <v>11.7</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G105" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H105" s="45" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C106" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G106" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H106" s="45" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17010,7 +17351,7 @@
         <v>262</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17018,22 +17359,22 @@
         <v>262</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G109" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H109" s="45" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I109" s="45" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J109" s="45" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K109" s="45" t="s">
         <v>1055</v>
-      </c>
-      <c r="I109" s="45" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J109" s="45" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K109" s="45" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17041,13 +17382,13 @@
         <v>262</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G110" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H110" s="45" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -17056,16 +17397,16 @@
         <v>11.9</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="G112" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H112" s="45" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17073,24 +17414,24 @@
         <v>376</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="G113" s="50" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C114" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="G114" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17106,152 +17447,152 @@
         <v>11.1</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G117" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H117" s="44" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="I117" s="44" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J117" s="44" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K117" s="44" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L117" s="44" t="s">
         <v>1062</v>
-      </c>
-      <c r="J117" s="44" t="s">
-        <v>1063</v>
-      </c>
-      <c r="K117" s="44" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L117" s="44" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C118" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G118" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H118" s="44" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="I118" s="44" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C119" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>766</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>769</v>
       </c>
       <c r="G119" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H119" s="44" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C120" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G120" s="29" t="s">
         <v>397</v>
       </c>
       <c r="H120" s="44" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I120" s="44" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J120" s="44" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K120" s="44" t="s">
         <v>1070</v>
       </c>
-      <c r="I120" s="44" t="s">
+      <c r="L120" s="44" t="s">
         <v>1071</v>
       </c>
-      <c r="J120" s="44" t="s">
+      <c r="M120" s="44" t="s">
         <v>1072</v>
       </c>
-      <c r="K120" s="44" t="s">
+      <c r="N120" s="44" t="s">
         <v>1073</v>
       </c>
-      <c r="L120" s="44" t="s">
+      <c r="O120" s="44" t="s">
         <v>1074</v>
       </c>
-      <c r="M120" s="44" t="s">
+      <c r="P120" s="44" t="s">
         <v>1075</v>
-      </c>
-      <c r="N120" s="44" t="s">
-        <v>1076</v>
-      </c>
-      <c r="O120" s="44" t="s">
-        <v>1077</v>
-      </c>
-      <c r="P120" s="44" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="H121" s="44" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I121" s="44" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J121" s="44" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K121" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L121" s="44" t="s">
         <v>1079</v>
       </c>
-      <c r="J121" s="44" t="s">
+      <c r="M121" s="44" t="s">
+        <v>954</v>
+      </c>
+      <c r="N121" s="44" t="s">
         <v>1080</v>
       </c>
-      <c r="K121" s="44" t="s">
+      <c r="O121" s="44" t="s">
         <v>1081</v>
       </c>
-      <c r="L121" s="44" t="s">
+      <c r="P121" s="44" t="s">
         <v>1082</v>
-      </c>
-      <c r="M121" s="44" t="s">
-        <v>957</v>
-      </c>
-      <c r="N121" s="44" t="s">
-        <v>1083</v>
-      </c>
-      <c r="O121" s="44" t="s">
-        <v>1084</v>
-      </c>
-      <c r="P121" s="44" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="122" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="H122" s="44" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I122" s="44" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J122" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K122" s="44" t="s">
         <v>1086</v>
       </c>
-      <c r="I122" s="44" t="s">
+      <c r="L122" s="44" t="s">
         <v>1087</v>
       </c>
-      <c r="J122" s="44" t="s">
+      <c r="M122" s="44" t="s">
         <v>1088</v>
       </c>
-      <c r="K122" s="44" t="s">
+      <c r="N122" s="44" t="s">
         <v>1089</v>
       </c>
-      <c r="L122" s="44" t="s">
+      <c r="O122" s="44" t="s">
         <v>1090</v>
-      </c>
-      <c r="M122" s="44" t="s">
-        <v>1091</v>
-      </c>
-      <c r="N122" s="44" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O122" s="44" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -17260,25 +17601,25 @@
         <v>11.11</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H124" s="44" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I124" s="44" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J124" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K124" s="44" t="s">
         <v>1094</v>
       </c>
-      <c r="I124" s="44" t="s">
+      <c r="L124" s="44" t="s">
         <v>1095</v>
-      </c>
-      <c r="J124" s="44" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K124" s="44" t="s">
-        <v>1097</v>
-      </c>
-      <c r="L124" s="44" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17286,41 +17627,41 @@
         <v>11.12</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="H125" s="44" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C126" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>774</v>
-      </c>
       <c r="H126" s="44" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="I126" s="43" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="J126" s="43" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C127" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H127" s="44" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -17329,127 +17670,127 @@
         <v>11.13</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="H129" s="44" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="I129" s="44" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="130" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C130" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>414</v>
       </c>
       <c r="H130" s="44" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="I130" s="43" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="J130" s="44" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K130" s="44" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="L130" s="43" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="M130" s="29" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="131" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C131" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="H131" s="44" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="I131" s="44" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="132" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C132" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="D132" s="32" t="s">
         <v>775</v>
       </c>
-      <c r="D132" s="32" t="s">
-        <v>778</v>
-      </c>
       <c r="H132" s="44" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="I132" s="44" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="J132" s="44" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="133" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C133" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H133" s="44" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="I133" s="44" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="134" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C134" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="H134" s="44" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="I134" s="44" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="135" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C135" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="H135" s="46" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I135" s="46" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J135" s="46" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K135" s="46" t="s">
         <v>1116</v>
       </c>
-      <c r="I135" s="46" t="s">
+      <c r="L135" s="43" t="s">
         <v>1117</v>
       </c>
-      <c r="J135" s="46" t="s">
+      <c r="M135" s="46" t="s">
         <v>1118</v>
-      </c>
-      <c r="K135" s="46" t="s">
-        <v>1119</v>
-      </c>
-      <c r="L135" s="43" t="s">
-        <v>1120</v>
-      </c>
-      <c r="M135" s="46" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="136" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -17461,19 +17802,19 @@
         <v>299</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="138" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="139" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="140" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -17482,24 +17823,24 @@
         <v>11.15</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>414</v>
       </c>
       <c r="H141" s="44" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="142" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C142" s="4" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>414</v>
       </c>
       <c r="H142" s="44" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="143" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -17508,137 +17849,137 @@
         <v>11.16</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="145" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D145" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="146" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D146" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="147" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D147" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="148" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D148" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="149" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D149" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="150" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D150" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="151" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D151" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="152" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D152" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="153" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D153" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="154" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D154" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="155" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D155" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="156" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D156" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="157" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D157" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="158" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D158" s="32" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="159" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D159" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="160" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D160" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D161" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D162" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D163" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D164" s="32" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D165" s="4" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D166" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D167" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D168" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D169" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D170" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17646,127 +17987,127 @@
         <v>11.17</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E173" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E174" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E175" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E176" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="177" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E177" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="178" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E178" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="179" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E179" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="180" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E180" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="181" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E181" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="182" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E182" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="183" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E183" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="184" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E184" s="4" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="185" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E185" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="186" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E186" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="187" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E187" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="188" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E188" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="189" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E189" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="190" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E190" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="191" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E191" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="192" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E192" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E193" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E194" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E195" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E196" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17774,10 +18115,10 @@
         <v>11.18</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17817,10 +18158,10 @@
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -17831,19 +18172,19 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>342</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17851,58 +18192,58 @@
         <v>16.2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>846</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>844</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17911,7 +18252,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17920,10 +18261,10 @@
         <v>16.5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17931,7 +18272,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17940,18 +18281,18 @@
         <v>16.7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17960,10 +18301,10 @@
         <v>16.8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17971,10 +18312,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17982,10 +18323,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>855</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17993,7 +18334,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18001,7 +18342,7 @@
         <v>16.11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18009,34 +18350,34 @@
         <v>16.12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>862</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -18045,26 +18386,26 @@
         <v>16.25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -18073,35 +18414,35 @@
         <v>16.27</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>872</v>
-      </c>
       <c r="G34" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>870</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -18113,21 +18454,21 @@
         <v>350</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -10846,7 +10846,7 @@
   <dimension ref="A2:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
@@ -11603,11 +11603,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K106" sqref="K106"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13455,11 +13455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:V294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="E110" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K145" sqref="K145"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15911,7 +15908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Visargam Exception" sheetId="6" r:id="rId6"/>
     <sheet name="Avagraha" sheetId="7" r:id="rId7"/>
     <sheet name="Special Anuswaram" sheetId="8" r:id="rId8"/>
+    <sheet name="Special Test Cases" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="1631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="1737">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -3774,18 +3775,6 @@
     <t>1.1.10.2</t>
   </si>
   <si>
-    <t>4.6.6.x</t>
-  </si>
-  <si>
-    <t>3.2.11.3</t>
-  </si>
-  <si>
-    <t>4.3.1.1</t>
-  </si>
-  <si>
-    <t>4.1.5.1</t>
-  </si>
-  <si>
     <t>4.2.8.2</t>
   </si>
   <si>
@@ -5086,6 +5075,356 @@
   </si>
   <si>
     <t>2.2.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aqBi </t>
+  </si>
+  <si>
+    <t>siq~jcAqmiq</t>
+  </si>
+  <si>
+    <t>aBiShi~jcAmi</t>
+  </si>
+  <si>
+    <t>syAqmiq</t>
+  </si>
+  <si>
+    <t>vi ShyAmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vi </t>
+  </si>
+  <si>
+    <r>
+      <t>sIqmaq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>taH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>visImataH</t>
+  </si>
+  <si>
+    <t>pari#</t>
+  </si>
+  <si>
+    <t>pariShi~jcati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prati#  </t>
+  </si>
+  <si>
+    <t>sthAqpaqyaqntiq</t>
+  </si>
+  <si>
+    <t>pratiShThapayanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siq~jcaqtiq </t>
+  </si>
+  <si>
+    <t>saqsAqdaq</t>
+  </si>
+  <si>
+    <t>niShasAda</t>
+  </si>
+  <si>
+    <t>4.2.10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sIqdaq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni </t>
+  </si>
+  <si>
+    <t>ni ShIda</t>
+  </si>
+  <si>
+    <t>3.1.11.2</t>
+  </si>
+  <si>
+    <t>syaqtuq</t>
+  </si>
+  <si>
+    <t>viShyatu</t>
+  </si>
+  <si>
+    <t>3.4.11.6</t>
+  </si>
+  <si>
+    <t>vi Shya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vi  </t>
+  </si>
+  <si>
+    <t>syaq</t>
+  </si>
+  <si>
+    <t>3.3.11.1</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>1.5.11.1</t>
+  </si>
+  <si>
+    <t>u | su | mAtaram</t>
+  </si>
+  <si>
+    <t>3.5.10.1</t>
+  </si>
+  <si>
+    <t>ataH | u | su | madhu</t>
+  </si>
+  <si>
+    <t>7.1.18.2</t>
+  </si>
+  <si>
+    <t>mahIm | u | su | sutrAmANam</t>
+  </si>
+  <si>
+    <t>7.4.17.2</t>
+  </si>
+  <si>
+    <t>1.1.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iqdam | uq | naqH | </t>
+  </si>
+  <si>
+    <t>1.1.14.2</t>
+  </si>
+  <si>
+    <t>vaqyam | uq | tvAq |</t>
+  </si>
+  <si>
+    <t>saH | it | uq | hotA$ |</t>
+  </si>
+  <si>
+    <t>ut | uq | tyam | jAqtave#dasam</t>
+  </si>
+  <si>
+    <t>aqsmABi#H | uq | nu | praqtiqcakShyA$ |</t>
+  </si>
+  <si>
+    <t>maqhIm | uq | su | mAqtara$m |</t>
+  </si>
+  <si>
+    <t>1.5.11.5</t>
+  </si>
+  <si>
+    <t>1.8.10.2</t>
+  </si>
+  <si>
+    <t>Rutena | vi | u | tritaH |</t>
+  </si>
+  <si>
+    <t>vAqmam | uq | SvaH |</t>
+  </si>
+  <si>
+    <t>2.2.12.2</t>
+  </si>
+  <si>
+    <t>2.2.12.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pra | it | uq | haqriqvaH | </t>
+  </si>
+  <si>
+    <t>aqdanti# | uq | eqva | aqsyaq |</t>
+  </si>
+  <si>
+    <t>2.5.12.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam | uq | Suci$m | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kam | uq | sviqtq | aqsyaq | </t>
+  </si>
+  <si>
+    <t>3.1.4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tvAm | uq | te | daqdhiqreq | </t>
+  </si>
+  <si>
+    <t>saH | uq | pAqtuq |</t>
+  </si>
+  <si>
+    <t>3.3.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veH | uq | tat || </t>
+  </si>
+  <si>
+    <t>3.5.5.1</t>
+  </si>
+  <si>
+    <t>aqntari#kSham | tat | uq | meq |</t>
+  </si>
+  <si>
+    <t>sam | ata#H | uq | su | madhu# |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aqyam | uq | syaH | pra | </t>
+  </si>
+  <si>
+    <t>3.5.11.2</t>
+  </si>
+  <si>
+    <t>sve | uq | loqke |</t>
+  </si>
+  <si>
+    <t>3.5.11.3</t>
+  </si>
+  <si>
+    <t>tam | uq | tvAq |</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>4.1.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ut | uq | tiqShThaq | </t>
+  </si>
+  <si>
+    <t>ut | uq | bala$m ||</t>
+  </si>
+  <si>
+    <t>4.2.3.1</t>
+  </si>
+  <si>
+    <t>ut | uq | tvAq | viSve$ |</t>
+  </si>
+  <si>
+    <t>4.2.7.4</t>
+  </si>
+  <si>
+    <t>sam | uq | yaqntuq | vAjA$H |</t>
+  </si>
+  <si>
+    <t>4.2.8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tat | uq | soma#H |</t>
+  </si>
+  <si>
+    <t>4.3.3.1</t>
+  </si>
+  <si>
+    <t>saH | uq | paq~jcaqdaqSava#rtaniH |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saH | uq | saqptaqdaqSava#rtaniH | </t>
+  </si>
+  <si>
+    <t>saH | uq | eqkaqviq(gm)qSava#rtaniH |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tAsA$m | uq | yaqntiq | </t>
+  </si>
+  <si>
+    <t>4.6.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kaH | uq | saH |</t>
+  </si>
+  <si>
+    <t>it | uq | tat | yat |</t>
+  </si>
+  <si>
+    <t>4.6.9.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na | vai | uq | eqtat | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eqtAH | uq | vaqH | </t>
+  </si>
+  <si>
+    <t>5.2.12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kaH | uq | teq | </t>
+  </si>
+  <si>
+    <t>6.1.11.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saH | tasmA$t | uq | AqSya$m | </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tAsA$m | uq | tu | vai | </t>
+  </si>
+  <si>
+    <t>7.5.7.1</t>
+  </si>
+  <si>
+    <t>tat | uq | AqhuqH |</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saH | tu | vai | iDA$m | </t>
+  </si>
+  <si>
+    <t>1.7.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saH | tu | eqva | </t>
+  </si>
+  <si>
+    <t>2.1.5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apa#H | tu | vAva | </t>
+  </si>
+  <si>
+    <t>2.2.4.8</t>
+  </si>
+  <si>
+    <t>jyoti#H | tu | vai | aqsyaq | p</t>
+  </si>
+  <si>
+    <t>6.2.4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iti# | tu | vai | </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tu | vAva | na | </t>
+  </si>
+  <si>
+    <t>6.4.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vasa#tu | nu | naqH | iqdam | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">varca udU balam </t>
   </si>
 </sst>
 </file>
@@ -11287,7 +11626,7 @@
         <v>1157</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11310,7 +11649,7 @@
         <v>1157</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11339,7 +11678,7 @@
         <v>1109</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11362,10 +11701,10 @@
         <v>1157</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11388,10 +11727,10 @@
         <v>1157</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11414,10 +11753,10 @@
         <v>1157</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>1114</v>
@@ -11645,10 +11984,10 @@
         <v>1185</v>
       </c>
       <c r="N20" s="53" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="Q20" s="53" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -11727,13 +12066,13 @@
         <v>376</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="K25" s="32" t="s">
         <v>1157</v>
@@ -11767,7 +12106,7 @@
         <v>381</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="K27" s="32" t="s">
         <v>1157</v>
@@ -11784,7 +12123,7 @@
         <v>382</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>1157</v>
@@ -11804,7 +12143,7 @@
         <v>899</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>1157</v>
@@ -11824,7 +12163,7 @@
         <v>1037</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>1157</v>
@@ -11919,7 +12258,7 @@
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>394</v>
@@ -11999,10 +12338,10 @@
         <v>276</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="L40" s="32" t="s">
         <v>1157</v>
@@ -12019,7 +12358,7 @@
         <v>395</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="L41" s="51"/>
     </row>
@@ -12036,13 +12375,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q105"/>
+  <dimension ref="A2:Q114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="F102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12058,13 +12397,13 @@
     <col min="12" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>396</v>
       </c>
@@ -12072,7 +12411,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -12090,7 +12429,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>6.2</v>
       </c>
@@ -12110,9 +12449,9 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>352</v>
@@ -12127,9 +12466,9 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>352</v>
@@ -12144,9 +12483,9 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>352</v>
@@ -12161,7 +12500,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>583</v>
       </c>
@@ -12172,13 +12511,13 @@
         <v>366</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>399</v>
       </c>
@@ -12189,13 +12528,22 @@
         <v>366</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M11" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>400</v>
       </c>
@@ -12206,13 +12554,19 @@
         <v>366</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="K12" s="32" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="N12" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>401</v>
       </c>
@@ -12223,13 +12577,22 @@
         <v>366</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="K13" s="32" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M13" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
         <v>993</v>
       </c>
@@ -12246,7 +12609,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
         <v>402</v>
       </c>
@@ -12263,7 +12626,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>403</v>
       </c>
@@ -12280,13 +12643,13 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>6.3</v>
       </c>
@@ -12300,7 +12663,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>408</v>
       </c>
@@ -12311,8 +12674,8 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>6.4</v>
       </c>
@@ -12320,234 +12683,148 @@
         <v>1160</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1189</v>
+        <v>1505</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1190</v>
+        <v>1229</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>1192</v>
+        <v>1641</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>1188</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1195</v>
+        <v>1643</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>1196</v>
+        <v>1645</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>366</v>
-      </c>
+        <v>1644</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I24" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="J24" s="56"/>
-      <c r="K24" s="32" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>366</v>
-      </c>
+        <v>1193</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I25" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>366</v>
-      </c>
+        <v>1189</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I26" s="4" t="s">
-        <v>1496</v>
-      </c>
-      <c r="K26" s="32" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>366</v>
-      </c>
+        <v>1192</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I27" s="4" t="s">
-        <v>1267</v>
-      </c>
-      <c r="K27" s="32" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>366</v>
-      </c>
+        <v>1650</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I28" s="4" t="s">
-        <v>1109</v>
+        <v>1191</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>1269</v>
-      </c>
-      <c r="K28" s="32" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>366</v>
-      </c>
+        <v>1635</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>1640</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I29" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>366</v>
-      </c>
+        <v>1190</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I30" s="6" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I31" s="4" t="s">
-        <v>1495</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K32" s="32" t="s">
-        <v>1157</v>
-      </c>
-    </row>
+        <v>1647</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>1648</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>6.5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>404</v>
@@ -12556,8 +12833,9 @@
         <v>366</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1270</v>
-      </c>
+        <v>904</v>
+      </c>
+      <c r="J33" s="56"/>
       <c r="K33" s="32" t="s">
         <v>1157</v>
       </c>
@@ -12566,8 +12844,11 @@
       <c r="A34" s="4">
         <v>6.5</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>417</v>
+      <c r="C34" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>411</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>404</v>
@@ -12576,7 +12857,7 @@
         <v>366</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1271</v>
+        <v>1228</v>
       </c>
       <c r="K34" s="32" t="s">
         <v>1157</v>
@@ -12587,7 +12868,7 @@
         <v>6.5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>404</v>
@@ -12596,7 +12877,7 @@
         <v>366</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1039</v>
+        <v>1492</v>
       </c>
       <c r="K35" s="32" t="s">
         <v>1157</v>
@@ -12607,7 +12888,7 @@
         <v>6.5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>404</v>
@@ -12616,16 +12897,10 @@
         <v>366</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="K36" s="32" t="s">
         <v>1157</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12633,7 +12908,7 @@
         <v>6.5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>421</v>
+        <v>1264</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>404</v>
@@ -12642,1094 +12917,1052 @@
         <v>366</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1497</v>
+        <v>1109</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>1265</v>
       </c>
       <c r="K37" s="32" t="s">
         <v>1157</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="38" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>1157</v>
+      </c>
+    </row>
     <row r="39" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>6.13</v>
+        <v>6.5</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>1233</v>
+        <v>414</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>1233</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>445</v>
-      </c>
       <c r="I39" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>1350</v>
+        <v>1038</v>
       </c>
       <c r="K39" s="32" t="s">
         <v>1157</v>
       </c>
-      <c r="L39" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>1199</v>
-      </c>
     </row>
     <row r="40" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>6.5</v>
+      </c>
       <c r="C40" s="4" t="s">
-        <v>446</v>
+        <v>415</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>1200</v>
+      <c r="I40" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K40" s="32" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>6.5</v>
+      </c>
       <c r="C41" s="4" t="s">
-        <v>447</v>
+        <v>1271</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>1201</v>
+      <c r="I41" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K41" s="32" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>6.5</v>
+      </c>
       <c r="C42" s="4" t="s">
-        <v>1234</v>
+        <v>416</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>1202</v>
+      <c r="I42" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K42" s="32" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C43" s="4" t="s">
-        <v>448</v>
+      <c r="A43" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>1203</v>
+      <c r="I43" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K43" s="32" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>6.5</v>
+      </c>
       <c r="C44" s="4" t="s">
-        <v>449</v>
+        <v>419</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>1203</v>
+      <c r="I44" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K44" s="32" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>6.5</v>
+      </c>
       <c r="C45" s="4" t="s">
-        <v>450</v>
+        <v>420</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="I45" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K45" s="32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K46" s="32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K48" s="32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C49" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C51" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C52" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C53" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C54" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H54" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C55" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C56" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C57" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A58" s="34" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>779</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="28">
+        <v>6.6</v>
+      </c>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C65" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>1235</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I65" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C66" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H66" s="54"/>
+    </row>
+    <row r="67" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C67" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I67" s="34" t="s">
         <v>1159</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C46" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="I46" s="6" t="s">
+      <c r="J67" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C68" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I68" s="34" t="s">
         <v>1159</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>1236</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C47" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="I47" s="6" t="s">
+      <c r="J68" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C69" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I69" s="34" t="s">
         <v>1159</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C48" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>779</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A53" s="28">
-        <v>6.6</v>
-      </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C56" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>1240</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C57" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H57" s="54"/>
-    </row>
-    <row r="58" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C58" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="I58" s="34" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K58" s="4" t="s">
+      <c r="J69" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C59" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="H59" s="4" t="s">
+    <row r="70" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C70" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>1245</v>
-      </c>
-      <c r="I59" s="34" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C60" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I60" s="34" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C61" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I61" s="34" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H62" s="34" t="s">
-        <v>1252</v>
-      </c>
-      <c r="I62" s="34" t="s">
-        <v>1255</v>
-      </c>
-      <c r="J62" s="34" t="s">
-        <v>1253</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="I63" s="34" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="I64" s="34" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>1210</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>862</v>
-      </c>
-      <c r="E66" s="41"/>
-      <c r="H66" s="4" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A68" s="27">
-        <v>6.1</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="H68" s="34" t="s">
-        <v>1258</v>
-      </c>
-      <c r="I68" s="34" t="s">
-        <v>1500</v>
-      </c>
-      <c r="J68" s="34" t="s">
-        <v>1501</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="M68" s="32" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C69" s="4" t="s">
-        <v>1499</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I69" s="34"/>
-      <c r="K69" s="4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="M69" s="32" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>6.11</v>
-      </c>
-      <c r="C70" s="47" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>1263</v>
       </c>
       <c r="I70" s="34" t="s">
         <v>1159</v>
       </c>
+      <c r="J70" s="4" t="s">
+        <v>1246</v>
+      </c>
       <c r="K70" s="4" t="s">
-        <v>1262</v>
-      </c>
-      <c r="M70" s="32" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J71" s="34" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="I72" s="34" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I73" s="34" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="E75" s="41"/>
+      <c r="H75" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A77" s="27">
+        <v>6.1</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I77" s="34" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J77" s="34" t="s">
+        <v>1497</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M77" s="32" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C71" s="47" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D71" s="4" t="s">
+    <row r="78" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C78" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I78" s="34"/>
+      <c r="K78" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M78" s="32" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>6.11</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>1499</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I71" s="34" t="s">
+      <c r="E79" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I79" s="34" t="s">
         <v>1159</v>
       </c>
-      <c r="K71" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="M71" s="32" t="s">
+      <c r="K79" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M79" s="32" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+    <row r="80" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C80" s="47" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I80" s="34" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M80" s="32" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
         <v>6.12</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>1278</v>
-      </c>
-      <c r="L73" s="53" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C74" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>1280</v>
-      </c>
-      <c r="L74" s="53" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C75" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>1281</v>
-      </c>
-      <c r="L75" s="53" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C76" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>1282</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>1283</v>
-      </c>
-      <c r="L76" s="53" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C77" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>1284</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>1285</v>
-      </c>
-      <c r="L77" s="53" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C78" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>1287</v>
-      </c>
-      <c r="L78" s="53" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C79" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>1288</v>
-      </c>
-      <c r="L79" s="53" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C80" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>1289</v>
-      </c>
-      <c r="L80" s="53" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>1216</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C81" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>1352</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="L81" s="53" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C82" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>998</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>908</v>
+        <v>1273</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>1159</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>1291</v>
+        <v>1274</v>
       </c>
       <c r="L82" s="53" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>998</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>963</v>
+        <v>1275</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>1159</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
       <c r="L83" s="53" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="84" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="4" t="s">
-        <v>1354</v>
+        <v>437</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>998</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>1355</v>
+        <v>1198</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>1159</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>1356</v>
+        <v>1277</v>
       </c>
       <c r="L84" s="53" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="85" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C85" s="4" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>998</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>1293</v>
+        <v>1278</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>1159</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="L85" s="53" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A87" s="40">
+    <row r="86" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C86" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="L86" s="53" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C87" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L87" s="53" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C88" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="L88" s="53" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C89" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L89" s="53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C90" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="L90" s="53" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C91" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L91" s="53" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C92" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L92" s="53" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C93" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L93" s="53" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C94" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L94" s="53" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
         <v>6.14</v>
       </c>
-      <c r="B87" s="53" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="G87" s="52" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="L87" s="4" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B88" s="53" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="G88" s="52" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B89" s="53" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C89" s="39" t="s">
-        <v>456</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="G89" s="52" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B90" s="53" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="G90" s="32" t="s">
-        <v>1163</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>1493</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="N90" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="O90" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="P90" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="Q90" s="4" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B91" s="53" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="G91" s="32" t="s">
-        <v>1163</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="L91" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B92" s="53" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="G92" s="52" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B93" s="53" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C93" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="G93" s="52" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B94" s="53" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C94" s="39" t="s">
-        <v>951</v>
-      </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="G94" s="52" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B95" s="53" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="G95" s="52" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B96" s="53" t="s">
         <v>1157</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="D96" s="4"/>
+        <v>454</v>
+      </c>
       <c r="E96" s="4" t="s">
         <v>404</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="G96" s="32" t="s">
-        <v>1163</v>
+      <c r="G96" s="52" t="s">
+        <v>1166</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>961</v>
+        <v>466</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="97" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>944</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B97" s="53" t="s">
         <v>1157</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="D97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="E97" s="4" t="s">
         <v>404</v>
       </c>
@@ -13739,36 +13972,20 @@
       <c r="G97" s="52" t="s">
         <v>1166</v>
       </c>
+      <c r="H97" s="4" t="s">
+        <v>946</v>
+      </c>
       <c r="I97" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="N97" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="O97" s="4" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="98" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B98" s="53" t="s">
         <v>1157</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="D98" s="4"/>
+      <c r="C98" s="39" t="s">
+        <v>456</v>
+      </c>
       <c r="E98" s="4" t="s">
         <v>404</v>
       </c>
@@ -13779,57 +13996,88 @@
         <v>1166</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="99" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B99" s="53" t="s">
         <v>1157</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D99" s="4"/>
+        <v>457</v>
+      </c>
       <c r="E99" s="4" t="s">
         <v>404</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="G99" s="52" t="s">
-        <v>1166</v>
+      <c r="G99" s="32" t="s">
+        <v>1163</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="100" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>1489</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B100" s="53" t="s">
         <v>1157</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="D100" s="4"/>
+        <v>458</v>
+      </c>
       <c r="E100" s="4" t="s">
         <v>404</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="G100" s="52" t="s">
-        <v>1166</v>
+      <c r="G100" s="32" t="s">
+        <v>1163</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="101" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>931</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B101" s="53" t="s">
         <v>1157</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
@@ -13842,15 +14090,15 @@
         <v>1166</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="102" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B102" s="53" t="s">
         <v>1157</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>465</v>
+      <c r="C102" s="39" t="s">
+        <v>460</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
@@ -13863,49 +14111,265 @@
         <v>1166</v>
       </c>
       <c r="H102" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B103" s="53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>951</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G103" s="52" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B104" s="53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G104" s="52" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B105" s="53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B106" s="53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G106" s="52" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B107" s="53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G107" s="52" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B108" s="53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G108" s="52" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B109" s="53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G109" s="52" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B110" s="53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G110" s="52" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B111" s="53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G111" s="52" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H111" s="4" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="103" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C104" s="25" t="s">
+    <row r="112" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="3:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C113" s="25" t="s">
         <v>875</v>
       </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="J104" s="4" t="s">
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="J113" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="K104" s="4" t="s">
-        <v>1359</v>
-      </c>
-      <c r="L104" s="4" t="s">
+      <c r="K113" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L113" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="M104" s="4" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="105" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C105" s="25" t="s">
+      <c r="M113" s="4" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="114" spans="3:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C114" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="J105" s="4" t="s">
+      <c r="J114" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="K105" s="4" t="s">
-        <v>1360</v>
-      </c>
-      <c r="L105" s="4" t="s">
+      <c r="K114" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L114" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="M105" s="4" t="s">
-        <v>1358</v>
+      <c r="M114" s="4" t="s">
+        <v>1354</v>
       </c>
     </row>
   </sheetData>
@@ -13918,8 +14382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13976,19 +14440,19 @@
         <v>395</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>1157</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
@@ -14004,7 +14468,7 @@
         <v>395</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>1157</v>
@@ -14033,12 +14497,12 @@
         <v>920</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="4" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14061,12 +14525,12 @@
         <v>921</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="4" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14089,12 +14553,12 @@
         <v>922</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
       <c r="P11" s="4" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14123,12 +14587,12 @@
         <v>925</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="4" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14151,17 +14615,17 @@
         <v>926</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
       <c r="P13" s="4" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>276</v>
@@ -14170,21 +14634,21 @@
         <v>395</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="K14" s="32" t="s">
         <v>1157</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="4" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14198,10 +14662,10 @@
         <v>395</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>1159</v>
@@ -14224,7 +14688,7 @@
         <v>395</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>1159</v>
@@ -14244,19 +14708,19 @@
         <v>395</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>1157</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14277,10 +14741,10 @@
         <v>1157</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14312,10 +14776,10 @@
         <v>395</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>1159</v>
@@ -14332,20 +14796,20 @@
         <v>395</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="32" t="s">
         <v>1157</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14359,7 +14823,7 @@
         <v>920</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="J24" s="51" t="s">
         <v>1159</v>
@@ -14376,19 +14840,19 @@
         <v>395</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>1157</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14399,19 +14863,19 @@
         <v>478</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="J26" s="51" t="s">
         <v>1159</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14468,16 +14932,16 @@
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>482</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="K31" s="51" t="s">
         <v>1159</v>
@@ -14488,10 +14952,10 @@
         <v>483</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="K32" s="51" t="s">
         <v>1159</v>
@@ -14502,10 +14966,10 @@
         <v>25</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="K33" s="51" t="s">
         <v>1159</v>
@@ -14519,7 +14983,7 @@
         <v>43</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="K34" s="51" t="s">
         <v>1159</v>
@@ -14543,7 +15007,7 @@
         <v>970</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="N36" s="32" t="s">
         <v>1157</v>
@@ -14560,16 +15024,16 @@
         <v>973</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="K37" s="51" t="s">
         <v>1159</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>1157</v>
@@ -14590,16 +15054,16 @@
         <v>971</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="K39" s="51" t="s">
         <v>1159</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>1157</v>
@@ -14616,10 +15080,10 @@
         <v>972</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="K40" s="51" t="s">
         <v>1159</v>
@@ -14637,10 +15101,10 @@
         <v>492</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="K42" s="51" t="s">
         <v>1159</v>
@@ -14654,10 +15118,10 @@
         <v>493</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="K43" s="51" t="s">
         <v>1159</v>
@@ -14674,7 +15138,7 @@
         <v>904</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="K44" s="51" t="s">
         <v>1159</v>
@@ -14688,10 +15152,10 @@
         <v>495</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="K45" s="51" t="s">
         <v>1159</v>
@@ -14705,10 +15169,10 @@
         <v>496</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="K46" s="51" t="s">
         <v>1159</v>
@@ -14722,10 +15186,10 @@
         <v>497</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="K47" s="51" t="s">
         <v>1159</v>
@@ -14750,7 +15214,7 @@
         <v>974</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>1172</v>
@@ -14765,10 +15229,10 @@
       </c>
       <c r="E50" s="39"/>
       <c r="G50" s="4" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>1172</v>
@@ -14783,10 +15247,10 @@
       </c>
       <c r="E51" s="39"/>
       <c r="G51" s="4" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>1172</v>
@@ -14797,7 +15261,7 @@
         <v>498</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="E52" s="39"/>
       <c r="G52" s="4" t="s">
@@ -14813,11 +15277,11 @@
         <v>325</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="E53" s="39"/>
       <c r="G53" s="4" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I53" s="52"/>
       <c r="L53" s="4" t="s">
@@ -14829,14 +15293,14 @@
         <v>499</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="E54" s="39"/>
       <c r="G54" s="4" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>1172</v>
@@ -14855,10 +15319,10 @@
       </c>
       <c r="E56" s="39"/>
       <c r="G56" s="4" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="K56" s="51" t="s">
         <v>1159</v>
@@ -14876,7 +15340,7 @@
         <v>1090</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="K57" s="51" t="s">
         <v>1159</v>
@@ -14888,7 +15352,7 @@
         <v>7.13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>404</v>
@@ -14897,10 +15361,10 @@
         <v>503</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="I59" s="61" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="K59" s="51" t="s">
         <v>1159</v>
@@ -14926,7 +15390,7 @@
         <v>7.14</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>504</v>
@@ -14935,7 +15399,7 @@
         <v>505</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14949,7 +15413,7 @@
         <v>505</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14962,10 +15426,10 @@
       </c>
       <c r="D65" s="28"/>
       <c r="G65" s="32" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>1157</v>
@@ -14987,13 +15451,13 @@
         <v>276</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>1159</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15007,10 +15471,10 @@
         <v>276</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>1157</v>
@@ -15027,10 +15491,10 @@
         <v>276</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>1157</v>
@@ -15047,10 +15511,10 @@
         <v>276</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>1157</v>
@@ -15067,10 +15531,10 @@
         <v>276</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>1157</v>
@@ -15087,10 +15551,10 @@
         <v>276</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>1157</v>
@@ -15176,13 +15640,13 @@
         <v>956</v>
       </c>
       <c r="K82" s="52" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>594</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="83" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15214,10 +15678,10 @@
         <v>599</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15234,27 +15698,27 @@
         <v>599</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>999</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="L86" s="4" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="87" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15277,7 +15741,7 @@
         <v>1157</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="R87" s="4" t="s">
         <v>953</v>
@@ -15303,13 +15767,13 @@
         <v>958</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="S88" s="4" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15329,13 +15793,13 @@
         <v>958</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="S89" s="4" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15349,16 +15813,16 @@
         <v>815</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="T90" s="4" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="91" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15372,13 +15836,13 @@
         <v>815</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="92" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15392,22 +15856,22 @@
         <v>815</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="L92" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="R92" s="58" t="s">
+        <v>1389</v>
+      </c>
+      <c r="S92" s="58" t="s">
         <v>1390</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>1391</v>
-      </c>
-      <c r="Q92" s="4" t="s">
-        <v>1392</v>
-      </c>
-      <c r="R92" s="58" t="s">
-        <v>1393</v>
-      </c>
-      <c r="S92" s="58" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="93" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15426,7 +15890,7 @@
       </c>
       <c r="L94" s="39"/>
       <c r="M94" s="4" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15443,7 +15907,7 @@
         <v>958</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="96" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15457,10 +15921,10 @@
         <v>815</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="97" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15474,18 +15938,18 @@
         <v>815</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="98" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>606</v>
@@ -15497,7 +15961,7 @@
         <v>1022</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15511,10 +15975,10 @@
         <v>815</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="100" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15528,16 +15992,16 @@
         <v>815</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="101" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15551,16 +16015,16 @@
         <v>815</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="S101" s="59" t="s">
         <v>932</v>
@@ -15568,7 +16032,7 @@
     </row>
     <row r="102" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>614</v>
@@ -15583,26 +16047,26 @@
         <v>1161</v>
       </c>
       <c r="K102" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="L102" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="L102" s="4" t="s">
-        <v>1415</v>
-      </c>
       <c r="M102" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="R102" s="32" t="s">
         <v>1410</v>
       </c>
-      <c r="P102" s="4" t="s">
-        <v>1412</v>
-      </c>
-      <c r="R102" s="32" t="s">
-        <v>1414</v>
-      </c>
       <c r="S102" s="32" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="T102" s="32"/>
       <c r="U102" s="32" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="103" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15619,7 +16083,7 @@
         <v>965</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="104" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15633,27 +16097,27 @@
         <v>815</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="L104" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="P104" s="4" t="s">
         <v>1418</v>
-      </c>
-      <c r="M104" s="4" t="s">
-        <v>1418</v>
-      </c>
-      <c r="P104" s="4" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="105" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="J105" s="4" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="106" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15679,7 +16143,7 @@
         <v>902</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15705,7 +16169,7 @@
         <v>919</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="108" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15713,7 +16177,7 @@
         <v>895</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>276</v>
@@ -15725,7 +16189,7 @@
         <v>895</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="109" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15748,7 +16212,7 @@
         <v>896</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="O109" s="39"/>
     </row>
@@ -15772,7 +16236,7 @@
         <v>900</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15792,7 +16256,7 @@
         <v>897</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="112" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15806,7 +16270,7 @@
         <v>815</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15829,7 +16293,7 @@
         <v>898</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15852,7 +16316,7 @@
         <v>902</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15890,7 +16354,7 @@
         <v>904</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="N115" s="4" t="s">
         <v>457</v>
@@ -15899,7 +16363,7 @@
         <v>940</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15919,7 +16383,7 @@
         <v>911</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15939,7 +16403,7 @@
         <v>912</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15962,10 +16426,10 @@
         <v>913</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15985,12 +16449,12 @@
         <v>915</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C120" s="39" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>276</v>
@@ -16002,7 +16466,7 @@
         <v>916</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16019,7 +16483,7 @@
         <v>815</v>
       </c>
       <c r="G121" s="59" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>916</v>
@@ -16054,7 +16518,7 @@
         <v>917</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -16063,7 +16527,7 @@
         <v>9.23</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>276</v>
@@ -16072,19 +16536,19 @@
         <v>629</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="J124" s="32" t="s">
         <v>1157</v>
       </c>
       <c r="K124" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="M124" s="4" t="s">
         <v>1439</v>
-      </c>
-      <c r="L124" s="4" t="s">
-        <v>1442</v>
-      </c>
-      <c r="M124" s="4" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16098,13 +16562,13 @@
         <v>629</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="J125" s="32" t="s">
         <v>1157</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16118,7 +16582,7 @@
         <v>629</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>1094</v>
@@ -16127,7 +16591,7 @@
         <v>1157</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16141,13 +16605,13 @@
         <v>629</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="J127" s="32" t="s">
         <v>1157</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16167,7 +16631,7 @@
         <v>1157</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="129" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16181,13 +16645,13 @@
         <v>629</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="J129" s="32" t="s">
         <v>1157</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="130" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16201,7 +16665,7 @@
         <v>629</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>1076</v>
@@ -16210,10 +16674,10 @@
         <v>1157</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="131" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -16237,7 +16701,7 @@
         <v>1157</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="133" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16257,7 +16721,7 @@
         <v>1157</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="134" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -16275,10 +16739,10 @@
         <v>395</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="M135" s="4" t="s">
         <v>794</v>
@@ -16292,10 +16756,10 @@
         <v>395</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="137" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16306,10 +16770,10 @@
         <v>395</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16320,10 +16784,10 @@
         <v>395</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16337,10 +16801,10 @@
         <v>858</v>
       </c>
       <c r="K139" s="51" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16348,10 +16812,10 @@
         <v>859</v>
       </c>
       <c r="K140" s="51" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16359,10 +16823,10 @@
         <v>860</v>
       </c>
       <c r="K141" s="51" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16370,18 +16834,18 @@
         <v>861</v>
       </c>
       <c r="K142" s="51" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G143" s="4" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="K143" s="51" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="L143" s="4" t="s">
         <v>684</v>
@@ -16389,18 +16853,18 @@
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G144" s="4" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="K144" s="51" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="145" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G145" s="4" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="K145" s="51"/>
     </row>
@@ -16564,10 +17028,10 @@
   <dimension ref="A2:R109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17032,22 +17496,22 @@
         <v>359</v>
       </c>
       <c r="G34" s="61" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>1157</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17055,13 +17519,13 @@
         <v>8.9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>1157</v>
@@ -17069,19 +17533,19 @@
     </row>
     <row r="36" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G36" s="4" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="4" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -17095,42 +17559,42 @@
         <v>359</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>1157</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="M38" s="4" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>293</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17138,13 +17602,13 @@
         <v>8.11</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>359</v>
@@ -17155,16 +17619,16 @@
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
       <c r="M39" s="4" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17185,7 +17649,7 @@
         <v>542</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17206,10 +17670,10 @@
         <v>1073</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="44" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17223,13 +17687,13 @@
         <v>545</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17243,13 +17707,13 @@
         <v>545</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17267,10 +17731,10 @@
         <v>548</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17284,10 +17748,10 @@
         <v>548</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="J48" s="62" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17302,19 +17766,19 @@
         <v>548</v>
       </c>
       <c r="I50" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="R50" s="4" t="s">
         <v>1606</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>1607</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>1608</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>1609</v>
-      </c>
-      <c r="R50" s="4" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17367,16 +17831,16 @@
         <v>555</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="58" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17384,16 +17848,16 @@
         <v>412</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17401,16 +17865,16 @@
         <v>556</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="N59" s="4" t="s">
         <v>1564</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>1411</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>1567</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17418,16 +17882,16 @@
         <v>557</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="61" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17435,16 +17899,16 @@
         <v>558</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>1053</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17452,16 +17916,16 @@
         <v>561</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17469,16 +17933,16 @@
         <v>559</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17486,16 +17950,16 @@
         <v>560</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="65" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17503,16 +17967,16 @@
         <v>562</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>913</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17520,16 +17984,16 @@
         <v>563</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17537,16 +18001,16 @@
         <v>564</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17570,13 +18034,13 @@
         <v>1157</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>925</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17587,7 +18051,7 @@
         <v>352</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="H70" s="28" t="s">
         <v>422</v>
@@ -17596,10 +18060,10 @@
         <v>1157</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17610,16 +18074,16 @@
         <v>352</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>1157</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17633,16 +18097,16 @@
         <v>352</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>1157</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17806,7 +18270,7 @@
         <v>1008</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17897,13 +18361,13 @@
         <v>585</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>1173</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20294,4 +20758,1180 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="62" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="28" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="62" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -5328,9 +5328,6 @@
     <t>4.2.8.1</t>
   </si>
   <si>
-    <t xml:space="preserve"> tat | uq | soma#H |</t>
-  </si>
-  <si>
     <t>4.3.3.1</t>
   </si>
   <si>
@@ -5349,9 +5346,6 @@
     <t>4.6.2.5</t>
   </si>
   <si>
-    <t xml:space="preserve"> kaH | uq | saH |</t>
-  </si>
-  <si>
     <t>it | uq | tat | yat |</t>
   </si>
   <si>
@@ -5367,18 +5361,12 @@
     <t>5.2.12.1</t>
   </si>
   <si>
-    <t xml:space="preserve"> kaH | uq | teq | </t>
-  </si>
-  <si>
     <t>6.1.11.6</t>
   </si>
   <si>
     <t xml:space="preserve">saH | tasmA$t | uq | AqSya$m | </t>
   </si>
   <si>
-    <t xml:space="preserve"> tAsA$m | uq | tu | vai | </t>
-  </si>
-  <si>
     <t>7.5.7.1</t>
   </si>
   <si>
@@ -5425,6 +5413,18 @@
   </si>
   <si>
     <t xml:space="preserve">varca udU balam </t>
+  </si>
+  <si>
+    <t>kaH | uq | saH |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaH | uq | teq | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tAsA$m | uq | tu | vai | </t>
+  </si>
+  <si>
+    <t>tat | uq | soma#H |</t>
   </si>
 </sst>
 </file>
@@ -6030,8 +6030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11558,7 +11558,7 @@
   <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="F33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
@@ -12378,7 +12378,7 @@
   <dimension ref="A2:Q114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
@@ -20764,8 +20764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21286,7 +21286,7 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="28" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -21349,7 +21349,7 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>1704</v>
+        <v>1736</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -21363,14 +21363,14 @@
     </row>
     <row r="30" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -21384,14 +21384,14 @@
     </row>
     <row r="31" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -21412,7 +21412,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -21447,14 +21447,14 @@
     </row>
     <row r="34" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>1711</v>
+        <v>1733</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -21468,14 +21468,14 @@
     </row>
     <row r="35" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -21489,14 +21489,14 @@
     </row>
     <row r="36" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -21517,7 +21517,7 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="62" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -21531,14 +21531,14 @@
     </row>
     <row r="38" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>1717</v>
+        <v>1734</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -21552,14 +21552,14 @@
     </row>
     <row r="39" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -21580,7 +21580,7 @@
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>1720</v>
+        <v>1735</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -21594,14 +21594,14 @@
     </row>
     <row r="41" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -21645,14 +21645,14 @@
     </row>
     <row r="44" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>1695</v>
@@ -21668,12 +21668,12 @@
     </row>
     <row r="45" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -21687,12 +21687,12 @@
     </row>
     <row r="46" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -21706,12 +21706,12 @@
     </row>
     <row r="47" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -21725,12 +21725,12 @@
     </row>
     <row r="48" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -21744,12 +21744,12 @@
     </row>
     <row r="49" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -21778,12 +21778,12 @@
     </row>
     <row r="51" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="1747">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -5425,6 +5425,36 @@
   </si>
   <si>
     <t>tat | uq | soma#H |</t>
+  </si>
+  <si>
+    <t>Padam</t>
+  </si>
+  <si>
+    <t>SamhitA text</t>
+  </si>
+  <si>
+    <t>idamunaH</t>
+  </si>
+  <si>
+    <t>vayamutvA</t>
+  </si>
+  <si>
+    <t>sedu hotA</t>
+  </si>
+  <si>
+    <t>udutyam</t>
+  </si>
+  <si>
+    <t>asmABirU nu</t>
+  </si>
+  <si>
+    <t>idamu naH</t>
+  </si>
+  <si>
+    <t>mahimU shu mAtaram</t>
+  </si>
+  <si>
+    <t>Rutena vyu tritaH</t>
   </si>
 </sst>
 </file>
@@ -6030,7 +6060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
@@ -11558,7 +11588,7 @@
   <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
@@ -12378,7 +12408,7 @@
   <dimension ref="A2:Q114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
@@ -14382,7 +14412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
@@ -17028,10 +17058,10 @@
   <dimension ref="A2:R109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C97" sqref="C97"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20764,8 +20794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20779,9 +20809,13 @@
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>1737</v>
+      </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>1738</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -20817,7 +20851,9 @@
         <v>1664</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>1739</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -20838,7 +20874,9 @@
         <v>1666</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>1740</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -20859,7 +20897,9 @@
         <v>1667</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -20882,7 +20922,9 @@
       <c r="E7" s="4" t="s">
         <v>1695</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>1742</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -20903,7 +20945,9 @@
         <v>1669</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>1743</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -20924,7 +20968,9 @@
         <v>1664</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>1744</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -20945,7 +20991,9 @@
         <v>1670</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>1745</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -20966,7 +21014,9 @@
         <v>1673</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>1746</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="1747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1825">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -5217,27 +5217,15 @@
     <t>vaqyam | uq | tvAq |</t>
   </si>
   <si>
-    <t>saH | it | uq | hotA$ |</t>
-  </si>
-  <si>
-    <t>ut | uq | tyam | jAqtave#dasam</t>
-  </si>
-  <si>
     <t>aqsmABi#H | uq | nu | praqtiqcakShyA$ |</t>
   </si>
   <si>
-    <t>maqhIm | uq | su | mAqtara$m |</t>
-  </si>
-  <si>
     <t>1.5.11.5</t>
   </si>
   <si>
     <t>1.8.10.2</t>
   </si>
   <si>
-    <t>Rutena | vi | u | tritaH |</t>
-  </si>
-  <si>
     <t>vAqmam | uq | SvaH |</t>
   </si>
   <si>
@@ -5247,9 +5235,6 @@
     <t>2.2.12.8</t>
   </si>
   <si>
-    <t xml:space="preserve"> pra | it | uq | haqriqvaH | </t>
-  </si>
-  <si>
     <t>aqdanti# | uq | eqva | aqsyaq |</t>
   </si>
   <si>
@@ -5259,15 +5244,9 @@
     <t xml:space="preserve">tam | uq | Suci$m | </t>
   </si>
   <si>
-    <t xml:space="preserve">kam | uq | sviqtq | aqsyaq | </t>
-  </si>
-  <si>
     <t>3.1.4.4</t>
   </si>
   <si>
-    <t xml:space="preserve">tvAm | uq | te | daqdhiqreq | </t>
-  </si>
-  <si>
     <t>saH | uq | pAqtuq |</t>
   </si>
   <si>
@@ -5280,9 +5259,6 @@
     <t>3.5.5.1</t>
   </si>
   <si>
-    <t>aqntari#kSham | tat | uq | meq |</t>
-  </si>
-  <si>
     <t>sam | ata#H | uq | su | madhu# |</t>
   </si>
   <si>
@@ -5322,9 +5298,6 @@
     <t>4.2.7.4</t>
   </si>
   <si>
-    <t>sam | uq | yaqntuq | vAjA$H |</t>
-  </si>
-  <si>
     <t>4.2.8.1</t>
   </si>
   <si>
@@ -5364,9 +5337,6 @@
     <t>6.1.11.6</t>
   </si>
   <si>
-    <t xml:space="preserve">saH | tasmA$t | uq | AqSya$m | </t>
-  </si>
-  <si>
     <t>7.5.7.1</t>
   </si>
   <si>
@@ -5448,13 +5418,277 @@
     <t>asmABirU nu</t>
   </si>
   <si>
-    <t>idamu naH</t>
-  </si>
-  <si>
-    <t>mahimU shu mAtaram</t>
-  </si>
-  <si>
     <t>Rutena vyu tritaH</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>pretu</t>
+  </si>
+  <si>
+    <t>adantyu veva</t>
+  </si>
+  <si>
+    <t>tamU Sucim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kam u Shvit </t>
+  </si>
+  <si>
+    <t>tvamu te</t>
+  </si>
+  <si>
+    <t>sa u pAtu</t>
+  </si>
+  <si>
+    <t>veru tat</t>
+  </si>
+  <si>
+    <t>tadu me</t>
+  </si>
+  <si>
+    <t>samata U Shu</t>
+  </si>
+  <si>
+    <t>ayamu Sya pra</t>
+  </si>
+  <si>
+    <t>sva u loke</t>
+  </si>
+  <si>
+    <t>udu tiShTha</t>
+  </si>
+  <si>
+    <t>udu tvA</t>
+  </si>
+  <si>
+    <t>samu yantu</t>
+  </si>
+  <si>
+    <t>tadu soma</t>
+  </si>
+  <si>
+    <t>u vekavi(gm)Savartanih</t>
+  </si>
+  <si>
+    <t>u pa~jcadaSavartaniH</t>
+  </si>
+  <si>
+    <t>u saptadaSavartaniH</t>
+  </si>
+  <si>
+    <t>tasAmu yanti</t>
+  </si>
+  <si>
+    <t>ka u sa</t>
+  </si>
+  <si>
+    <t>idu tat</t>
+  </si>
+  <si>
+    <t>na vA u vetat</t>
+  </si>
+  <si>
+    <t>etA u va</t>
+  </si>
+  <si>
+    <t>ka u te</t>
+  </si>
+  <si>
+    <t>tasmAdu-vAsyam</t>
+  </si>
+  <si>
+    <t>tasAmu tvA</t>
+  </si>
+  <si>
+    <t>taduvAhuH</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>vasatu nu na idam</t>
+  </si>
+  <si>
+    <t>Jatai</t>
+  </si>
+  <si>
+    <t>Ghanam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asmABiruvuvasmABirasmABiru </t>
+  </si>
+  <si>
+    <t>asmABiruvuvasmABirasmABirUnunvasmABirasmABirUnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adantyuvuvadantya dantyuvevaivodantyadantyuveva </t>
+  </si>
+  <si>
+    <t>adantyuvuvadantyadantyu</t>
+  </si>
+  <si>
+    <t>UtutUtu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UtutUtvaivai tUtvai </t>
+  </si>
+  <si>
+    <t>u+tu ,EL applies so becomes U; Noted merger of tu+u+u into long anyhow it will be due to elongation rule. No v added between u+u as it is followed by Consonant</t>
+  </si>
+  <si>
+    <t>mahimU Shu mAtaram</t>
+  </si>
+  <si>
+    <t>samato &amp;taH sa(gm) samata u</t>
+  </si>
+  <si>
+    <t>4.1.14.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saH | it | uq | </t>
+  </si>
+  <si>
+    <t>seditsaseduvuvitsasedu</t>
+  </si>
+  <si>
+    <t>seditsaset</t>
+  </si>
+  <si>
+    <t>iduvuvididuta ttadvidutat</t>
+  </si>
+  <si>
+    <t>iduvuvididu</t>
+  </si>
+  <si>
+    <t>iduvuvididuhotA hota vididuhotA</t>
+  </si>
+  <si>
+    <t>uq | eqva | aqsyaq |</t>
+  </si>
+  <si>
+    <t>uvevAsya</t>
+  </si>
+  <si>
+    <t>uvevaivavuvevAsyAsyaivavuvevAsya</t>
+  </si>
+  <si>
+    <t>uvevaivavuveva</t>
+  </si>
+  <si>
+    <t>sa^^uvusasa^^u pAtupAtuvsa sa upAtu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sa^^uvusasa^^u </t>
+  </si>
+  <si>
+    <t>5.3.4.7</t>
+  </si>
+  <si>
+    <t>uq | caq | eqnAqM |</t>
+  </si>
+  <si>
+    <t>ucainAm</t>
+  </si>
+  <si>
+    <t>ucacavuvucainamenaMcavucainam</t>
+  </si>
+  <si>
+    <t>ucacauvuvuca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasmA$t | uq | AqSya$m | </t>
+  </si>
+  <si>
+    <t>tasmAdUtasmAttasmAdu</t>
+  </si>
+  <si>
+    <t>tasmAdUtasmAttasmAduvAsyamAsyamutasmattasmAtuvAsyam</t>
+  </si>
+  <si>
+    <t>tat | uq | meq |</t>
+  </si>
+  <si>
+    <t>tadUtattadu</t>
+  </si>
+  <si>
+    <t>tadUtattadu me ma u tatadu me</t>
+  </si>
+  <si>
+    <t>vayamUvayamvayamu</t>
+  </si>
+  <si>
+    <t>vayamUvayamvayamutvAtvauvayamutvA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sam | uq | yaqntuq | </t>
+  </si>
+  <si>
+    <t>samuvusamuyantuyantUsa(gm)samutvA</t>
+  </si>
+  <si>
+    <t>samato &amp;taH sa(gm) samata u vuvataH sa(gm) samata u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ut | uq | tyam | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uduvuvududutyantyamuvududutyam </t>
+  </si>
+  <si>
+    <t>uduvuvududu</t>
+  </si>
+  <si>
+    <t>idamuvuvidamidamu</t>
+  </si>
+  <si>
+    <t>uq | su | mAqtara$m |</t>
+  </si>
+  <si>
+    <t>UShusUShu</t>
+  </si>
+  <si>
+    <t>UShusUShu mAtaram mAtara(gm) sU Shu mAtaram</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vi | u | tritaH |</t>
+  </si>
+  <si>
+    <t>vyuvuvivyu</t>
+  </si>
+  <si>
+    <t>vAmamu SvaH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vAmamu vu vAmam vAmamu </t>
+  </si>
+  <si>
+    <t>vAmamu vu vAmam vAmamu ShvaH  Shva u vAmam vAmamu ShvaH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pra | it | uq |</t>
+  </si>
+  <si>
+    <t>predit prapret</t>
+  </si>
+  <si>
+    <t>predit prapretuvuvitprapretu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kam | uq | sviqtq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tvAm | uq | te | </t>
+  </si>
+  <si>
+    <t>tamu tvA</t>
+  </si>
+  <si>
+    <t>tamUtamtamutvAtvavtamtamutvA</t>
+  </si>
+  <si>
+    <t>it | uq | hotA$ |</t>
   </si>
 </sst>
 </file>
@@ -5657,7 +5891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5680,11 +5914,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5777,6 +6024,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20792,39 +21048,49 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M60"/>
+  <dimension ref="A2:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="64.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" customWidth="1"/>
+    <col min="7" max="7" width="63.33203125" customWidth="1"/>
+    <col min="8" max="8" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>1738</v>
-      </c>
-      <c r="G2" s="4"/>
+    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>818</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>1766</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -20837,22 +21103,23 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1663</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1664</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>1729</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>1739</v>
+        <v>1808</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -20860,139 +21127,157 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1665</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>1666</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>1730</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>1740</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>1800</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1801</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>904</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>1731</v>
+      </c>
       <c r="F6" s="4" t="s">
-        <v>1741</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>1781</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1782</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1178</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>1805</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>1668</v>
+        <v>1687</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1695</v>
+        <v>1732</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1742</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>1807</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1806</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1266</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>1667</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>1763</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1733</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>1743</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>1767</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>1768</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>981</v>
+        <v>1668</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>1664</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>1774</v>
+      </c>
       <c r="F9" s="4" t="s">
-        <v>1744</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>1810</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1811</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>1670</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>1734</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>1745</v>
+        <v>1813</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -21000,106 +21285,127 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>1814</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>1815</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1816</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>1674</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1819</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1676</v>
+        <v>1585</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>1769</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>1585</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>1678</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1785</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>1675</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>1763</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>1738</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -21107,20 +21413,21 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>992</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>1739</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -21128,20 +21435,21 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>1740</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -21149,41 +21457,47 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>994</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>1787</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>1742</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -21191,62 +21505,73 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>1799</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>1658</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="62" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="C21" s="62" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>1804</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>987</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>1745</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -21254,21 +21579,22 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>1684</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1695</v>
+        <v>1746</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -21277,43 +21603,47 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>1686</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>1822</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1823</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>1747</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -21321,66 +21651,71 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>932</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>1690</v>
+      </c>
       <c r="D26" s="4" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="28" t="s">
-        <v>1732</v>
-      </c>
+        <v>1763</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1699</v>
+        <v>1776</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>1700</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="53" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1778</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>1692</v>
+      </c>
       <c r="D28" s="4" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>1687</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>1748</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -21388,41 +21723,45 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>1803</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>1750</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -21430,20 +21769,21 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>1752</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -21451,20 +21791,21 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1359</v>
+        <v>1695</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>1753</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -21472,20 +21813,21 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>1233</v>
+        <v>1359</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>1751</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -21493,20 +21835,21 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1709</v>
+        <v>1233</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>1754</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -21514,20 +21857,21 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>1755</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -21535,41 +21879,47 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>1780</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>1197</v>
+        <v>1702</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="62" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>1757</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -21577,20 +21927,21 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>1714</v>
+        <v>1197</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E38" s="4"/>
+      <c r="C38" s="62" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>1758</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -21598,20 +21949,21 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>1716</v>
-      </c>
-      <c r="E39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>1759</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -21619,71 +21971,101 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>996</v>
+        <v>1789</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="C40" s="15" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>1792</v>
+      </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>1717</v>
+        <v>1706</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>1718</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>1796</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+    </row>
+    <row r="42" spans="1:12" ht="87" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1725</v>
+      </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H42" s="61" t="s">
+        <v>1773</v>
+      </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+    </row>
+    <row r="43" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1708</v>
+      </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>1762</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -21691,22 +22073,13 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>304</v>
-      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>1695</v>
-      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -21714,17 +22087,12 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>1721</v>
-      </c>
+    </row>
+    <row r="45" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
-        <v>1722</v>
-      </c>
+      <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -21733,16 +22101,19 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+        <v>1709</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1710</v>
+      </c>
       <c r="D46" s="4" t="s">
-        <v>1724</v>
+        <v>1687</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -21752,17 +22123,16 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>1725</v>
+        <v>1711</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4" t="s">
-        <v>1726</v>
-      </c>
+      <c r="C47" s="4" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -21771,17 +22141,16 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>1727</v>
+        <v>1713</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
-        <v>1728</v>
-      </c>
+      <c r="C48" s="4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -21790,17 +22159,16 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>1729</v>
-      </c>
+      <c r="C49" s="4" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -21809,12 +22177,15 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
+    </row>
+    <row r="50" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>1717</v>
+      </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>1718</v>
+      </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -21824,17 +22195,16 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>1730</v>
+        <v>1707</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
-        <v>1731</v>
-      </c>
+      <c r="C51" s="4" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -21843,9 +22213,8 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -21858,14 +22227,19 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
+    </row>
+    <row r="53" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>1720</v>
+      </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>1721</v>
+      </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>1764</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -21873,9 +22247,8 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -21888,9 +22261,8 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -21903,9 +22275,8 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -21918,9 +22289,8 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -21933,9 +22303,8 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -21948,9 +22317,8 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -21963,9 +22331,8 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -21978,10 +22345,37 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -4195,9 +4195,6 @@
     <t>4.7.5.1</t>
   </si>
   <si>
-    <t>1.1.12</t>
-  </si>
-  <si>
     <t>3.2.2</t>
   </si>
   <si>
@@ -6259,6 +6256,9 @@
   </si>
   <si>
     <t>once</t>
+  </si>
+  <si>
+    <t>uduvuvududutvA tvav udutvA</t>
   </si>
 </sst>
 </file>
@@ -12415,10 +12415,10 @@
   <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12506,7 +12506,7 @@
         <v>1147</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12534,9 +12534,7 @@
       <c r="M8" s="4" t="s">
         <v>1099</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>1333</v>
-      </c>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -12558,10 +12556,10 @@
         <v>1147</v>
       </c>
       <c r="L9" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>1464</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12584,10 +12582,10 @@
         <v>1147</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>1463</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>1334</v>
+        <v>1462</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12610,12 +12608,12 @@
         <v>1147</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>1335</v>
-      </c>
-      <c r="N11" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -12641,7 +12639,7 @@
       <c r="L12" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="6" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -12841,10 +12839,10 @@
         <v>1175</v>
       </c>
       <c r="N20" s="53" t="s">
+        <v>1603</v>
+      </c>
+      <c r="Q20" s="53" t="s">
         <v>1604</v>
-      </c>
-      <c r="Q20" s="53" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12923,13 +12921,13 @@
         <v>376</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>1467</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>1468</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>1469</v>
       </c>
       <c r="K25" s="32" t="s">
         <v>1147</v>
@@ -12980,7 +12978,7 @@
         <v>382</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>1147</v>
@@ -13000,7 +12998,7 @@
         <v>890</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>1147</v>
@@ -13020,7 +13018,7 @@
         <v>1027</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>1147</v>
@@ -13115,7 +13113,7 @@
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>394</v>
@@ -13195,7 +13193,7 @@
         <v>276</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>1213</v>
@@ -13218,7 +13216,7 @@
         <v>395</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L41" s="51"/>
     </row>
@@ -13238,10 +13236,10 @@
   <dimension ref="A2:Q114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="H102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L113" sqref="L113:L114"/>
+      <selection pane="bottomRight" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13311,7 +13309,7 @@
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>352</v>
@@ -13328,7 +13326,7 @@
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>352</v>
@@ -13345,7 +13343,7 @@
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>352</v>
@@ -13394,13 +13392,13 @@
         <v>1147</v>
       </c>
       <c r="M11" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>1638</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>1639</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13420,10 +13418,10 @@
         <v>1147</v>
       </c>
       <c r="N12" s="4" t="s">
+        <v>1640</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>1641</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13443,13 +13441,13 @@
         <v>1147</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>1643</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13543,16 +13541,16 @@
         <v>1150</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>1219</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>1624</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>1625</v>
       </c>
       <c r="P22" s="32" t="s">
         <v>1147</v>
@@ -13563,16 +13561,16 @@
         <v>1178</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>1626</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>1628</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>1627</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>1629</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>1147</v>
@@ -13583,13 +13581,13 @@
         <v>1183</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>1615</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>1616</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>1617</v>
       </c>
       <c r="P24" s="32" t="s">
         <v>1147</v>
@@ -13600,13 +13598,13 @@
         <v>1179</v>
       </c>
       <c r="J25" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>1610</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>1611</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>1612</v>
       </c>
       <c r="P25" s="32" t="s">
         <v>1147</v>
@@ -13620,10 +13618,10 @@
         <v>836</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>1613</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>1614</v>
       </c>
       <c r="P26" s="32" t="s">
         <v>1147</v>
@@ -13631,16 +13629,16 @@
     </row>
     <row r="27" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I27" s="4" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>1633</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>1635</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>1636</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>1634</v>
       </c>
       <c r="P27" s="32" t="s">
         <v>1147</v>
@@ -13651,13 +13649,13 @@
         <v>1181</v>
       </c>
       <c r="J28" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>1618</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>1623</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>1619</v>
       </c>
       <c r="P28" s="32" t="s">
         <v>1147</v>
@@ -13668,13 +13666,13 @@
         <v>1180</v>
       </c>
       <c r="J29" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>1620</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>1621</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>1622</v>
       </c>
       <c r="P29" s="32" t="s">
         <v>1147</v>
@@ -13682,16 +13680,16 @@
     </row>
     <row r="30" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I30" s="39" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="J30" s="4" t="s">
+        <v>1808</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>1809</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>1810</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>1811</v>
       </c>
       <c r="P30" s="32" t="s">
         <v>1147</v>
@@ -13699,16 +13697,16 @@
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I31" s="4" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>1630</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>1615</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>1631</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>1632</v>
       </c>
       <c r="P31" s="32" t="s">
         <v>1147</v>
@@ -13776,7 +13774,7 @@
         <v>366</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="K35" s="32" t="s">
         <v>1147</v>
@@ -13879,7 +13877,7 @@
         <v>366</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="K40" s="32" t="s">
         <v>1147</v>
@@ -14005,7 +14003,7 @@
         <v>366</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="K46" s="32" t="s">
         <v>1147</v>
@@ -14041,7 +14039,7 @@
         <v>1184</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="K48" s="32" t="s">
         <v>1147</v>
@@ -14187,7 +14185,7 @@
         <v>1222</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14236,7 +14234,7 @@
         <v>1222</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14422,7 +14420,7 @@
       </c>
       <c r="J72" s="34"/>
       <c r="K72" s="34" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14476,10 +14474,10 @@
         <v>1244</v>
       </c>
       <c r="I77" s="34" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J77" s="34" t="s">
         <v>1484</v>
-      </c>
-      <c r="J77" s="34" t="s">
-        <v>1485</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>1245</v>
@@ -14490,7 +14488,7 @@
     </row>
     <row r="78" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>1247</v>
@@ -14537,7 +14535,7 @@
         <v>434</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>1250</v>
@@ -14730,13 +14728,13 @@
         <v>988</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>1149</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="L90" s="53" t="s">
         <v>1147</v>
@@ -14784,19 +14782,19 @@
     </row>
     <row r="93" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C93" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>988</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>1149</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="L93" s="53" t="s">
         <v>1147</v>
@@ -14827,7 +14825,7 @@
       <c r="A96" s="40">
         <v>6.14</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -14853,7 +14851,7 @@
       </c>
     </row>
     <row r="97" spans="2:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B97" s="53" t="s">
+      <c r="B97" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -14876,7 +14874,7 @@
       </c>
     </row>
     <row r="98" spans="2:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B98" s="53" t="s">
+      <c r="B98" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C98" s="39" t="s">
@@ -14896,7 +14894,7 @@
       </c>
     </row>
     <row r="99" spans="2:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -14912,7 +14910,7 @@
         <v>1153</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>951</v>
@@ -14934,7 +14932,7 @@
       </c>
     </row>
     <row r="100" spans="2:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B100" s="53" t="s">
+      <c r="B100" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -14969,7 +14967,7 @@
       </c>
     </row>
     <row r="101" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -14990,7 +14988,7 @@
       </c>
     </row>
     <row r="102" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C102" s="39" t="s">
@@ -15014,7 +15012,7 @@
       </c>
     </row>
     <row r="103" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C103" s="39" t="s">
@@ -15035,7 +15033,7 @@
       </c>
     </row>
     <row r="104" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B104" s="53" t="s">
+      <c r="B104" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -15056,7 +15054,7 @@
       </c>
     </row>
     <row r="105" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -15083,7 +15081,7 @@
       </c>
     </row>
     <row r="106" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -15122,7 +15120,7 @@
       </c>
     </row>
     <row r="107" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -15143,11 +15141,11 @@
       </c>
     </row>
     <row r="108" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B108" s="53" t="s">
+      <c r="B108" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
@@ -15164,7 +15162,7 @@
       </c>
     </row>
     <row r="109" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B109" s="53" t="s">
+      <c r="B109" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -15185,7 +15183,7 @@
       </c>
     </row>
     <row r="110" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B110" s="53" t="s">
+      <c r="B110" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -15206,7 +15204,7 @@
       </c>
     </row>
     <row r="111" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="60" t="s">
         <v>1147</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -15242,13 +15240,13 @@
         <v>1151</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="L113" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="114" spans="3:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15259,13 +15257,13 @@
         <v>1152</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="L114" s="32" t="s">
         <v>1157</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -15278,7 +15276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
@@ -15339,7 +15337,7 @@
         <v>1215</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>1147</v>
@@ -15348,7 +15346,7 @@
         <v>1216</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
@@ -15393,12 +15391,12 @@
         <v>910</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15421,12 +15419,12 @@
         <v>911</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="4" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15449,12 +15447,12 @@
         <v>912</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
       <c r="P11" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15483,12 +15481,12 @@
         <v>915</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15511,17 +15509,17 @@
         <v>916</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
       <c r="P13" s="4" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>276</v>
@@ -15539,12 +15537,12 @@
         <v>1288</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="4" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15558,10 +15556,10 @@
         <v>395</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>1349</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>1350</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>1149</v>
@@ -15604,19 +15602,19 @@
         <v>395</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L17" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="M17" s="32" t="s">
         <v>1508</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="P17" s="4" t="s">
         <v>1509</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15637,10 +15635,10 @@
         <v>1147</v>
       </c>
       <c r="M19" s="32" t="s">
+        <v>1510</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>1511</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15692,20 +15690,20 @@
         <v>395</v>
       </c>
       <c r="G23" s="32" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>1351</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>1352</v>
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M23" s="32" t="s">
+        <v>1512</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>1513</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15719,7 +15717,7 @@
         <v>910</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="J24" s="51" t="s">
         <v>1149</v>
@@ -15736,19 +15734,19 @@
         <v>395</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>1147</v>
       </c>
       <c r="M25" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>1515</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15759,19 +15757,19 @@
         <v>478</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>1357</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>1358</v>
       </c>
       <c r="J26" s="51" t="s">
         <v>1149</v>
       </c>
       <c r="M26" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>1355</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15903,7 +15901,7 @@
         <v>960</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="N36" s="32" t="s">
         <v>1147</v>
@@ -15929,7 +15927,7 @@
         <v>1149</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>1147</v>
@@ -16248,7 +16246,7 @@
         <v>7.13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>404</v>
@@ -16257,10 +16255,10 @@
         <v>503</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I59" s="61" t="s">
         <v>1518</v>
-      </c>
-      <c r="I59" s="61" t="s">
-        <v>1519</v>
       </c>
       <c r="K59" s="51" t="s">
         <v>1149</v>
@@ -16286,7 +16284,7 @@
         <v>7.14</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>504</v>
@@ -16542,7 +16540,7 @@
         <v>585</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="83" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16574,10 +16572,10 @@
         <v>590</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16594,27 +16592,27 @@
         <v>590</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>989</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="L86" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="M86" s="4" t="s">
         <v>1363</v>
-      </c>
-      <c r="M86" s="4" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="87" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16637,7 +16635,7 @@
         <v>1147</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="R87" s="4" t="s">
         <v>943</v>
@@ -16666,13 +16664,13 @@
         <v>948</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="R88" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="S88" s="4" t="s">
         <v>1368</v>
-      </c>
-      <c r="S88" s="4" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16695,13 +16693,13 @@
         <v>948</v>
       </c>
       <c r="M89" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="R89" s="4" t="s">
         <v>1367</v>
       </c>
-      <c r="R89" s="4" t="s">
+      <c r="S89" s="4" t="s">
         <v>1368</v>
-      </c>
-      <c r="S89" s="4" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16721,13 +16719,13 @@
         <v>1147</v>
       </c>
       <c r="M90" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="T90" s="4" t="s">
         <v>1370</v>
-      </c>
-      <c r="R90" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="T90" s="4" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="91" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16741,16 +16739,16 @@
         <v>806</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="K91" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M91" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="R91" s="4" t="s">
         <v>1374</v>
-      </c>
-      <c r="R91" s="4" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="92" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16770,22 +16768,22 @@
         <v>1147</v>
       </c>
       <c r="L92" s="32" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M92" s="4" t="s">
         <v>1376</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="Q92" s="32" t="s">
+        <v>1812</v>
+      </c>
+      <c r="R92" s="58" t="s">
         <v>1377</v>
       </c>
-      <c r="Q92" s="32" t="s">
+      <c r="S92" s="58" t="s">
+        <v>1378</v>
+      </c>
+      <c r="T92" s="4" t="s">
         <v>1813</v>
-      </c>
-      <c r="R92" s="58" t="s">
-        <v>1378</v>
-      </c>
-      <c r="S92" s="58" t="s">
-        <v>1379</v>
-      </c>
-      <c r="T92" s="4" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="93" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -16807,7 +16805,7 @@
       </c>
       <c r="L94" s="39"/>
       <c r="M94" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16827,7 +16825,7 @@
         <v>1147</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="96" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16841,13 +16839,13 @@
         <v>806</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="K96" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="97" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16861,21 +16859,21 @@
         <v>806</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="K97" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="98" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>597</v>
@@ -16890,7 +16888,7 @@
         <v>1147</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16910,7 +16908,7 @@
         <v>1147</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="100" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16924,19 +16922,19 @@
         <v>806</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K100" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L100" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P100" s="4" t="s">
         <v>1390</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>1389</v>
-      </c>
-      <c r="P100" s="4" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="101" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16950,7 +16948,7 @@
         <v>806</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>1262</v>
@@ -16959,10 +16957,10 @@
         <v>1147</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="S101" s="59" t="s">
         <v>922</v>
@@ -16970,7 +16968,7 @@
     </row>
     <row r="102" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>605</v>
@@ -16988,26 +16986,26 @@
         <v>1147</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="M102" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="O102" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="O102" s="4" t="s">
+      <c r="P102" s="4" t="s">
         <v>1395</v>
       </c>
-      <c r="P102" s="4" t="s">
+      <c r="R102" s="32" t="s">
+        <v>1397</v>
+      </c>
+      <c r="S102" s="32" t="s">
         <v>1396</v>
-      </c>
-      <c r="R102" s="32" t="s">
-        <v>1398</v>
-      </c>
-      <c r="S102" s="32" t="s">
-        <v>1397</v>
       </c>
       <c r="T102" s="32"/>
       <c r="U102" s="32" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="103" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17027,7 +17025,7 @@
         <v>1147</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="104" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17041,30 +17039,30 @@
         <v>806</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="K104" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="105" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="J105" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>1403</v>
       </c>
-      <c r="K105" s="4" t="s">
-        <v>1404</v>
-      </c>
       <c r="L105" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="106" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17093,7 +17091,7 @@
         <v>1147</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17122,7 +17120,7 @@
         <v>1147</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="108" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17130,7 +17128,7 @@
         <v>886</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>276</v>
@@ -17145,7 +17143,7 @@
         <v>1147</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="109" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17171,7 +17169,7 @@
         <v>1147</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="110" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17197,7 +17195,7 @@
         <v>1147</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17220,7 +17218,7 @@
         <v>1147</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="112" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17267,7 +17265,7 @@
         <v>1147</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17293,7 +17291,7 @@
         <v>1147</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17304,7 +17302,7 @@
         <v>896</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>276</v>
@@ -17319,7 +17317,7 @@
         <v>898</v>
       </c>
       <c r="I115" s="59" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="J115" s="59" t="s">
         <v>900</v>
@@ -17331,7 +17329,7 @@
         <v>895</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="N115" s="4" t="s">
         <v>457</v>
@@ -17340,7 +17338,7 @@
         <v>930</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17363,7 +17361,7 @@
         <v>1147</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17386,7 +17384,7 @@
         <v>1147</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17415,7 +17413,7 @@
         <v>1147</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17438,12 +17436,12 @@
         <v>1147</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C120" s="39" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>276</v>
@@ -17458,7 +17456,7 @@
         <v>1147</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17475,7 +17473,7 @@
         <v>806</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>906</v>
@@ -17513,7 +17511,7 @@
         <v>1147</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17522,7 +17520,7 @@
         <v>9.23</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>276</v>
@@ -17531,19 +17529,19 @@
         <v>620</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="J124" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="L124" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M124" s="4" t="s">
         <v>1426</v>
-      </c>
-      <c r="M124" s="4" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17557,13 +17555,13 @@
         <v>620</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="J125" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17577,7 +17575,7 @@
         <v>620</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>1084</v>
@@ -17586,7 +17584,7 @@
         <v>1147</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17600,13 +17598,13 @@
         <v>620</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="J127" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17626,7 +17624,7 @@
         <v>1147</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="129" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17640,13 +17638,13 @@
         <v>620</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="J129" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="130" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17660,7 +17658,7 @@
         <v>620</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>1066</v>
@@ -17669,10 +17667,10 @@
         <v>1147</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="131" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17696,7 +17694,7 @@
         <v>1147</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="133" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17716,7 +17714,7 @@
         <v>1147</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="134" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17734,10 +17732,10 @@
         <v>395</v>
       </c>
       <c r="H135" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="L135" s="4" t="s">
         <v>1440</v>
-      </c>
-      <c r="L135" s="4" t="s">
-        <v>1441</v>
       </c>
       <c r="M135" s="4" t="s">
         <v>785</v>
@@ -17751,10 +17749,10 @@
         <v>395</v>
       </c>
       <c r="H136" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="L136" s="4" t="s">
         <v>1442</v>
-      </c>
-      <c r="L136" s="4" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="137" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17765,10 +17763,10 @@
         <v>395</v>
       </c>
       <c r="H137" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="L137" s="4" t="s">
         <v>1444</v>
-      </c>
-      <c r="L137" s="4" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17779,10 +17777,10 @@
         <v>395</v>
       </c>
       <c r="H138" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="L138" s="4" t="s">
         <v>1446</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17799,10 +17797,10 @@
         <v>1147</v>
       </c>
       <c r="K139" s="51" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L139" s="4" t="s">
         <v>1448</v>
-      </c>
-      <c r="L139" s="4" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17810,10 +17808,10 @@
         <v>850</v>
       </c>
       <c r="K140" s="51" t="s">
+        <v>1449</v>
+      </c>
+      <c r="L140" s="4" t="s">
         <v>1450</v>
-      </c>
-      <c r="L140" s="4" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17821,10 +17819,10 @@
         <v>851</v>
       </c>
       <c r="K141" s="51" t="s">
+        <v>1451</v>
+      </c>
+      <c r="L141" s="4" t="s">
         <v>1452</v>
-      </c>
-      <c r="L141" s="4" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17832,18 +17830,18 @@
         <v>852</v>
       </c>
       <c r="K142" s="51" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G143" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K143" s="51" t="s">
         <v>1455</v>
-      </c>
-      <c r="K143" s="51" t="s">
-        <v>1456</v>
       </c>
       <c r="L143" s="4" t="s">
         <v>675</v>
@@ -17851,18 +17849,18 @@
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G144" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="K144" s="51" t="s">
         <v>1457</v>
       </c>
-      <c r="K144" s="51" t="s">
+      <c r="L144" s="4" t="s">
         <v>1458</v>
-      </c>
-      <c r="L144" s="4" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="145" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G145" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="K145" s="51"/>
     </row>
@@ -18026,10 +18024,10 @@
   <dimension ref="A2:V118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18098,28 +18096,28 @@
         <v>359</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>515</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="L6" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>515</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18128,22 +18126,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>1824</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>1823</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>1825</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>1826</v>
       </c>
       <c r="L7" s="32" t="s">
         <v>1147</v>
@@ -18167,10 +18165,10 @@
         <v>472</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>1827</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>1828</v>
       </c>
       <c r="L8" s="32" t="s">
         <v>1147</v>
@@ -18188,34 +18186,34 @@
         <v>359</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>516</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>1830</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>1831</v>
       </c>
       <c r="L9" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>1832</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>1833</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>516</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>1833</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>1834</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18224,7 +18222,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>359</v>
@@ -18233,22 +18231,22 @@
         <v>85</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L10" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="N10" s="5" t="s">
+        <v>1836</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>1837</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18269,10 +18267,10 @@
         <v>519</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>1840</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>1841</v>
       </c>
       <c r="L11" s="32" t="s">
         <v>1147</v>
@@ -18290,16 +18288,16 @@
         <v>359</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>520</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>1841</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>1842</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>1843</v>
       </c>
       <c r="L12" s="32" t="s">
         <v>1147</v>
@@ -18326,40 +18324,40 @@
         <v>749</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="L13" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>517</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>1849</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>1850</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>1851</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>1852</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>1853</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>931</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>933</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18377,25 +18375,25 @@
         <v>1173</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="L14" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>521</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18428,7 +18426,7 @@
         <v>359</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="L16" s="32" t="s">
         <v>1147</v>
@@ -18446,7 +18444,7 @@
         <v>359</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>362</v>
@@ -18455,7 +18453,7 @@
         <v>749</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="L17" s="32" t="s">
         <v>1147</v>
@@ -18479,10 +18477,10 @@
         <v>522</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>1857</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>1858</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>1859</v>
       </c>
       <c r="L18" s="32" t="s">
         <v>1147</v>
@@ -18506,10 +18504,10 @@
         <v>523</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>1859</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>1860</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>1861</v>
       </c>
       <c r="L19" s="32" t="s">
         <v>1147</v>
@@ -18521,28 +18519,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>1862</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>1863</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>1864</v>
       </c>
       <c r="L20" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="21" spans="2:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18557,7 +18555,7 @@
         <v>359</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>525</v>
@@ -18566,7 +18564,7 @@
         <v>536</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>1147</v>
@@ -18584,31 +18582,31 @@
         <v>359</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>526</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="L22" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>526</v>
       </c>
       <c r="O22" s="4" t="s">
+        <v>1873</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>1874</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="23" spans="2:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18629,10 +18627,10 @@
         <v>527</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>1876</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>1877</v>
       </c>
       <c r="L23" s="32" t="s">
         <v>1147</v>
@@ -18659,7 +18657,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>359</v>
@@ -18668,13 +18666,13 @@
         <v>1018</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>1879</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>1880</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>1881</v>
       </c>
       <c r="L25" s="32" t="s">
         <v>1147</v>
@@ -18686,7 +18684,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>359</v>
@@ -18695,28 +18693,28 @@
         <v>1035</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>1881</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>1882</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>1883</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M26" s="4" t="s">
+        <v>1883</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>1884</v>
       </c>
-      <c r="N26" s="4" t="s">
-        <v>1879</v>
-      </c>
-      <c r="O26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>1885</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="27" spans="2:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18731,22 +18729,22 @@
         <v>359</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>530</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>1888</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>1889</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="28" spans="2:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18761,7 +18759,7 @@
         <v>359</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>529</v>
@@ -18770,7 +18768,7 @@
         <v>825</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="L28" s="32" t="s">
         <v>1147</v>
@@ -18788,16 +18786,16 @@
         <v>359</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>533</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>1892</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>1893</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>1894</v>
       </c>
       <c r="L29" s="32" t="s">
         <v>1147</v>
@@ -18815,16 +18813,16 @@
         <v>359</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>531</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="L30" s="32" t="s">
         <v>1147</v>
@@ -18836,19 +18834,19 @@
         <v>26</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="L31" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18863,7 +18861,7 @@
         <v>359</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>532</v>
@@ -18872,22 +18870,22 @@
         <v>1193</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="L32" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>532</v>
       </c>
       <c r="O32" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="P32" s="4" t="s">
         <v>1904</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>1905</v>
       </c>
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -18899,37 +18897,37 @@
         <v>534</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>1907</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>1530</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>1908</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>1909</v>
       </c>
       <c r="L34" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M34" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="N34" s="4" t="s">
         <v>1529</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>1530</v>
       </c>
-      <c r="O34" s="4" t="s">
-        <v>1531</v>
-      </c>
       <c r="P34" s="4" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18941,28 +18939,28 @@
         <v>534</v>
       </c>
       <c r="I35" s="4" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>1910</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>1911</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>534</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>534</v>
@@ -18971,13 +18969,13 @@
         <v>742</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="U35" s="4" t="s">
+        <v>1917</v>
+      </c>
+      <c r="V35" s="4" t="s">
         <v>1918</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>1919</v>
       </c>
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18991,10 +18989,10 @@
         <v>8.9</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>1532</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>1533</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>359</v>
@@ -19003,13 +19001,13 @@
         <v>1020</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>1920</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>1921</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>1922</v>
       </c>
       <c r="L38" s="32" t="s">
         <v>1147</v>
@@ -19017,19 +19015,19 @@
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D39" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>1183</v>
       </c>
       <c r="H39" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>1535</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>1536</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>1537</v>
       </c>
       <c r="L39" s="32" t="s">
         <v>1147</v>
@@ -19044,53 +19042,53 @@
         <v>535</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>1923</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>1924</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>1925</v>
       </c>
       <c r="L41" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>471</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="D42" s="61"/>
       <c r="G42" s="4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>1521</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>1522</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>1523</v>
-      </c>
       <c r="J42" s="4" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="L42" s="32" t="s">
         <v>1147</v>
@@ -19098,22 +19096,22 @@
     </row>
     <row r="43" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C43" s="6" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="M43" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>1524</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>1525</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>293</v>
       </c>
       <c r="P43" s="4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="R43" s="4" t="s">
         <v>1526</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="44" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19121,38 +19119,38 @@
         <v>8.11</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>1541</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>1542</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>1539</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>1540</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>1541</v>
-      </c>
       <c r="J44" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="K44" s="53"/>
       <c r="L44" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M44" s="4" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N44" s="4" t="s">
         <v>1929</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="45" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19164,7 +19162,7 @@
         <v>536</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>536</v>
@@ -19173,16 +19171,16 @@
         <v>359</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>536</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19203,10 +19201,10 @@
         <v>1063</v>
       </c>
       <c r="J48" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="O48" s="4" t="s">
         <v>1575</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19220,13 +19218,13 @@
         <v>538</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>1577</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="O49" s="4" t="s">
         <v>1578</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19240,13 +19238,13 @@
         <v>538</v>
       </c>
       <c r="I50" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>1581</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19264,10 +19262,10 @@
         <v>541</v>
       </c>
       <c r="I52" s="4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>1573</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19281,10 +19279,10 @@
         <v>541</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="J53" s="62" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19299,19 +19297,19 @@
         <v>541</v>
       </c>
       <c r="I55" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>1585</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="O55" s="4" t="s">
         <v>1586</v>
       </c>
-      <c r="O55" s="4" t="s">
+      <c r="Q55" s="4" t="s">
         <v>1587</v>
       </c>
-      <c r="Q55" s="4" t="s">
+      <c r="R55" s="4" t="s">
         <v>1588</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19364,16 +19362,16 @@
         <v>548</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>1262</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="N62" s="4" t="s">
         <v>1545</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19381,16 +19379,16 @@
         <v>412</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G63" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>1590</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="N63" s="4" t="s">
         <v>1591</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19398,16 +19396,16 @@
         <v>549</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H64" s="4" t="s">
+        <v>1546</v>
+      </c>
+      <c r="N64" s="4" t="s">
         <v>1547</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="65" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19415,16 +19413,16 @@
         <v>550</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G65" s="4" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N65" s="4" t="s">
         <v>1550</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>1549</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19432,16 +19430,16 @@
         <v>551</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>1043</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19449,16 +19447,16 @@
         <v>554</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G67" s="39" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>1570</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>1571</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="68" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19466,16 +19464,16 @@
         <v>552</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>1553</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>1554</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="69" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19483,16 +19481,16 @@
         <v>553</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G69" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>1556</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="N69" s="4" t="s">
         <v>1557</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="70" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19500,16 +19498,16 @@
         <v>555</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>903</v>
       </c>
       <c r="H70" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N70" s="4" t="s">
         <v>1559</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="71" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19517,16 +19515,16 @@
         <v>556</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G71" s="4" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>1562</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="N71" s="4" t="s">
         <v>1563</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="72" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19534,16 +19532,16 @@
         <v>557</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G72" s="4" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="N72" s="4" t="s">
         <v>1566</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>1565</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="73" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19564,19 +19562,19 @@
         <v>422</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="J74" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>915</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="75" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19587,17 +19585,17 @@
         <v>352</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H75" s="56"/>
       <c r="J75" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K75" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="N75" s="4" t="s">
         <v>1596</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="76" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19608,25 +19606,25 @@
         <v>352</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="J76" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K76" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="N76" s="4" t="s">
         <v>1599</v>
       </c>
-      <c r="N76" s="4" t="s">
-        <v>1600</v>
-      </c>
       <c r="P76" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="Q76" s="4" t="s">
         <v>1050</v>
@@ -19637,22 +19635,22 @@
         <v>8.26</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="J77" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K77" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N77" s="4" t="s">
         <v>1602</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19681,57 +19679,57 @@
         <v>352</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J79" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K79" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>1938</v>
       </c>
-      <c r="L79" s="4" t="s">
-        <v>1946</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>1939</v>
-      </c>
       <c r="N79" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E80" s="6" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="H80" s="66"/>
       <c r="I80" s="66"/>
       <c r="J80" s="6"/>
       <c r="K80" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>745</v>
       </c>
       <c r="M80" s="5" t="s">
+        <v>1934</v>
+      </c>
+      <c r="N80" s="4" t="s">
         <v>1935</v>
       </c>
-      <c r="N80" s="4" t="s">
-        <v>1936</v>
-      </c>
       <c r="O80" s="5" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>1025</v>
@@ -19740,10 +19738,10 @@
         <v>362</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19754,22 +19752,22 @@
         <v>352</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="J81" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K81" s="4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="L81" s="4" t="s">
         <v>1961</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>1962</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>283</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19780,28 +19778,28 @@
         <v>352</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J82" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="L82" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="M82" s="4" t="s">
         <v>1942</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>1943</v>
-      </c>
       <c r="N82" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="O82" s="4" t="s">
         <v>1949</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>1950</v>
       </c>
       <c r="P82" s="4" t="s">
         <v>563</v>
@@ -19809,76 +19807,76 @@
     </row>
     <row r="83" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E83" s="4" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="J83" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K83" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="L83" s="4" t="s">
         <v>1945</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="M83" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="N83" s="4" t="s">
         <v>1946</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>1944</v>
-      </c>
-      <c r="N83" s="4" t="s">
-        <v>1947</v>
       </c>
       <c r="O83" s="4" t="s">
         <v>1169</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E84" s="6" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="66"/>
       <c r="J84" s="4"/>
       <c r="K84" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="L84" s="5" t="s">
         <v>1954</v>
       </c>
-      <c r="L84" s="5" t="s">
+      <c r="M84" s="5" t="s">
         <v>1955</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>1956</v>
       </c>
       <c r="N84" s="4"/>
     </row>
     <row r="85" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E85" s="6" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>1958</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>1542</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>1959</v>
-      </c>
       <c r="H85" s="6" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="I85" s="66"/>
       <c r="J85" s="4"/>
@@ -19889,7 +19887,7 @@
     </row>
     <row r="86" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E86" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>352</v>
@@ -19908,36 +19906,36 @@
         <v>551</v>
       </c>
       <c r="M86" s="4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="N86" s="4" t="s">
         <v>1964</v>
-      </c>
-      <c r="N86" s="4" t="s">
-        <v>1965</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E87" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="J87" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>299</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19966,7 +19964,7 @@
         <v>477</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19983,16 +19981,16 @@
         <v>1147</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>565</v>
       </c>
       <c r="M89" s="4" t="s">
+        <v>1977</v>
+      </c>
+      <c r="N89" s="4" t="s">
         <v>1978</v>
-      </c>
-      <c r="N89" s="4" t="s">
-        <v>1979</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -20013,10 +20011,10 @@
         <v>1019</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="J91" s="32" t="s">
         <v>1147</v>
@@ -20028,10 +20026,10 @@
         <v>567</v>
       </c>
       <c r="M91" s="4" t="s">
+        <v>1979</v>
+      </c>
+      <c r="N91" s="4" t="s">
         <v>1980</v>
-      </c>
-      <c r="N91" s="4" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20048,22 +20046,22 @@
         <v>352</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="J92" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>299</v>
       </c>
       <c r="M92" s="4" t="s">
+        <v>1984</v>
+      </c>
+      <c r="N92" s="4" t="s">
         <v>1985</v>
-      </c>
-      <c r="N92" s="4" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20080,22 +20078,22 @@
         <v>366</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="J93" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>570</v>
       </c>
       <c r="M93" s="4" t="s">
+        <v>1987</v>
+      </c>
+      <c r="N93" s="4" t="s">
         <v>1988</v>
-      </c>
-      <c r="N93" s="4" t="s">
-        <v>1989</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -20119,10 +20117,10 @@
         <v>998</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="98" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20133,10 +20131,10 @@
         <v>874</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>535</v>
@@ -20145,7 +20143,7 @@
         <v>280</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20156,42 +20154,42 @@
         <v>874</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>572</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>874</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="L100" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="N100" s="4" t="s">
         <v>1997</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>1997</v>
-      </c>
-      <c r="N100" s="4" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="101" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20202,10 +20200,10 @@
         <v>874</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>522</v>
@@ -20214,7 +20212,7 @@
         <v>477</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20239,13 +20237,13 @@
         <v>8.34</v>
       </c>
       <c r="E105" s="5" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>2001</v>
       </c>
-      <c r="G105" s="4" t="s">
-        <v>2002</v>
-      </c>
       <c r="K105" s="4" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>564</v>
@@ -20254,10 +20252,10 @@
         <v>477</v>
       </c>
       <c r="N105" s="4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="O105" s="4" t="s">
         <v>2003</v>
-      </c>
-      <c r="O105" s="4" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="106" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20265,13 +20263,13 @@
         <v>280</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>567</v>
@@ -20280,7 +20278,7 @@
         <v>280</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="107" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20291,33 +20289,33 @@
         <v>412</v>
       </c>
       <c r="H107" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>2008</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>2009</v>
       </c>
       <c r="L107" s="4" t="s">
         <v>412</v>
       </c>
       <c r="M107" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="O107" s="4" t="s">
         <v>2010</v>
-      </c>
-      <c r="O107" s="4" t="s">
-        <v>2011</v>
       </c>
     </row>
     <row r="108" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="K108" s="4" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="L108" s="4" t="s">
         <v>412</v>
       </c>
       <c r="M108" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="O108" s="4" t="s">
         <v>2012</v>
-      </c>
-      <c r="O108" s="4" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20337,13 +20335,13 @@
         <v>576</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>1163</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="110" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -22740,8 +22738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22756,23 +22754,23 @@
   <sheetData>
     <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B2" s="63" t="s">
         <v>809</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D2" s="63"/>
       <c r="E2" s="63" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F2" s="64" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G2" s="64" t="s">
         <v>1748</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>1749</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -22796,20 +22794,20 @@
     </row>
     <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -22820,23 +22818,23 @@
     </row>
     <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>1783</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1784</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -22852,17 +22850,17 @@
         <v>574</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>1764</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1765</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -22878,19 +22876,19 @@
         <v>574</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>1788</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1670</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1715</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>1790</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1789</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -22906,19 +22904,19 @@
         <v>574</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>1750</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>1751</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -22928,23 +22926,23 @@
     </row>
     <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>1792</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>1793</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>1794</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -22954,20 +22952,20 @@
     </row>
     <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -22978,23 +22976,23 @@
     </row>
     <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>1797</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>1798</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>1799</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -23004,23 +23002,23 @@
     </row>
     <row r="12" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>1801</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>1802</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -23030,23 +23028,23 @@
     </row>
     <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -23056,23 +23054,23 @@
     </row>
     <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>1767</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>1769</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>1768</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -23082,19 +23080,19 @@
     </row>
     <row r="15" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -23112,11 +23110,11 @@
         <v>574</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -23128,17 +23126,17 @@
     </row>
     <row r="17" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -23156,17 +23154,17 @@
         <v>574</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F18" s="65" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -23176,17 +23174,17 @@
     </row>
     <row r="19" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -23198,23 +23196,23 @@
     </row>
     <row r="20" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>1781</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>1782</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -23224,23 +23222,23 @@
     </row>
     <row r="21" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -23256,11 +23254,11 @@
         <v>574</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -23272,19 +23270,19 @@
     </row>
     <row r="23" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -23296,22 +23294,22 @@
     </row>
     <row r="24" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>1669</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>1670</v>
-      </c>
       <c r="E24" s="4" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>1805</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>1806</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -23322,17 +23320,17 @@
     </row>
     <row r="25" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -23350,13 +23348,13 @@
         <v>574</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -23368,20 +23366,20 @@
     </row>
     <row r="27" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="53" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -23392,21 +23390,23 @@
     </row>
     <row r="28" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1731</v>
-      </c>
-      <c r="F28" s="4"/>
+        <v>1730</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>2014</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -23416,20 +23416,20 @@
     </row>
     <row r="29" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -23440,17 +23440,17 @@
     </row>
     <row r="30" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -23462,17 +23462,17 @@
     </row>
     <row r="31" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -23484,17 +23484,17 @@
     </row>
     <row r="32" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -23506,17 +23506,17 @@
     </row>
     <row r="33" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -23534,11 +23534,11 @@
         <v>574</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -23550,17 +23550,17 @@
     </row>
     <row r="35" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -23572,23 +23572,23 @@
     </row>
     <row r="36" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -23598,17 +23598,17 @@
     </row>
     <row r="37" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -23626,11 +23626,11 @@
         <v>574</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -23642,17 +23642,17 @@
     </row>
     <row r="39" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -23664,23 +23664,23 @@
     </row>
     <row r="40" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>1774</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>1776</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>1775</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -23690,23 +23690,23 @@
     </row>
     <row r="41" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>1778</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>1779</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -23722,20 +23722,20 @@
         <v>574</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>1754</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="61" t="s">
         <v>1755</v>
-      </c>
-      <c r="H42" s="61" t="s">
-        <v>1756</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -23744,17 +23744,17 @@
     </row>
     <row r="43" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -23794,16 +23794,16 @@
     </row>
     <row r="46" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -23816,11 +23816,11 @@
     </row>
     <row r="47" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -23834,11 +23834,11 @@
     </row>
     <row r="48" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -23852,11 +23852,11 @@
     </row>
     <row r="49" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -23870,11 +23870,11 @@
     </row>
     <row r="50" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -23888,11 +23888,11 @@
     </row>
     <row r="51" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -23920,15 +23920,15 @@
     </row>
     <row r="53" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -13235,8 +13235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="I110" sqref="I110"/>
@@ -15276,7 +15276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
@@ -18023,7 +18023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="2015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="2024">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -5496,12 +5496,6 @@
     <t xml:space="preserve">saH | it | uq | </t>
   </si>
   <si>
-    <t>seditsaseduvuvitsasedu</t>
-  </si>
-  <si>
-    <t>seditsaset</t>
-  </si>
-  <si>
     <t>iduvuvididuta ttadvidutat</t>
   </si>
   <si>
@@ -6259,6 +6253,39 @@
   </si>
   <si>
     <t>uduvuvududutvA tvav udutvA</t>
+  </si>
+  <si>
+    <t>sedithsaset</t>
+  </si>
+  <si>
+    <t>sedithsaseduvuvithsasedu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sedu </t>
+  </si>
+  <si>
+    <t>Ghana Sandhi</t>
+  </si>
+  <si>
+    <t>Matching</t>
+  </si>
+  <si>
+    <t>hotA viduduhotA Sandhi rule A+u ??</t>
+  </si>
+  <si>
+    <t>uq | hotA$ | saH</t>
+  </si>
+  <si>
+    <t>uhotAhotavuhotA</t>
+  </si>
+  <si>
+    <t>uhotAhotavuhotA sa sa hotavuhotA saH</t>
+  </si>
+  <si>
+    <t>u hotA saH</t>
+  </si>
+  <si>
+    <t>same issue</t>
   </si>
 </sst>
 </file>
@@ -13193,7 +13220,7 @@
         <v>276</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>1213</v>
@@ -13235,7 +13262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -13683,13 +13710,13 @@
         <v>1636</v>
       </c>
       <c r="J30" s="4" t="s">
+        <v>1806</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>1807</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>1808</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>1809</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>1810</v>
       </c>
       <c r="P30" s="32" t="s">
         <v>1147</v>
@@ -14234,7 +14261,7 @@
         <v>1222</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -16774,7 +16801,7 @@
         <v>1376</v>
       </c>
       <c r="Q92" s="32" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="R92" s="58" t="s">
         <v>1377</v>
@@ -16783,7 +16810,7 @@
         <v>1378</v>
       </c>
       <c r="T92" s="4" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="93" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -16805,7 +16832,7 @@
       </c>
       <c r="L94" s="39"/>
       <c r="M94" s="4" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17302,7 +17329,7 @@
         <v>896</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>276</v>
@@ -17317,7 +17344,7 @@
         <v>898</v>
       </c>
       <c r="I115" s="59" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="J115" s="59" t="s">
         <v>900</v>
@@ -18096,28 +18123,28 @@
         <v>359</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>515</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="L6" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>515</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18126,22 +18153,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>1823</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>1822</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1824</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>1825</v>
       </c>
       <c r="L7" s="32" t="s">
         <v>1147</v>
@@ -18165,10 +18192,10 @@
         <v>472</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="L8" s="32" t="s">
         <v>1147</v>
@@ -18186,34 +18213,34 @@
         <v>359</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>516</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="L9" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>516</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18222,7 +18249,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>359</v>
@@ -18231,22 +18258,22 @@
         <v>85</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="L10" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18267,10 +18294,10 @@
         <v>519</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="L11" s="32" t="s">
         <v>1147</v>
@@ -18294,10 +18321,10 @@
         <v>520</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="L12" s="32" t="s">
         <v>1147</v>
@@ -18324,40 +18351,40 @@
         <v>749</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="L13" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>517</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>1849</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>1850</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>1851</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>1852</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>931</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>933</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18375,25 +18402,25 @@
         <v>1173</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="L14" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>521</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18426,7 +18453,7 @@
         <v>359</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="L16" s="32" t="s">
         <v>1147</v>
@@ -18453,7 +18480,7 @@
         <v>749</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="L17" s="32" t="s">
         <v>1147</v>
@@ -18477,10 +18504,10 @@
         <v>522</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="L18" s="32" t="s">
         <v>1147</v>
@@ -18504,10 +18531,10 @@
         <v>523</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="L19" s="32" t="s">
         <v>1147</v>
@@ -18519,28 +18546,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>1859</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>1861</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>1862</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>1863</v>
       </c>
       <c r="L20" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="21" spans="2:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18555,7 +18582,7 @@
         <v>359</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>525</v>
@@ -18564,7 +18591,7 @@
         <v>536</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>1147</v>
@@ -18582,31 +18609,31 @@
         <v>359</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>526</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="L22" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>526</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="23" spans="2:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18627,10 +18654,10 @@
         <v>527</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="L23" s="32" t="s">
         <v>1147</v>
@@ -18657,7 +18684,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>359</v>
@@ -18666,13 +18693,13 @@
         <v>1018</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>1875</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>1877</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>1879</v>
-      </c>
       <c r="J25" s="4" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="L25" s="32" t="s">
         <v>1147</v>
@@ -18684,7 +18711,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>359</v>
@@ -18693,28 +18720,28 @@
         <v>1035</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M26" s="4" t="s">
+        <v>1881</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>1883</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>1878</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>1884</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="27" spans="2:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18729,22 +18756,22 @@
         <v>359</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>530</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="28" spans="2:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18759,7 +18786,7 @@
         <v>359</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>529</v>
@@ -18768,7 +18795,7 @@
         <v>825</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="L28" s="32" t="s">
         <v>1147</v>
@@ -18786,16 +18813,16 @@
         <v>359</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>533</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="L29" s="32" t="s">
         <v>1147</v>
@@ -18813,16 +18840,16 @@
         <v>359</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>531</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="L30" s="32" t="s">
         <v>1147</v>
@@ -18834,19 +18861,19 @@
         <v>26</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="L31" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18861,7 +18888,7 @@
         <v>359</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>532</v>
@@ -18870,22 +18897,22 @@
         <v>1193</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="L32" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>532</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -18903,16 +18930,16 @@
         <v>359</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>1529</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="L34" s="32" t="s">
         <v>1147</v>
@@ -18927,7 +18954,7 @@
         <v>1530</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18939,28 +18966,28 @@
         <v>534</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>534</v>
       </c>
       <c r="O35" s="4" t="s">
+        <v>1910</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>1914</v>
+      </c>
+      <c r="Q35" s="4" t="s">
         <v>1912</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>1916</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>1914</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>534</v>
@@ -18969,13 +18996,13 @@
         <v>742</v>
       </c>
       <c r="T35" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="U35" s="4" t="s">
         <v>1915</v>
       </c>
-      <c r="U35" s="4" t="s">
-        <v>1917</v>
-      </c>
       <c r="V35" s="4" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19001,13 +19028,13 @@
         <v>1020</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>1917</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>1919</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>1920</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>1921</v>
       </c>
       <c r="L38" s="32" t="s">
         <v>1147</v>
@@ -19051,13 +19078,13 @@
         <v>1523</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>1920</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>1921</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>1922</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>1923</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>1924</v>
       </c>
       <c r="L41" s="32" t="s">
         <v>1147</v>
@@ -19066,13 +19093,13 @@
         <v>1523</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>471</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19088,7 +19115,7 @@
         <v>1522</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="L42" s="32" t="s">
         <v>1147</v>
@@ -19096,7 +19123,7 @@
     </row>
     <row r="43" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C43" s="6" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>1523</v>
@@ -19140,17 +19167,17 @@
         <v>1540</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="K44" s="53"/>
       <c r="L44" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="45" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19171,7 +19198,7 @@
         <v>359</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>1542</v>
@@ -19180,7 +19207,7 @@
         <v>536</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19439,7 +19466,7 @@
         <v>1551</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19562,7 +19589,7 @@
         <v>422</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="J74" s="32" t="s">
         <v>1147</v>
@@ -19609,10 +19636,10 @@
         <v>1597</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="J76" s="32" t="s">
         <v>1147</v>
@@ -19624,7 +19651,7 @@
         <v>1599</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="Q76" s="4" t="s">
         <v>1050</v>
@@ -19635,7 +19662,7 @@
         <v>8.26</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>352</v>
@@ -19679,57 +19706,57 @@
         <v>352</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="J79" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="L79" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>1936</v>
+      </c>
+      <c r="N79" s="4" t="s">
         <v>1945</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>1938</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E80" s="6" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>1541</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="H80" s="66"/>
       <c r="I80" s="66"/>
       <c r="J80" s="6"/>
       <c r="K80" s="5" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>745</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>1025</v>
@@ -19738,10 +19765,10 @@
         <v>362</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19752,22 +19779,22 @@
         <v>352</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="J81" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>283</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19781,7 +19808,7 @@
         <v>1638</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="J82" s="32" t="s">
         <v>1147</v>
@@ -19790,16 +19817,16 @@
         <v>1638</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="P82" s="4" t="s">
         <v>563</v>
@@ -19807,45 +19834,45 @@
     </row>
     <row r="83" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E83" s="4" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="J83" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K83" s="4" t="s">
+        <v>1942</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="N83" s="4" t="s">
         <v>1944</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>1945</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>1943</v>
-      </c>
-      <c r="N83" s="4" t="s">
-        <v>1946</v>
       </c>
       <c r="O83" s="4" t="s">
         <v>1169</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E84" s="6" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>1541</v>
@@ -19855,28 +19882,28 @@
       <c r="I84" s="66"/>
       <c r="J84" s="4"/>
       <c r="K84" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="M84" s="5" t="s">
         <v>1953</v>
-      </c>
-      <c r="L84" s="5" t="s">
-        <v>1954</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>1955</v>
       </c>
       <c r="N84" s="4"/>
     </row>
     <row r="85" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E85" s="6" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>1541</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="I85" s="66"/>
       <c r="J85" s="4"/>
@@ -19887,7 +19914,7 @@
     </row>
     <row r="86" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E86" s="4" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>352</v>
@@ -19906,36 +19933,36 @@
         <v>551</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E87" s="4" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="J87" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>299</v>
       </c>
       <c r="M87" s="4" t="s">
+        <v>1966</v>
+      </c>
+      <c r="N87" s="4" t="s">
         <v>1968</v>
-      </c>
-      <c r="N87" s="4" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19964,7 +19991,7 @@
         <v>477</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19987,10 +20014,10 @@
         <v>565</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -20011,10 +20038,10 @@
         <v>1019</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="J91" s="32" t="s">
         <v>1147</v>
@@ -20026,10 +20053,10 @@
         <v>567</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20046,22 +20073,22 @@
         <v>352</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="J92" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>299</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20078,22 +20105,22 @@
         <v>366</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="J93" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>570</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -20117,7 +20144,7 @@
         <v>998</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>1560</v>
@@ -20131,10 +20158,10 @@
         <v>874</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>535</v>
@@ -20143,7 +20170,7 @@
         <v>280</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20154,42 +20181,42 @@
         <v>874</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>572</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>874</v>
       </c>
       <c r="G100" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="L100" s="4" t="s">
         <v>1994</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="M100" s="4" t="s">
         <v>1994</v>
       </c>
-      <c r="L100" s="4" t="s">
-        <v>1996</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>1996</v>
-      </c>
       <c r="N100" s="4" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="101" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20200,10 +20227,10 @@
         <v>874</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>522</v>
@@ -20212,7 +20239,7 @@
         <v>477</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20237,13 +20264,13 @@
         <v>8.34</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>564</v>
@@ -20252,10 +20279,10 @@
         <v>477</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="106" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20263,13 +20290,13 @@
         <v>280</v>
       </c>
       <c r="G106" s="4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H106" s="4" t="s">
         <v>2004</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>2006</v>
-      </c>
       <c r="K106" s="4" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>567</v>
@@ -20278,7 +20305,7 @@
         <v>280</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="107" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20289,19 +20316,19 @@
         <v>412</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="L107" s="4" t="s">
         <v>412</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="108" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20312,10 +20339,10 @@
         <v>412</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -22736,10 +22763,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L62"/>
+  <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22748,7 +22775,7 @@
     <col min="3" max="3" width="64.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.44140625" customWidth="1"/>
     <col min="6" max="6" width="44.6640625" customWidth="1"/>
-    <col min="7" max="7" width="63.33203125" customWidth="1"/>
+    <col min="7" max="7" width="80.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22772,7 +22799,9 @@
       <c r="G2" s="64" t="s">
         <v>1748</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>2016</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -22807,7 +22836,7 @@
         <v>1711</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -22831,10 +22860,10 @@
         <v>1712</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -22850,19 +22879,21 @@
         <v>574</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>1713</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>1762</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>2018</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -22870,27 +22901,27 @@
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>1168</v>
+        <v>895</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1669</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>1714</v>
+        <v>2022</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1789</v>
+        <v>2020</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1788</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>2021</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>2023</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -22898,25 +22929,25 @@
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>1256</v>
+        <v>1168</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1649</v>
+        <v>1785</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1745</v>
+        <v>1669</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1749</v>
+        <v>1787</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1750</v>
+        <v>1786</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -22926,23 +22957,25 @@
     </row>
     <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>1650</v>
+        <v>1256</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>1649</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1745</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>1756</v>
+        <v>1715</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1792</v>
+        <v>1749</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1793</v>
+        <v>1750</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -22952,22 +22985,24 @@
     </row>
     <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>1716</v>
+        <v>1756</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1795</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>1790</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1791</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -22976,24 +23011,22 @@
     </row>
     <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1652</v>
+        <v>1792</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>1796</v>
+        <v>1716</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1797</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>1798</v>
-      </c>
+        <v>1793</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -23002,23 +23035,23 @@
     </row>
     <row r="12" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1799</v>
+        <v>1652</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>1718</v>
+        <v>1794</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -23028,23 +23061,23 @@
     </row>
     <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1567</v>
+        <v>1654</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1655</v>
+        <v>1797</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1752</v>
+        <v>1798</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1751</v>
+        <v>1799</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -23060,17 +23093,17 @@
         <v>574</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1765</v>
+        <v>1655</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>1766</v>
+        <v>1719</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1768</v>
+        <v>1752</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -23080,22 +23113,24 @@
     </row>
     <row r="15" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1656</v>
+        <v>1567</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1745</v>
-      </c>
+        <v>1763</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+        <v>1764</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1765</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -23104,17 +23139,19 @@
     </row>
     <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>982</v>
+        <v>1656</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1802</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>1657</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1745</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -23126,17 +23163,17 @@
     </row>
     <row r="17" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1658</v>
+        <v>982</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -23148,24 +23185,20 @@
     </row>
     <row r="18" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>984</v>
+        <v>1658</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1659</v>
+        <v>1801</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>1723</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>1770</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>1769</v>
-      </c>
+        <v>1722</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -23174,20 +23207,24 @@
     </row>
     <row r="19" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>1660</v>
+        <v>984</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>1724</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+        <v>1723</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>1767</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -23196,24 +23233,20 @@
     </row>
     <row r="20" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1779</v>
+        <v>1661</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>1725</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>1780</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>1781</v>
-      </c>
+        <v>1724</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -23222,23 +23255,23 @@
     </row>
     <row r="21" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C21" s="62" t="s">
-        <v>1663</v>
+      <c r="C21" s="4" t="s">
+        <v>1777</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>1757</v>
+        <v>1778</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -23248,20 +23281,24 @@
     </row>
     <row r="22" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>977</v>
+        <v>1640</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>1664</v>
+      <c r="C22" s="62" t="s">
+        <v>1663</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>1727</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+        <v>1726</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>1784</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -23270,19 +23307,17 @@
     </row>
     <row r="23" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>1665</v>
+        <v>977</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>1669</v>
-      </c>
+        <v>1664</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -23294,23 +23329,21 @@
     </row>
     <row r="24" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>1669</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>1804</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>1805</v>
-      </c>
+        <v>1728</v>
+      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -23320,19 +23353,23 @@
     </row>
     <row r="25" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>1668</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1669</v>
+      </c>
       <c r="E25" s="4" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>1802</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1803</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -23342,19 +23379,17 @@
     </row>
     <row r="26" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>922</v>
+        <v>1670</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>1745</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>1704</v>
+        <v>1671</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>1729</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -23366,21 +23401,21 @@
     </row>
     <row r="27" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1758</v>
+        <v>922</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="53" t="s">
-        <v>1761</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>1760</v>
-      </c>
+        <v>1672</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -23390,25 +23425,27 @@
     </row>
     <row r="28" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1673</v>
+        <v>1758</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>1669</v>
-      </c>
+        <v>1759</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>1730</v>
-      </c>
-      <c r="F28" s="4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>2014</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="32" t="s">
+        <v>2017</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -23416,20 +23453,22 @@
     </row>
     <row r="29" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>1674</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1669</v>
+      </c>
       <c r="E29" s="4" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1785</v>
+        <v>2012</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -23440,19 +23479,21 @@
     </row>
     <row r="30" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1708</v>
+        <v>1782</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>1732</v>
-      </c>
-      <c r="F30" s="4"/>
+        <v>1731</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1783</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -23462,17 +23503,17 @@
     </row>
     <row r="31" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1678</v>
+        <v>1708</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -23490,11 +23531,11 @@
         <v>574</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -23506,17 +23547,17 @@
     </row>
     <row r="33" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>1348</v>
+        <v>1677</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -23528,17 +23569,17 @@
     </row>
     <row r="34" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1223</v>
+        <v>1348</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -23550,17 +23591,17 @@
     </row>
     <row r="35" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1682</v>
+        <v>1223</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1705</v>
+        <v>1681</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -23578,18 +23619,14 @@
         <v>574</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1683</v>
+        <v>1705</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>1763</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>1762</v>
-      </c>
+        <v>1737</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -23598,20 +23635,24 @@
     </row>
     <row r="37" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+        <v>1738</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>1760</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -23620,17 +23661,17 @@
     </row>
     <row r="38" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>1187</v>
+        <v>1684</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C38" s="62" t="s">
-        <v>1686</v>
+      <c r="C38" s="4" t="s">
+        <v>1685</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -23642,17 +23683,17 @@
     </row>
     <row r="39" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>1687</v>
+        <v>1187</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>1706</v>
+      <c r="C39" s="62" t="s">
+        <v>1686</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -23664,24 +23705,20 @@
     </row>
     <row r="40" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>1771</v>
+        <v>1687</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>1772</v>
+      <c r="C40" s="4" t="s">
+        <v>1706</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>1773</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>1775</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>1774</v>
-      </c>
+        <v>1741</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -23690,23 +23727,23 @@
     </row>
     <row r="41" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>1688</v>
+        <v>1769</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>1776</v>
+      <c r="C41" s="15" t="s">
+        <v>1770</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>1742</v>
+        <v>1771</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -23714,62 +23751,74 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="87" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>986</v>
+        <v>1688</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1707</v>
+        <v>1774</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>1753</v>
+        <v>1775</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1754</v>
-      </c>
-      <c r="H42" s="61" t="s">
-        <v>1755</v>
-      </c>
+        <v>1776</v>
+      </c>
+      <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="87" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>1689</v>
+        <v>986</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1690</v>
+        <v>1707</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>1744</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+        <v>1743</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>1754</v>
+      </c>
+      <c r="H43" s="61" t="s">
+        <v>1755</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1690</v>
+      </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>1744</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -23793,18 +23842,10 @@
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>1669</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -23816,13 +23857,17 @@
     </row>
     <row r="47" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B47" s="4"/>
+        <v>1691</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="C47" s="4" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D47" s="4"/>
+        <v>1692</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>1669</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -23834,11 +23879,11 @@
     </row>
     <row r="48" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -23852,11 +23897,11 @@
     </row>
     <row r="49" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -23870,11 +23915,11 @@
     </row>
     <row r="50" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -23888,11 +23933,11 @@
     </row>
     <row r="51" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -23905,9 +23950,13 @@
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
+      <c r="A52" s="4" t="s">
+        <v>1689</v>
+      </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>1701</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -23919,17 +23968,11 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>1702</v>
-      </c>
+      <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="4" t="s">
-        <v>1703</v>
-      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>1746</v>
-      </c>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -23939,11 +23982,17 @@
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
+      <c r="A54" s="4" t="s">
+        <v>1702</v>
+      </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>1703</v>
+      </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>1746</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -24064,6 +24113,20 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
+    <row r="63" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="2024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="2025">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -3952,9 +3952,6 @@
     <t>adhi - sthAnam</t>
   </si>
   <si>
-    <t>2.5.1.5</t>
-  </si>
-  <si>
     <t>2.5.12.5</t>
   </si>
   <si>
@@ -6286,6 +6283,12 @@
   </si>
   <si>
     <t>same issue</t>
+  </si>
+  <si>
+    <t>2.4.11.2</t>
+  </si>
+  <si>
+    <t>trI | saqdhasthA$ |</t>
   </si>
 </sst>
 </file>
@@ -12510,7 +12513,7 @@
         <v>1147</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12533,7 +12536,7 @@
         <v>1147</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12583,10 +12586,10 @@
         <v>1147</v>
       </c>
       <c r="L9" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>1463</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12609,10 +12612,10 @@
         <v>1147</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12635,10 +12638,10 @@
         <v>1147</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>1104</v>
@@ -12866,10 +12869,10 @@
         <v>1175</v>
       </c>
       <c r="N20" s="53" t="s">
+        <v>1602</v>
+      </c>
+      <c r="Q20" s="53" t="s">
         <v>1603</v>
-      </c>
-      <c r="Q20" s="53" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12948,13 +12951,13 @@
         <v>376</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>1466</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>1467</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>1468</v>
       </c>
       <c r="K25" s="32" t="s">
         <v>1147</v>
@@ -12988,7 +12991,7 @@
         <v>381</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="K27" s="32" t="s">
         <v>1147</v>
@@ -13005,7 +13008,7 @@
         <v>382</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>1147</v>
@@ -13025,7 +13028,7 @@
         <v>890</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>1147</v>
@@ -13045,7 +13048,7 @@
         <v>1027</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>1147</v>
@@ -13140,7 +13143,7 @@
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>394</v>
@@ -13220,7 +13223,7 @@
         <v>276</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>1213</v>
@@ -13243,7 +13246,7 @@
         <v>395</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="L41" s="51"/>
     </row>
@@ -13260,13 +13263,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q114"/>
+  <dimension ref="A2:X114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I110" sqref="I110"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13282,13 +13285,13 @@
     <col min="12" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>396</v>
       </c>
@@ -13296,7 +13299,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -13314,7 +13317,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>6.2</v>
       </c>
@@ -13334,9 +13337,9 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>352</v>
@@ -13351,9 +13354,9 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>352</v>
@@ -13368,9 +13371,9 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>352</v>
@@ -13385,7 +13388,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>574</v>
       </c>
@@ -13402,7 +13405,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>399</v>
       </c>
@@ -13419,16 +13422,31 @@
         <v>1147</v>
       </c>
       <c r="M11" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>1637</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>1638</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="S11" s="4" t="s">
+        <v>1640</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>400</v>
       </c>
@@ -13444,14 +13462,8 @@
       <c r="K12" s="32" t="s">
         <v>1147</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:24" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>401</v>
       </c>
@@ -13462,22 +13474,22 @@
         <v>366</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>1252</v>
+        <v>2023</v>
       </c>
       <c r="K13" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1644</v>
+        <v>1009</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>1642</v>
+        <v>2023</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
         <v>983</v>
       </c>
@@ -13494,7 +13506,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
         <v>402</v>
       </c>
@@ -13511,7 +13523,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>403</v>
       </c>
@@ -13568,16 +13580,16 @@
         <v>1150</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>1219</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>1623</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>1624</v>
       </c>
       <c r="P22" s="32" t="s">
         <v>1147</v>
@@ -13588,16 +13600,16 @@
         <v>1178</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>1625</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>1627</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>1626</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>1628</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>1147</v>
@@ -13608,13 +13620,13 @@
         <v>1183</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>1614</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>1615</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>1616</v>
       </c>
       <c r="P24" s="32" t="s">
         <v>1147</v>
@@ -13625,13 +13637,13 @@
         <v>1179</v>
       </c>
       <c r="J25" s="4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>1609</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>1610</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>1611</v>
       </c>
       <c r="P25" s="32" t="s">
         <v>1147</v>
@@ -13645,10 +13657,10 @@
         <v>836</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>1612</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>1613</v>
       </c>
       <c r="P26" s="32" t="s">
         <v>1147</v>
@@ -13656,16 +13668,16 @@
     </row>
     <row r="27" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I27" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>1632</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>1634</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>1635</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>1633</v>
       </c>
       <c r="P27" s="32" t="s">
         <v>1147</v>
@@ -13676,13 +13688,13 @@
         <v>1181</v>
       </c>
       <c r="J28" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>1617</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>1622</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>1618</v>
       </c>
       <c r="P28" s="32" t="s">
         <v>1147</v>
@@ -13693,13 +13705,13 @@
         <v>1180</v>
       </c>
       <c r="J29" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>1619</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>1620</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>1621</v>
       </c>
       <c r="P29" s="32" t="s">
         <v>1147</v>
@@ -13707,16 +13719,16 @@
     </row>
     <row r="30" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I30" s="39" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="J30" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>1806</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>1807</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>1808</v>
       </c>
       <c r="P30" s="32" t="s">
         <v>1147</v>
@@ -13724,16 +13736,16 @@
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I31" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>1629</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>1614</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>1630</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>1631</v>
       </c>
       <c r="P31" s="32" t="s">
         <v>1147</v>
@@ -13801,7 +13813,7 @@
         <v>366</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="K35" s="32" t="s">
         <v>1147</v>
@@ -13821,7 +13833,7 @@
         <v>366</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="K36" s="32" t="s">
         <v>1147</v>
@@ -13832,7 +13844,7 @@
         <v>6.5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>404</v>
@@ -13844,7 +13856,7 @@
         <v>1099</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="K37" s="32" t="s">
         <v>1147</v>
@@ -13904,7 +13916,7 @@
         <v>366</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="K40" s="32" t="s">
         <v>1147</v>
@@ -13915,7 +13927,7 @@
         <v>6.5</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>404</v>
@@ -13924,7 +13936,7 @@
         <v>366</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="K41" s="32" t="s">
         <v>1147</v>
@@ -13944,7 +13956,7 @@
         <v>366</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K42" s="32" t="s">
         <v>1147</v>
@@ -13964,7 +13976,7 @@
         <v>366</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K43" s="32" t="s">
         <v>1147</v>
@@ -14004,7 +14016,7 @@
         <v>366</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="K45" s="32" t="s">
         <v>1147</v>
@@ -14013,7 +14025,7 @@
         <v>420</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14030,7 +14042,7 @@
         <v>366</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="K46" s="32" t="s">
         <v>1147</v>
@@ -14039,7 +14051,7 @@
         <v>421</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14066,7 +14078,7 @@
         <v>1184</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="K48" s="32" t="s">
         <v>1147</v>
@@ -14212,7 +14224,7 @@
         <v>1222</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14261,7 +14273,7 @@
         <v>1222</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -14447,7 +14459,7 @@
       </c>
       <c r="J72" s="34"/>
       <c r="K72" s="34" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14501,10 +14513,10 @@
         <v>1244</v>
       </c>
       <c r="I77" s="34" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J77" s="34" t="s">
         <v>1483</v>
-      </c>
-      <c r="J77" s="34" t="s">
-        <v>1484</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>1245</v>
@@ -14515,7 +14527,7 @@
     </row>
     <row r="78" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>1247</v>
@@ -14562,7 +14574,7 @@
         <v>434</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>1250</v>
@@ -14589,13 +14601,13 @@
         <v>988</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>1149</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L82" s="53" t="s">
         <v>1147</v>
@@ -14609,13 +14621,13 @@
         <v>988</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>1149</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L83" s="53" t="s">
         <v>1147</v>
@@ -14635,7 +14647,7 @@
         <v>1149</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L84" s="53" t="s">
         <v>1147</v>
@@ -14649,13 +14661,13 @@
         <v>988</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>1149</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="L85" s="53" t="s">
         <v>1147</v>
@@ -14669,13 +14681,13 @@
         <v>988</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>1149</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="L86" s="53" t="s">
         <v>1147</v>
@@ -14689,13 +14701,13 @@
         <v>988</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>1149</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="L87" s="53" t="s">
         <v>1147</v>
@@ -14715,7 +14727,7 @@
         <v>1149</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L88" s="53" t="s">
         <v>1147</v>
@@ -14729,13 +14741,13 @@
         <v>988</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>1149</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="L89" s="53" t="s">
         <v>1147</v>
@@ -14755,13 +14767,13 @@
         <v>988</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>1149</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="L90" s="53" t="s">
         <v>1147</v>
@@ -14781,7 +14793,7 @@
         <v>1149</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L91" s="53" t="s">
         <v>1147</v>
@@ -14801,7 +14813,7 @@
         <v>1149</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="L92" s="53" t="s">
         <v>1147</v>
@@ -14809,19 +14821,19 @@
     </row>
     <row r="93" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C93" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>988</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>1149</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L93" s="53" t="s">
         <v>1147</v>
@@ -14835,13 +14847,13 @@
         <v>988</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>1149</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L94" s="53" t="s">
         <v>1147</v>
@@ -14937,7 +14949,7 @@
         <v>1153</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>951</v>
@@ -15172,7 +15184,7 @@
         <v>1147</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
@@ -15267,13 +15279,13 @@
         <v>1151</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="L113" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="114" spans="3:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15284,13 +15296,13 @@
         <v>1152</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="L114" s="32" t="s">
         <v>1157</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
@@ -15364,7 +15376,7 @@
         <v>1215</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>1147</v>
@@ -15373,7 +15385,7 @@
         <v>1216</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
@@ -15418,12 +15430,12 @@
         <v>910</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15446,12 +15458,12 @@
         <v>911</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="4" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15474,12 +15486,12 @@
         <v>912</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
       <c r="P11" s="4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15508,12 +15520,12 @@
         <v>915</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15536,17 +15548,17 @@
         <v>916</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
       <c r="P13" s="4" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>276</v>
@@ -15555,21 +15567,21 @@
         <v>395</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="K14" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="4" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15583,10 +15595,10 @@
         <v>395</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>1348</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>1349</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>1149</v>
@@ -15609,7 +15621,7 @@
         <v>395</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>1149</v>
@@ -15629,19 +15641,19 @@
         <v>395</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L17" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="M17" s="32" t="s">
         <v>1507</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="P17" s="4" t="s">
         <v>1508</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15662,10 +15674,10 @@
         <v>1147</v>
       </c>
       <c r="M19" s="32" t="s">
+        <v>1509</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>1510</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15697,10 +15709,10 @@
         <v>395</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>1290</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>1291</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>1149</v>
@@ -15717,20 +15729,20 @@
         <v>395</v>
       </c>
       <c r="G23" s="32" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>1350</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>1351</v>
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M23" s="32" t="s">
+        <v>1511</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>1512</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15744,7 +15756,7 @@
         <v>910</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="J24" s="51" t="s">
         <v>1149</v>
@@ -15761,19 +15773,19 @@
         <v>395</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>1147</v>
       </c>
       <c r="M25" s="4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>1514</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15784,19 +15796,19 @@
         <v>478</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>1356</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>1357</v>
       </c>
       <c r="J26" s="51" t="s">
         <v>1149</v>
       </c>
       <c r="M26" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>1354</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -15853,16 +15865,16 @@
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>482</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="K31" s="51" t="s">
         <v>1149</v>
@@ -15876,7 +15888,7 @@
         <v>1223</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="K32" s="51" t="s">
         <v>1149</v>
@@ -15887,10 +15899,10 @@
         <v>25</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="K33" s="51" t="s">
         <v>1149</v>
@@ -15928,7 +15940,7 @@
         <v>960</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="N36" s="32" t="s">
         <v>1147</v>
@@ -15945,16 +15957,16 @@
         <v>963</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>1281</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>1282</v>
       </c>
       <c r="K37" s="51" t="s">
         <v>1149</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>1147</v>
@@ -15975,16 +15987,16 @@
         <v>961</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>1286</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>1287</v>
       </c>
       <c r="K39" s="51" t="s">
         <v>1149</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>1147</v>
@@ -16001,10 +16013,10 @@
         <v>962</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>1283</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>1284</v>
       </c>
       <c r="K40" s="51" t="s">
         <v>1149</v>
@@ -16022,10 +16034,10 @@
         <v>492</v>
       </c>
       <c r="G42" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>1298</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>1299</v>
       </c>
       <c r="K42" s="51" t="s">
         <v>1149</v>
@@ -16039,10 +16051,10 @@
         <v>493</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K43" s="51" t="s">
         <v>1149</v>
@@ -16059,7 +16071,7 @@
         <v>895</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="K44" s="51" t="s">
         <v>1149</v>
@@ -16073,10 +16085,10 @@
         <v>495</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K45" s="51" t="s">
         <v>1149</v>
@@ -16090,10 +16102,10 @@
         <v>496</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="K46" s="51" t="s">
         <v>1149</v>
@@ -16107,10 +16119,10 @@
         <v>497</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K47" s="51" t="s">
         <v>1149</v>
@@ -16135,7 +16147,7 @@
         <v>964</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>1162</v>
@@ -16150,10 +16162,10 @@
       </c>
       <c r="E50" s="39"/>
       <c r="G50" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>1162</v>
@@ -16168,10 +16180,10 @@
       </c>
       <c r="E51" s="39"/>
       <c r="G51" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>1312</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>1313</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>1162</v>
@@ -16218,10 +16230,10 @@
       </c>
       <c r="E54" s="39"/>
       <c r="G54" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>1162</v>
@@ -16240,10 +16252,10 @@
       </c>
       <c r="E56" s="39"/>
       <c r="G56" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="K56" s="51" t="s">
         <v>1149</v>
@@ -16261,7 +16273,7 @@
         <v>1080</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="K57" s="51" t="s">
         <v>1149</v>
@@ -16273,7 +16285,7 @@
         <v>7.13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>404</v>
@@ -16282,10 +16294,10 @@
         <v>503</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I59" s="61" t="s">
         <v>1517</v>
-      </c>
-      <c r="I59" s="61" t="s">
-        <v>1518</v>
       </c>
       <c r="K59" s="51" t="s">
         <v>1149</v>
@@ -16311,7 +16323,7 @@
         <v>7.14</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>504</v>
@@ -16347,10 +16359,10 @@
       </c>
       <c r="D65" s="28"/>
       <c r="G65" s="32" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>1147</v>
@@ -16372,13 +16384,13 @@
         <v>276</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>1149</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16392,10 +16404,10 @@
         <v>276</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>1147</v>
@@ -16412,10 +16424,10 @@
         <v>276</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>1147</v>
@@ -16432,10 +16444,10 @@
         <v>276</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>1147</v>
@@ -16452,10 +16464,10 @@
         <v>276</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>1147</v>
@@ -16472,10 +16484,10 @@
         <v>276</v>
       </c>
       <c r="G72" s="32" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>1328</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>1329</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>1147</v>
@@ -16567,7 +16579,7 @@
         <v>585</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="83" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16599,10 +16611,10 @@
         <v>590</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16619,27 +16631,27 @@
         <v>590</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>989</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="L86" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="M86" s="4" t="s">
         <v>1362</v>
-      </c>
-      <c r="M86" s="4" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="87" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16662,7 +16674,7 @@
         <v>1147</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="R87" s="4" t="s">
         <v>943</v>
@@ -16691,13 +16703,13 @@
         <v>948</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="R88" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="S88" s="4" t="s">
         <v>1367</v>
-      </c>
-      <c r="S88" s="4" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16720,13 +16732,13 @@
         <v>948</v>
       </c>
       <c r="M89" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="R89" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="R89" s="4" t="s">
+      <c r="S89" s="4" t="s">
         <v>1367</v>
-      </c>
-      <c r="S89" s="4" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16740,19 +16752,19 @@
         <v>806</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="K90" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M90" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="T90" s="4" t="s">
         <v>1369</v>
-      </c>
-      <c r="R90" s="4" t="s">
-        <v>1371</v>
-      </c>
-      <c r="T90" s="4" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="91" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16766,16 +16778,16 @@
         <v>806</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K91" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M91" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="R91" s="4" t="s">
         <v>1373</v>
-      </c>
-      <c r="R91" s="4" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="92" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16795,22 +16807,22 @@
         <v>1147</v>
       </c>
       <c r="L92" s="32" t="s">
+        <v>1374</v>
+      </c>
+      <c r="M92" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="Q92" s="32" t="s">
+        <v>1809</v>
+      </c>
+      <c r="R92" s="58" t="s">
         <v>1376</v>
       </c>
-      <c r="Q92" s="32" t="s">
+      <c r="S92" s="58" t="s">
+        <v>1377</v>
+      </c>
+      <c r="T92" s="4" t="s">
         <v>1810</v>
-      </c>
-      <c r="R92" s="58" t="s">
-        <v>1377</v>
-      </c>
-      <c r="S92" s="58" t="s">
-        <v>1378</v>
-      </c>
-      <c r="T92" s="4" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="93" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -16832,7 +16844,7 @@
       </c>
       <c r="L94" s="39"/>
       <c r="M94" s="4" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16852,7 +16864,7 @@
         <v>1147</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="96" spans="1:20" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16866,13 +16878,13 @@
         <v>806</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="K96" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="97" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16886,21 +16898,21 @@
         <v>806</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="K97" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="98" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>597</v>
@@ -16915,7 +16927,7 @@
         <v>1147</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16929,13 +16941,13 @@
         <v>806</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="K99" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="100" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16949,19 +16961,19 @@
         <v>806</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="K100" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L100" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="P100" s="4" t="s">
         <v>1389</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>1388</v>
-      </c>
-      <c r="P100" s="4" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="101" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16975,19 +16987,19 @@
         <v>806</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="K101" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="S101" s="59" t="s">
         <v>922</v>
@@ -16995,7 +17007,7 @@
     </row>
     <row r="102" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>605</v>
@@ -17013,26 +17025,26 @@
         <v>1147</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="M102" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="O102" s="4" t="s">
         <v>1393</v>
       </c>
-      <c r="O102" s="4" t="s">
+      <c r="P102" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="P102" s="4" t="s">
+      <c r="R102" s="32" t="s">
+        <v>1396</v>
+      </c>
+      <c r="S102" s="32" t="s">
         <v>1395</v>
-      </c>
-      <c r="R102" s="32" t="s">
-        <v>1397</v>
-      </c>
-      <c r="S102" s="32" t="s">
-        <v>1396</v>
       </c>
       <c r="T102" s="32"/>
       <c r="U102" s="32" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="103" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17052,7 +17064,7 @@
         <v>1147</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="104" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17066,30 +17078,30 @@
         <v>806</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="K104" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="105" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="J105" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="K105" s="4" t="s">
-        <v>1403</v>
-      </c>
       <c r="L105" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="106" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17118,7 +17130,7 @@
         <v>1147</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17147,7 +17159,7 @@
         <v>1147</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="108" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17155,7 +17167,7 @@
         <v>886</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>276</v>
@@ -17170,7 +17182,7 @@
         <v>1147</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="109" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17196,7 +17208,7 @@
         <v>1147</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="110" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17222,7 +17234,7 @@
         <v>1147</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17245,7 +17257,7 @@
         <v>1147</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="112" spans="1:21" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17292,7 +17304,7 @@
         <v>1147</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17318,7 +17330,7 @@
         <v>1147</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17329,7 +17341,7 @@
         <v>896</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>276</v>
@@ -17344,7 +17356,7 @@
         <v>898</v>
       </c>
       <c r="I115" s="59" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="J115" s="59" t="s">
         <v>900</v>
@@ -17356,7 +17368,7 @@
         <v>895</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="N115" s="4" t="s">
         <v>457</v>
@@ -17365,7 +17377,7 @@
         <v>930</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17388,7 +17400,7 @@
         <v>1147</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17411,7 +17423,7 @@
         <v>1147</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17440,7 +17452,7 @@
         <v>1147</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17463,12 +17475,12 @@
         <v>1147</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C120" s="39" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>276</v>
@@ -17483,7 +17495,7 @@
         <v>1147</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17500,7 +17512,7 @@
         <v>806</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>906</v>
@@ -17538,7 +17550,7 @@
         <v>1147</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17547,7 +17559,7 @@
         <v>9.23</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>276</v>
@@ -17556,19 +17568,19 @@
         <v>620</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="J124" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="L124" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="M124" s="4" t="s">
         <v>1425</v>
-      </c>
-      <c r="M124" s="4" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17582,13 +17594,13 @@
         <v>620</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="J125" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17602,7 +17614,7 @@
         <v>620</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>1084</v>
@@ -17611,7 +17623,7 @@
         <v>1147</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17625,13 +17637,13 @@
         <v>620</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="J127" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17651,7 +17663,7 @@
         <v>1147</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="129" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17665,13 +17677,13 @@
         <v>620</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="J129" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="130" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17685,7 +17697,7 @@
         <v>620</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>1066</v>
@@ -17694,10 +17706,10 @@
         <v>1147</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="131" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17721,7 +17733,7 @@
         <v>1147</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="133" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17741,7 +17753,7 @@
         <v>1147</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="134" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -17759,10 +17771,10 @@
         <v>395</v>
       </c>
       <c r="H135" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L135" s="4" t="s">
         <v>1439</v>
-      </c>
-      <c r="L135" s="4" t="s">
-        <v>1440</v>
       </c>
       <c r="M135" s="4" t="s">
         <v>785</v>
@@ -17776,10 +17788,10 @@
         <v>395</v>
       </c>
       <c r="H136" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="L136" s="4" t="s">
         <v>1441</v>
-      </c>
-      <c r="L136" s="4" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="137" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17790,10 +17802,10 @@
         <v>395</v>
       </c>
       <c r="H137" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L137" s="4" t="s">
         <v>1443</v>
-      </c>
-      <c r="L137" s="4" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17804,10 +17816,10 @@
         <v>395</v>
       </c>
       <c r="H138" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="L138" s="4" t="s">
         <v>1445</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17824,10 +17836,10 @@
         <v>1147</v>
       </c>
       <c r="K139" s="51" t="s">
+        <v>1446</v>
+      </c>
+      <c r="L139" s="4" t="s">
         <v>1447</v>
-      </c>
-      <c r="L139" s="4" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17835,10 +17847,10 @@
         <v>850</v>
       </c>
       <c r="K140" s="51" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L140" s="4" t="s">
         <v>1449</v>
-      </c>
-      <c r="L140" s="4" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17846,10 +17858,10 @@
         <v>851</v>
       </c>
       <c r="K141" s="51" t="s">
+        <v>1450</v>
+      </c>
+      <c r="L141" s="4" t="s">
         <v>1451</v>
-      </c>
-      <c r="L141" s="4" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -17857,18 +17869,18 @@
         <v>852</v>
       </c>
       <c r="K142" s="51" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G143" s="4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K143" s="51" t="s">
         <v>1454</v>
-      </c>
-      <c r="K143" s="51" t="s">
-        <v>1455</v>
       </c>
       <c r="L143" s="4" t="s">
         <v>675</v>
@@ -17876,18 +17888,18 @@
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G144" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="K144" s="51" t="s">
         <v>1456</v>
       </c>
-      <c r="K144" s="51" t="s">
+      <c r="L144" s="4" t="s">
         <v>1457</v>
-      </c>
-      <c r="L144" s="4" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="145" spans="7:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G145" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="K145" s="51"/>
     </row>
@@ -18051,7 +18063,7 @@
   <dimension ref="A2:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
@@ -18123,28 +18135,28 @@
         <v>359</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>515</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="L6" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>515</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18153,22 +18165,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>1821</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>1820</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>1822</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>1823</v>
       </c>
       <c r="L7" s="32" t="s">
         <v>1147</v>
@@ -18192,10 +18204,10 @@
         <v>472</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>1824</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>1825</v>
       </c>
       <c r="L8" s="32" t="s">
         <v>1147</v>
@@ -18213,34 +18225,34 @@
         <v>359</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>516</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>1827</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>1828</v>
       </c>
       <c r="L9" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>1829</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>1830</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>516</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>1831</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18249,7 +18261,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>359</v>
@@ -18258,22 +18270,22 @@
         <v>85</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="L10" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="N10" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>1834</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18294,10 +18306,10 @@
         <v>519</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>1837</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>1838</v>
       </c>
       <c r="L11" s="32" t="s">
         <v>1147</v>
@@ -18315,16 +18327,16 @@
         <v>359</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>520</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>1839</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>1840</v>
       </c>
       <c r="L12" s="32" t="s">
         <v>1147</v>
@@ -18351,40 +18363,40 @@
         <v>749</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="L13" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>517</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>1847</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>1848</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>1849</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>1850</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>931</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>933</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18402,25 +18414,25 @@
         <v>1173</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="L14" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>521</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18453,7 +18465,7 @@
         <v>359</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="L16" s="32" t="s">
         <v>1147</v>
@@ -18471,7 +18483,7 @@
         <v>359</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>362</v>
@@ -18480,7 +18492,7 @@
         <v>749</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="L17" s="32" t="s">
         <v>1147</v>
@@ -18504,10 +18516,10 @@
         <v>522</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>1855</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>1856</v>
       </c>
       <c r="L18" s="32" t="s">
         <v>1147</v>
@@ -18525,16 +18537,16 @@
         <v>359</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>523</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>1857</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>1858</v>
       </c>
       <c r="L19" s="32" t="s">
         <v>1147</v>
@@ -18546,28 +18558,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>1859</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>1860</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>1861</v>
       </c>
       <c r="L20" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="21" spans="2:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18582,7 +18594,7 @@
         <v>359</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>525</v>
@@ -18591,7 +18603,7 @@
         <v>536</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>1147</v>
@@ -18609,31 +18621,31 @@
         <v>359</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>526</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="L22" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>526</v>
       </c>
       <c r="O22" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>1871</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="23" spans="2:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18654,10 +18666,10 @@
         <v>527</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>1872</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>1873</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>1874</v>
       </c>
       <c r="L23" s="32" t="s">
         <v>1147</v>
@@ -18684,7 +18696,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>359</v>
@@ -18693,13 +18705,13 @@
         <v>1018</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>1877</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>1878</v>
       </c>
       <c r="L25" s="32" t="s">
         <v>1147</v>
@@ -18711,7 +18723,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>359</v>
@@ -18720,28 +18732,28 @@
         <v>1035</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>1879</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>1880</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M26" s="4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>1875</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>1881</v>
       </c>
-      <c r="N26" s="4" t="s">
-        <v>1876</v>
-      </c>
-      <c r="O26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>1882</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="27" spans="2:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18756,22 +18768,22 @@
         <v>359</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>530</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>1884</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>1885</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>1886</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="28" spans="2:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18786,7 +18798,7 @@
         <v>359</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>529</v>
@@ -18795,7 +18807,7 @@
         <v>825</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="L28" s="32" t="s">
         <v>1147</v>
@@ -18813,16 +18825,16 @@
         <v>359</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>533</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>1890</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>1891</v>
       </c>
       <c r="L29" s="32" t="s">
         <v>1147</v>
@@ -18840,16 +18852,16 @@
         <v>359</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>531</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="L30" s="32" t="s">
         <v>1147</v>
@@ -18861,19 +18873,19 @@
         <v>26</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="L31" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18888,7 +18900,7 @@
         <v>359</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>532</v>
@@ -18897,22 +18909,22 @@
         <v>1193</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="L32" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>532</v>
       </c>
       <c r="O32" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="P32" s="4" t="s">
         <v>1901</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -18924,37 +18936,37 @@
         <v>534</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>1904</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>1529</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>1905</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>1906</v>
       </c>
       <c r="L34" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M34" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N34" s="4" t="s">
         <v>1528</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>1529</v>
       </c>
-      <c r="O34" s="4" t="s">
-        <v>1530</v>
-      </c>
       <c r="P34" s="4" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -18966,28 +18978,28 @@
         <v>534</v>
       </c>
       <c r="I35" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>1907</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>1908</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>534</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>534</v>
@@ -18996,13 +19008,13 @@
         <v>742</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="U35" s="4" t="s">
+        <v>1914</v>
+      </c>
+      <c r="V35" s="4" t="s">
         <v>1915</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19016,10 +19028,10 @@
         <v>8.9</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>1531</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>1532</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>359</v>
@@ -19028,13 +19040,13 @@
         <v>1020</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>1916</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>1917</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>1918</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>1919</v>
       </c>
       <c r="L38" s="32" t="s">
         <v>1147</v>
@@ -19042,19 +19054,19 @@
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D39" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>1183</v>
       </c>
       <c r="H39" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>1534</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>1535</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>1536</v>
       </c>
       <c r="L39" s="32" t="s">
         <v>1147</v>
@@ -19069,53 +19081,53 @@
         <v>535</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>1920</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>1921</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>1922</v>
       </c>
       <c r="L41" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>471</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="D42" s="61"/>
       <c r="G42" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>1520</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>1521</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>1522</v>
-      </c>
       <c r="J42" s="4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="L42" s="32" t="s">
         <v>1147</v>
@@ -19123,22 +19135,22 @@
     </row>
     <row r="43" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C43" s="6" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="M43" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>1523</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>1524</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>293</v>
       </c>
       <c r="P43" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="R43" s="4" t="s">
         <v>1525</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="44" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19146,38 +19158,38 @@
         <v>8.11</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>1540</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>1541</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>1538</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>1539</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>1540</v>
-      </c>
       <c r="J44" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="K44" s="53"/>
       <c r="L44" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="M44" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N44" s="4" t="s">
         <v>1926</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="45" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19189,7 +19201,7 @@
         <v>536</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>536</v>
@@ -19198,16 +19210,16 @@
         <v>359</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>536</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19228,10 +19240,10 @@
         <v>1063</v>
       </c>
       <c r="J48" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="O48" s="4" t="s">
         <v>1574</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19245,13 +19257,13 @@
         <v>538</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>1576</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="O49" s="4" t="s">
         <v>1577</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19265,13 +19277,13 @@
         <v>538</v>
       </c>
       <c r="I50" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>1579</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>1580</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19289,10 +19301,10 @@
         <v>541</v>
       </c>
       <c r="I52" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>1572</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19306,10 +19318,10 @@
         <v>541</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="J53" s="62" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19324,19 +19336,19 @@
         <v>541</v>
       </c>
       <c r="I55" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>1584</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="O55" s="4" t="s">
         <v>1585</v>
       </c>
-      <c r="O55" s="4" t="s">
+      <c r="Q55" s="4" t="s">
         <v>1586</v>
       </c>
-      <c r="Q55" s="4" t="s">
+      <c r="R55" s="4" t="s">
         <v>1587</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19389,16 +19401,16 @@
         <v>548</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>1543</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>1262</v>
-      </c>
-      <c r="H62" s="4" t="s">
+      <c r="N62" s="4" t="s">
         <v>1544</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19406,16 +19418,16 @@
         <v>412</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G63" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>1589</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="N63" s="4" t="s">
         <v>1590</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19423,16 +19435,16 @@
         <v>549</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H64" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="N64" s="4" t="s">
         <v>1546</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="65" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19440,16 +19452,16 @@
         <v>550</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G65" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>1547</v>
+      </c>
+      <c r="N65" s="4" t="s">
         <v>1549</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>1548</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19457,16 +19469,16 @@
         <v>551</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>1043</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19474,16 +19486,16 @@
         <v>554</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G67" s="39" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>1569</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>1570</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="68" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19491,16 +19503,16 @@
         <v>552</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>1552</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>1553</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="69" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19508,16 +19520,16 @@
         <v>553</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G69" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>1555</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="N69" s="4" t="s">
         <v>1556</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="70" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19525,16 +19537,16 @@
         <v>555</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>903</v>
       </c>
       <c r="H70" s="4" t="s">
+        <v>1557</v>
+      </c>
+      <c r="N70" s="4" t="s">
         <v>1558</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="71" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19542,16 +19554,16 @@
         <v>556</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G71" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>1561</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="N71" s="4" t="s">
         <v>1562</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="72" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19559,16 +19571,16 @@
         <v>557</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G72" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="N72" s="4" t="s">
         <v>1565</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>1564</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="73" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -19589,19 +19601,19 @@
         <v>422</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="J74" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>915</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="75" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19612,17 +19624,17 @@
         <v>352</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H75" s="56"/>
       <c r="J75" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K75" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="N75" s="4" t="s">
         <v>1595</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="76" spans="1:19" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19633,25 +19645,25 @@
         <v>352</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="J76" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K76" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="N76" s="4" t="s">
         <v>1598</v>
       </c>
-      <c r="N76" s="4" t="s">
-        <v>1599</v>
-      </c>
       <c r="P76" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="Q76" s="4" t="s">
         <v>1050</v>
@@ -19662,22 +19674,22 @@
         <v>8.26</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="J77" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K77" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="N77" s="4" t="s">
         <v>1601</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19706,57 +19718,57 @@
         <v>352</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="J79" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K79" s="4" t="s">
+        <v>1934</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>1942</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>1935</v>
       </c>
-      <c r="L79" s="4" t="s">
-        <v>1943</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>1936</v>
-      </c>
       <c r="N79" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E80" s="6" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="H80" s="66"/>
       <c r="I80" s="66"/>
       <c r="J80" s="6"/>
       <c r="K80" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>745</v>
       </c>
       <c r="M80" s="5" t="s">
+        <v>1931</v>
+      </c>
+      <c r="N80" s="4" t="s">
         <v>1932</v>
       </c>
-      <c r="N80" s="4" t="s">
-        <v>1933</v>
-      </c>
       <c r="O80" s="5" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>1025</v>
@@ -19765,10 +19777,10 @@
         <v>362</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19779,22 +19791,22 @@
         <v>352</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="J81" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K81" s="4" t="s">
+        <v>1957</v>
+      </c>
+      <c r="L81" s="4" t="s">
         <v>1958</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>1959</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>283</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19805,28 +19817,28 @@
         <v>352</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="J82" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="L82" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="M82" s="4" t="s">
         <v>1939</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>1940</v>
-      </c>
       <c r="N82" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="O82" s="4" t="s">
         <v>1946</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>1947</v>
       </c>
       <c r="P82" s="4" t="s">
         <v>563</v>
@@ -19834,76 +19846,76 @@
     </row>
     <row r="83" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E83" s="4" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="J83" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K83" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="L83" s="4" t="s">
         <v>1942</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="M83" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="N83" s="4" t="s">
         <v>1943</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>1941</v>
-      </c>
-      <c r="N83" s="4" t="s">
-        <v>1944</v>
       </c>
       <c r="O83" s="4" t="s">
         <v>1169</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E84" s="6" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="66"/>
       <c r="J84" s="4"/>
       <c r="K84" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="L84" s="5" t="s">
         <v>1951</v>
       </c>
-      <c r="L84" s="5" t="s">
+      <c r="M84" s="5" t="s">
         <v>1952</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>1953</v>
       </c>
       <c r="N84" s="4"/>
     </row>
     <row r="85" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E85" s="6" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>1955</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>1541</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>1956</v>
-      </c>
       <c r="H85" s="6" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="I85" s="66"/>
       <c r="J85" s="4"/>
@@ -19914,7 +19926,7 @@
     </row>
     <row r="86" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E86" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>352</v>
@@ -19933,36 +19945,36 @@
         <v>551</v>
       </c>
       <c r="M86" s="4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="N86" s="4" t="s">
         <v>1961</v>
-      </c>
-      <c r="N86" s="4" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E87" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="J87" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>299</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -19982,7 +19994,7 @@
         <v>1147</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L88" s="4" t="s">
         <v>564</v>
@@ -19991,7 +20003,7 @@
         <v>477</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20008,16 +20020,16 @@
         <v>1147</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>565</v>
       </c>
       <c r="M89" s="4" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N89" s="4" t="s">
         <v>1975</v>
-      </c>
-      <c r="N89" s="4" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -20038,10 +20050,10 @@
         <v>1019</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="J91" s="32" t="s">
         <v>1147</v>
@@ -20053,10 +20065,10 @@
         <v>567</v>
       </c>
       <c r="M91" s="4" t="s">
+        <v>1976</v>
+      </c>
+      <c r="N91" s="4" t="s">
         <v>1977</v>
-      </c>
-      <c r="N91" s="4" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20073,22 +20085,22 @@
         <v>352</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="J92" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>299</v>
       </c>
       <c r="M92" s="4" t="s">
+        <v>1981</v>
+      </c>
+      <c r="N92" s="4" t="s">
         <v>1982</v>
-      </c>
-      <c r="N92" s="4" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20105,22 +20117,22 @@
         <v>366</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="J93" s="32" t="s">
         <v>1147</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>570</v>
       </c>
       <c r="M93" s="4" t="s">
+        <v>1984</v>
+      </c>
+      <c r="N93" s="4" t="s">
         <v>1985</v>
-      </c>
-      <c r="N93" s="4" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -20144,10 +20156,10 @@
         <v>998</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="98" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20158,10 +20170,10 @@
         <v>874</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>535</v>
@@ -20170,7 +20182,7 @@
         <v>280</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20181,42 +20193,42 @@
         <v>874</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>572</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>874</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="L100" s="4" t="s">
+        <v>1993</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>1993</v>
+      </c>
+      <c r="N100" s="4" t="s">
         <v>1994</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>1994</v>
-      </c>
-      <c r="N100" s="4" t="s">
-        <v>1995</v>
       </c>
     </row>
     <row r="101" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20227,10 +20239,10 @@
         <v>874</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>522</v>
@@ -20239,7 +20251,7 @@
         <v>477</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20264,13 +20276,13 @@
         <v>8.34</v>
       </c>
       <c r="E105" s="5" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>1998</v>
       </c>
-      <c r="G105" s="4" t="s">
-        <v>1999</v>
-      </c>
       <c r="K105" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>564</v>
@@ -20279,10 +20291,10 @@
         <v>477</v>
       </c>
       <c r="N105" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="O105" s="4" t="s">
         <v>2000</v>
-      </c>
-      <c r="O105" s="4" t="s">
-        <v>2001</v>
       </c>
     </row>
     <row r="106" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20290,13 +20302,13 @@
         <v>280</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>567</v>
@@ -20305,7 +20317,7 @@
         <v>280</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="107" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20316,33 +20328,33 @@
         <v>412</v>
       </c>
       <c r="H107" s="4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>2005</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>2006</v>
       </c>
       <c r="L107" s="4" t="s">
         <v>412</v>
       </c>
       <c r="M107" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="O107" s="4" t="s">
         <v>2007</v>
-      </c>
-      <c r="O107" s="4" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="108" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="K108" s="4" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="L108" s="4" t="s">
         <v>412</v>
       </c>
       <c r="M108" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O108" s="4" t="s">
         <v>2009</v>
-      </c>
-      <c r="O108" s="4" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20362,13 +20374,13 @@
         <v>576</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>1163</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="110" spans="1:15" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -22765,7 +22777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -22781,26 +22793,26 @@
   <sheetData>
     <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B2" s="63" t="s">
         <v>809</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D2" s="63"/>
       <c r="E2" s="63" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F2" s="64" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G2" s="64" t="s">
         <v>1747</v>
       </c>
-      <c r="G2" s="64" t="s">
-        <v>1748</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -22823,20 +22835,20 @@
     </row>
     <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -22847,23 +22859,23 @@
     </row>
     <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>1780</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1781</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -22879,20 +22891,20 @@
         <v>574</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>1761</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>1762</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -22907,20 +22919,20 @@
         <v>574</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>2022</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>2020</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>2023</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -22935,19 +22947,19 @@
         <v>574</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>1785</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>1787</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>1786</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -22957,25 +22969,25 @@
     </row>
     <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>1749</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>1750</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -22985,23 +22997,23 @@
     </row>
     <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>1790</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>1791</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -23011,20 +23023,20 @@
     </row>
     <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -23035,23 +23047,23 @@
     </row>
     <row r="12" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>1794</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>1795</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>1796</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -23061,23 +23073,23 @@
     </row>
     <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>1798</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>1799</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -23087,23 +23099,23 @@
     </row>
     <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -23113,23 +23125,23 @@
     </row>
     <row r="15" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>1764</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>1766</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>1765</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -23139,19 +23151,19 @@
     </row>
     <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -23169,11 +23181,11 @@
         <v>574</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -23185,17 +23197,17 @@
     </row>
     <row r="18" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -23213,17 +23225,17 @@
         <v>574</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -23233,17 +23245,17 @@
     </row>
     <row r="20" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -23255,23 +23267,23 @@
     </row>
     <row r="21" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>1778</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>1779</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -23281,23 +23293,23 @@
     </row>
     <row r="22" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -23313,11 +23325,11 @@
         <v>574</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -23329,19 +23341,19 @@
     </row>
     <row r="24" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -23353,22 +23365,22 @@
     </row>
     <row r="25" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>1668</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>1669</v>
-      </c>
       <c r="E25" s="4" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>1802</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>1803</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -23379,17 +23391,17 @@
     </row>
     <row r="26" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -23407,13 +23419,13 @@
         <v>574</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -23425,26 +23437,26 @@
     </row>
     <row r="28" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F28" s="53" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>2013</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>2014</v>
-      </c>
       <c r="H28" s="32" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -23453,22 +23465,22 @@
     </row>
     <row r="29" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -23479,20 +23491,20 @@
     </row>
     <row r="30" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -23503,17 +23515,17 @@
     </row>
     <row r="31" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -23525,17 +23537,17 @@
     </row>
     <row r="32" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -23547,17 +23559,17 @@
     </row>
     <row r="33" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -23569,17 +23581,17 @@
     </row>
     <row r="34" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -23597,11 +23609,11 @@
         <v>574</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -23613,17 +23625,17 @@
     </row>
     <row r="36" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -23635,23 +23647,23 @@
     </row>
     <row r="37" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -23661,17 +23673,17 @@
     </row>
     <row r="38" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -23689,11 +23701,11 @@
         <v>574</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -23705,17 +23717,17 @@
     </row>
     <row r="40" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -23727,23 +23739,23 @@
     </row>
     <row r="41" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>1771</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>1773</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>1772</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -23753,23 +23765,23 @@
     </row>
     <row r="42" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>1775</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>1776</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -23785,20 +23797,20 @@
         <v>574</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>1753</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="61" t="s">
         <v>1754</v>
-      </c>
-      <c r="H43" s="61" t="s">
-        <v>1755</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -23807,17 +23819,17 @@
     </row>
     <row r="44" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -23857,16 +23869,16 @@
     </row>
     <row r="47" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -23879,11 +23891,11 @@
     </row>
     <row r="48" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -23897,11 +23909,11 @@
     </row>
     <row r="49" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -23915,11 +23927,11 @@
     </row>
     <row r="50" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -23933,11 +23945,11 @@
     </row>
     <row r="51" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -23951,11 +23963,11 @@
     </row>
     <row r="52" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -23983,15 +23995,15 @@
     </row>
     <row r="54" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -13265,7 +13265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -18062,8 +18062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G48" sqref="G48"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -6442,13 +6442,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6704,112 +6710,112 @@
   </cellStyleXfs>
   <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7092,7 +7098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
@@ -12620,7 +12626,7 @@
   <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
@@ -13441,10 +13447,10 @@
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15490,7 +15496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
@@ -18238,7 +18244,7 @@
   <dimension ref="A2:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
@@ -20603,11 +20609,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D169" sqref="D169"/>
+      <selection pane="bottomRight" activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -20610,10 +20610,10 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E191" sqref="E191"/>
+      <selection pane="bottomRight" activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="2074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="2074">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -20609,11 +20609,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C159" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D162" sqref="D162"/>
+      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21604,6 +21604,9 @@
       <c r="D95" s="4" t="s">
         <v>715</v>
       </c>
+      <c r="G95" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="H95" s="45" t="s">
         <v>908</v>
       </c>
@@ -22009,6 +22012,9 @@
       <c r="D124" s="4" t="s">
         <v>733</v>
       </c>
+      <c r="G124" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="H124" s="44" t="s">
         <v>1050</v>
       </c>
@@ -22035,6 +22041,9 @@
       <c r="D125" s="4" t="s">
         <v>735</v>
       </c>
+      <c r="G125" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="H125" s="44" t="s">
         <v>1058</v>
       </c>
@@ -22046,6 +22055,9 @@
       <c r="D126" s="4" t="s">
         <v>737</v>
       </c>
+      <c r="G126" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="H126" s="44" t="s">
         <v>1055</v>
       </c>
@@ -22062,6 +22074,9 @@
       </c>
       <c r="D127" s="4" t="s">
         <v>736</v>
+      </c>
+      <c r="G127" s="29" t="s">
+        <v>388</v>
       </c>
       <c r="H127" s="44" t="s">
         <v>1059</v>
@@ -22078,6 +22093,9 @@
       <c r="D129" s="4" t="s">
         <v>739</v>
       </c>
+      <c r="G129" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="H129" s="44" t="s">
         <v>1060</v>
       </c>
@@ -22092,6 +22110,9 @@
       <c r="D130" s="4" t="s">
         <v>402</v>
       </c>
+      <c r="G130" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="H130" s="44" t="s">
         <v>1062</v>
       </c>
@@ -22118,6 +22139,9 @@
       <c r="D131" s="4" t="s">
         <v>740</v>
       </c>
+      <c r="G131" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="H131" s="44" t="s">
         <v>1065</v>
       </c>
@@ -22132,6 +22156,9 @@
       <c r="D132" s="32" t="s">
         <v>741</v>
       </c>
+      <c r="G132" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="H132" s="44" t="s">
         <v>1067</v>
       </c>
@@ -22149,6 +22176,9 @@
       <c r="D133" s="4" t="s">
         <v>742</v>
       </c>
+      <c r="G133" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="H133" s="44" t="s">
         <v>1016</v>
       </c>
@@ -22163,6 +22193,9 @@
       <c r="D134" s="4" t="s">
         <v>743</v>
       </c>
+      <c r="G134" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="H134" s="44" t="s">
         <v>905</v>
       </c>
@@ -22176,6 +22209,9 @@
       </c>
       <c r="D135" s="4" t="s">
         <v>744</v>
+      </c>
+      <c r="G135" s="29" t="s">
+        <v>388</v>
       </c>
       <c r="H135" s="46" t="s">
         <v>1072</v>
@@ -22207,18 +22243,27 @@
       <c r="D137" s="4" t="s">
         <v>745</v>
       </c>
+      <c r="G137" s="29" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="138" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
         <v>747</v>
       </c>
+      <c r="G138" s="29" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="139" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
         <v>746</v>
       </c>
+      <c r="G139" s="29" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="140" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="141" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22231,6 +22276,9 @@
       <c r="D141" s="4" t="s">
         <v>402</v>
       </c>
+      <c r="G141" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="H141" s="44" t="s">
         <v>1078</v>
       </c>
@@ -22241,6 +22289,9 @@
       </c>
       <c r="D142" s="4" t="s">
         <v>402</v>
+      </c>
+      <c r="G142" s="29" t="s">
+        <v>388</v>
       </c>
       <c r="H142" s="44" t="s">
         <v>1079</v>
@@ -22957,8 +23008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -5439,9 +5439,6 @@
     <t>asmABiruvuvasmABirasmABirUnunvasmABirasmABirUnu</t>
   </si>
   <si>
-    <t xml:space="preserve">adantyuvuvadantya dantyuvevaivodantyadantyuveva </t>
-  </si>
-  <si>
     <t>adantyuvuvadantyadantyu</t>
   </si>
   <si>
@@ -5535,9 +5532,6 @@
     <t xml:space="preserve">sam | uq | yaqntuq | </t>
   </si>
   <si>
-    <t>samuvusamuyantuyantUsa(gm)samutvA</t>
-  </si>
-  <si>
     <t>samato &amp;taH sa(gm) samata u vuvataH sa(gm) samata u</t>
   </si>
   <si>
@@ -6315,9 +6309,6 @@
     <t>uduvuvududu tiShTha tiShTho?vududu tiShTha</t>
   </si>
   <si>
-    <t>uduvuvududU balam balamuvdudU balam</t>
-  </si>
-  <si>
     <t>samuvusamu</t>
   </si>
   <si>
@@ -6436,6 +6427,15 @@
   </si>
   <si>
     <t>BartarA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adantyuvuvadantya dantyuvevaivauvadantyadantyuveva </t>
+  </si>
+  <si>
+    <t>uduvuvududU balam balamuvududU balam</t>
+  </si>
+  <si>
+    <t>samuvusamuyantuyantUsa(gm)samuyantu</t>
   </si>
 </sst>
 </file>
@@ -6708,7 +6708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6816,6 +6816,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8240,7 +8241,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="70" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -8297,7 +8298,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -8506,7 +8507,7 @@
         <v>27</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
@@ -8863,7 +8864,7 @@
         <v>18</v>
       </c>
       <c r="C99" s="70" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -9356,7 +9357,7 @@
         <v>12</v>
       </c>
       <c r="C125" s="70" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
@@ -9656,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>850</v>
@@ -9998,7 +9999,7 @@
         <v>17</v>
       </c>
       <c r="C159" s="70" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
@@ -13404,7 +13405,7 @@
         <v>269</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>1205</v>
@@ -13655,7 +13656,7 @@
         <v>359</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="K13" s="32" t="s">
         <v>1139</v>
@@ -13664,10 +13665,10 @@
         <v>1001</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13903,13 +13904,13 @@
         <v>1627</v>
       </c>
       <c r="J30" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>1796</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>1797</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>1798</v>
       </c>
       <c r="P30" s="32" t="s">
         <v>1139</v>
@@ -14454,7 +14455,7 @@
         <v>1214</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -16994,7 +16995,7 @@
         <v>1367</v>
       </c>
       <c r="Q92" s="32" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="R92" s="58" t="s">
         <v>1368</v>
@@ -17003,7 +17004,7 @@
         <v>1369</v>
       </c>
       <c r="T92" s="4" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="93" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17025,7 +17026,7 @@
       </c>
       <c r="L94" s="39"/>
       <c r="M94" s="4" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17522,7 +17523,7 @@
         <v>888</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>269</v>
@@ -17537,7 +17538,7 @@
         <v>890</v>
       </c>
       <c r="I115" s="59" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="J115" s="59" t="s">
         <v>892</v>
@@ -18316,28 +18317,28 @@
         <v>352</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>508</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="L6" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>508</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18346,22 +18347,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1808</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>1810</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>1811</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>1810</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1812</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>1813</v>
       </c>
       <c r="L7" s="32" t="s">
         <v>1139</v>
@@ -18385,10 +18386,10 @@
         <v>465</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="L8" s="32" t="s">
         <v>1139</v>
@@ -18406,34 +18407,34 @@
         <v>352</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>509</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="L9" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>509</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18442,7 +18443,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>352</v>
@@ -18451,22 +18452,22 @@
         <v>82</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="L10" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18487,10 +18488,10 @@
         <v>512</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="L11" s="32" t="s">
         <v>1139</v>
@@ -18514,10 +18515,10 @@
         <v>513</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="L12" s="32" t="s">
         <v>1139</v>
@@ -18544,40 +18545,40 @@
         <v>742</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="L13" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>510</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>1835</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>1837</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>1838</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>1839</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>1840</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>923</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>925</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18595,25 +18596,25 @@
         <v>1165</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="L14" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>514</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18646,7 +18647,7 @@
         <v>352</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="L16" s="32" t="s">
         <v>1139</v>
@@ -18673,7 +18674,7 @@
         <v>742</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="L17" s="32" t="s">
         <v>1139</v>
@@ -18697,10 +18698,10 @@
         <v>515</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="L18" s="32" t="s">
         <v>1139</v>
@@ -18724,10 +18725,10 @@
         <v>516</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="L19" s="32" t="s">
         <v>1139</v>
@@ -18739,28 +18740,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>1849</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>1850</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>1851</v>
       </c>
       <c r="L20" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="21" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18775,7 +18776,7 @@
         <v>352</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>518</v>
@@ -18784,7 +18785,7 @@
         <v>529</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>1139</v>
@@ -18802,31 +18803,31 @@
         <v>352</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>519</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="L22" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>519</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="23" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18847,10 +18848,10 @@
         <v>520</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="L23" s="32" t="s">
         <v>1139</v>
@@ -18877,7 +18878,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>352</v>
@@ -18886,13 +18887,13 @@
         <v>1010</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>1865</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>1867</v>
-      </c>
       <c r="J25" s="4" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="L25" s="32" t="s">
         <v>1139</v>
@@ -18904,7 +18905,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>352</v>
@@ -18913,28 +18914,28 @@
         <v>1027</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M26" s="4" t="s">
+        <v>1869</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>1864</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>1871</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>1866</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>1872</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="27" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18949,22 +18950,22 @@
         <v>352</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>523</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="28" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18979,7 +18980,7 @@
         <v>352</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>522</v>
@@ -18988,7 +18989,7 @@
         <v>817</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="L28" s="32" t="s">
         <v>1139</v>
@@ -19006,16 +19007,16 @@
         <v>352</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>526</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="L29" s="32" t="s">
         <v>1139</v>
@@ -19033,16 +19034,16 @@
         <v>352</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>524</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="L30" s="32" t="s">
         <v>1139</v>
@@ -19054,19 +19055,19 @@
         <v>26</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="L31" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.25">
@@ -19081,7 +19082,7 @@
         <v>352</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>525</v>
@@ -19090,22 +19091,22 @@
         <v>1185</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="L32" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>525</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19123,16 +19124,16 @@
         <v>352</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>1520</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="L34" s="32" t="s">
         <v>1139</v>
@@ -19147,7 +19148,7 @@
         <v>1521</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19159,28 +19160,28 @@
         <v>527</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>527</v>
       </c>
       <c r="O35" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="Q35" s="4" t="s">
         <v>1900</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>1904</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>1902</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>527</v>
@@ -19189,13 +19190,13 @@
         <v>735</v>
       </c>
       <c r="T35" s="4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="U35" s="4" t="s">
         <v>1903</v>
       </c>
-      <c r="U35" s="4" t="s">
-        <v>1905</v>
-      </c>
       <c r="V35" s="4" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19221,13 +19222,13 @@
         <v>1012</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>1905</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>1907</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>1908</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>1909</v>
       </c>
       <c r="L38" s="32" t="s">
         <v>1139</v>
@@ -19271,13 +19272,13 @@
         <v>1514</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>1908</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>1910</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>1911</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>1912</v>
       </c>
       <c r="L41" s="32" t="s">
         <v>1139</v>
@@ -19286,13 +19287,13 @@
         <v>1514</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>464</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19308,7 +19309,7 @@
         <v>1513</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="L42" s="32" t="s">
         <v>1139</v>
@@ -19316,7 +19317,7 @@
     </row>
     <row r="43" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C43" s="6" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>1514</v>
@@ -19360,17 +19361,17 @@
         <v>1531</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="K44" s="53"/>
       <c r="L44" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="45" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19391,7 +19392,7 @@
         <v>352</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>1533</v>
@@ -19400,7 +19401,7 @@
         <v>529</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19659,7 +19660,7 @@
         <v>1542</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19782,7 +19783,7 @@
         <v>415</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="J74" s="32" t="s">
         <v>1139</v>
@@ -19829,10 +19830,10 @@
         <v>1588</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="J76" s="32" t="s">
         <v>1139</v>
@@ -19844,7 +19845,7 @@
         <v>1590</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="Q76" s="4" t="s">
         <v>1042</v>
@@ -19855,7 +19856,7 @@
         <v>8.26</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>345</v>
@@ -19899,57 +19900,57 @@
         <v>345</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="J79" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="L79" s="4" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>1924</v>
+      </c>
+      <c r="N79" s="4" t="s">
         <v>1933</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>1926</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="E80" s="6" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>1532</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="H80" s="66"/>
       <c r="I80" s="66"/>
       <c r="J80" s="6"/>
       <c r="K80" s="5" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>738</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>1017</v>
@@ -19958,10 +19959,10 @@
         <v>355</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -19972,22 +19973,22 @@
         <v>345</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="J81" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>276</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -20001,7 +20002,7 @@
         <v>1629</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="J82" s="32" t="s">
         <v>1139</v>
@@ -20010,16 +20011,16 @@
         <v>1629</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="P82" s="4" t="s">
         <v>556</v>
@@ -20027,45 +20028,45 @@
     </row>
     <row r="83" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="E83" s="4" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>345</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="J83" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K83" s="4" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>1929</v>
+      </c>
+      <c r="N83" s="4" t="s">
         <v>1932</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>1933</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>1931</v>
-      </c>
-      <c r="N83" s="4" t="s">
-        <v>1934</v>
       </c>
       <c r="O83" s="4" t="s">
         <v>1161</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="E84" s="6" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>1532</v>
@@ -20075,28 +20076,28 @@
       <c r="I84" s="66"/>
       <c r="J84" s="4"/>
       <c r="K84" s="5" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="M84" s="5" t="s">
         <v>1941</v>
-      </c>
-      <c r="L84" s="5" t="s">
-        <v>1942</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>1943</v>
       </c>
       <c r="N84" s="4"/>
     </row>
     <row r="85" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="E85" s="6" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>1532</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="I85" s="66"/>
       <c r="J85" s="4"/>
@@ -20107,7 +20108,7 @@
     </row>
     <row r="86" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="E86" s="4" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>345</v>
@@ -20126,36 +20127,36 @@
         <v>544</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E87" s="4" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>345</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="J87" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>292</v>
       </c>
       <c r="M87" s="4" t="s">
+        <v>1954</v>
+      </c>
+      <c r="N87" s="4" t="s">
         <v>1956</v>
-      </c>
-      <c r="N87" s="4" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20184,7 +20185,7 @@
         <v>470</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20207,10 +20208,10 @@
         <v>558</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -20231,10 +20232,10 @@
         <v>1011</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="J91" s="32" t="s">
         <v>1139</v>
@@ -20246,10 +20247,10 @@
         <v>560</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20266,22 +20267,22 @@
         <v>345</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="J92" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>292</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20298,22 +20299,22 @@
         <v>359</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="J93" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>563</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -20337,7 +20338,7 @@
         <v>990</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>1551</v>
@@ -20351,10 +20352,10 @@
         <v>866</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>528</v>
@@ -20363,7 +20364,7 @@
         <v>273</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20374,42 +20375,42 @@
         <v>866</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>565</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>866</v>
       </c>
       <c r="G100" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="L100" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="M100" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="L100" s="4" t="s">
-        <v>1984</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>1984</v>
-      </c>
       <c r="N100" s="4" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="101" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20420,10 +20421,10 @@
         <v>866</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>515</v>
@@ -20432,7 +20433,7 @@
         <v>470</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20457,13 +20458,13 @@
         <v>8.34</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>557</v>
@@ -20472,10 +20473,10 @@
         <v>470</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="106" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20483,13 +20484,13 @@
         <v>273</v>
       </c>
       <c r="G106" s="4" t="s">
+        <v>1990</v>
+      </c>
+      <c r="H106" s="4" t="s">
         <v>1992</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>1994</v>
-      </c>
       <c r="K106" s="4" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>560</v>
@@ -20498,7 +20499,7 @@
         <v>273</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="107" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20509,19 +20510,19 @@
         <v>405</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="L107" s="4" t="s">
         <v>405</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="108" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20532,10 +20533,10 @@
         <v>405</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22423,7 +22424,7 @@
     </row>
     <row r="168" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D168" s="69" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -23009,7 +23010,7 @@
   <dimension ref="A2:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23043,7 +23044,7 @@
         <v>1738</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -23079,10 +23080,10 @@
         <v>1702</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -23097,7 +23098,7 @@
       <c r="B5" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="32" t="s">
         <v>1639</v>
       </c>
       <c r="D5" s="4"/>
@@ -23105,10 +23106,10 @@
         <v>1703</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>1770</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1771</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -23124,20 +23125,20 @@
         <v>567</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>1704</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>1751</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>1752</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -23152,20 +23153,20 @@
         <v>567</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>2011</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>2013</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -23180,7 +23181,7 @@
         <v>567</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>1660</v>
@@ -23189,10 +23190,10 @@
         <v>1705</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -23236,17 +23237,17 @@
         <v>567</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -23262,17 +23263,17 @@
         <v>567</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="67" t="s">
         <v>1707</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -23292,13 +23293,13 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>1784</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>1785</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>1786</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -23314,17 +23315,17 @@
         <v>567</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>1709</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -23347,10 +23348,10 @@
         <v>1710</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1742</v>
-      </c>
-      <c r="G14" s="4" t="s">
         <v>1741</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>2071</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -23366,17 +23367,17 @@
         <v>567</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>1754</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>1756</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>1755</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -23391,7 +23392,7 @@
       <c r="B16" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="32" t="s">
         <v>1648</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -23401,10 +23402,10 @@
         <v>1711</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G16" s="67" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -23420,17 +23421,17 @@
         <v>567</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="67" t="s">
         <v>1712</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -23445,18 +23446,18 @@
       <c r="B18" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>1791</v>
+      <c r="C18" s="32" t="s">
+        <v>1789</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>1713</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -23479,10 +23480,10 @@
         <v>1714</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -23504,11 +23505,11 @@
       <c r="E20" s="4" t="s">
         <v>1715</v>
       </c>
-      <c r="F20" s="67" t="s">
-        <v>2024</v>
+      <c r="F20" s="71" t="s">
+        <v>2022</v>
       </c>
       <c r="G20" s="67" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -23523,18 +23524,18 @@
       <c r="B21" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>1767</v>
+      <c r="C21" s="32" t="s">
+        <v>1766</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>1716</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>1768</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>1769</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -23557,10 +23558,10 @@
         <v>1717</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -23583,10 +23584,10 @@
         <v>1718</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="G23" s="67" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -23611,10 +23612,10 @@
         <v>1719</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="G24" s="67" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -23629,23 +23630,23 @@
       <c r="B25" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="32" t="s">
         <v>1659</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>1660</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="H25" s="67" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -23667,10 +23668,10 @@
         <v>1720</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="G26" s="67" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -23695,10 +23696,10 @@
         <v>1695</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1777</v>
-      </c>
-      <c r="G27" s="67" t="s">
-        <v>2033</v>
+        <v>1775</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>2072</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -23708,26 +23709,26 @@
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>2001</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H28" s="32" t="s">
         <v>2005</v>
-      </c>
-      <c r="F28" s="53" t="s">
-        <v>2003</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>2004</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>2007</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -23751,10 +23752,10 @@
         <v>1721</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -23770,17 +23771,17 @@
         <v>567</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>1722</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>2034</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>1773</v>
+        <v>2031</v>
+      </c>
+      <c r="G30" s="71" t="s">
+        <v>2073</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -23795,7 +23796,7 @@
       <c r="B31" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="32" t="s">
         <v>1699</v>
       </c>
       <c r="D31" s="4"/>
@@ -23803,10 +23804,10 @@
         <v>1723</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G31" s="67" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -23887,18 +23888,18 @@
       <c r="B35" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="32" t="s">
         <v>1672</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="67" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="F35" s="67" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -23921,10 +23922,10 @@
         <v>1727</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="G36" s="67" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -23947,10 +23948,10 @@
         <v>1728</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -23973,10 +23974,10 @@
         <v>1729</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="G38" s="67" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -23999,10 +24000,10 @@
         <v>1730</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>2044</v>
-      </c>
-      <c r="G39" s="67" t="s">
-        <v>2045</v>
+        <v>2041</v>
+      </c>
+      <c r="G39" s="71" t="s">
+        <v>2042</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -24025,10 +24026,10 @@
         <v>1731</v>
       </c>
       <c r="F40" s="67" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="G40" s="67" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -24038,23 +24039,23 @@
     </row>
     <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>1761</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>1763</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>1762</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -24069,18 +24070,18 @@
       <c r="B42" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>1764</v>
+      <c r="C42" s="32" t="s">
+        <v>1763</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>1732</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>1765</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>1766</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -24103,13 +24104,13 @@
         <v>1733</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>1743</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="61" t="s">
         <v>1744</v>
-      </c>
-      <c r="H43" s="61" t="s">
-        <v>1745</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -24131,10 +24132,10 @@
         <v>1734</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G44" s="68" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -24184,13 +24185,13 @@
         <v>1660</v>
       </c>
       <c r="E47" s="68" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="G47" s="68" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -24208,13 +24209,13 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="68" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="F48" s="68" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G48" s="68" t="s">
         <v>2048</v>
-      </c>
-      <c r="G48" s="68" t="s">
-        <v>2051</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -24232,13 +24233,13 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="68" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -24256,13 +24257,13 @@
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="68" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="G50" s="68" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -24280,13 +24281,13 @@
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="68" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F51" s="68" t="s">
         <v>2058</v>
       </c>
-      <c r="F51" s="68" t="s">
-        <v>2061</v>
-      </c>
       <c r="G51" s="68" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -24304,13 +24305,13 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="68" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F52" s="68" t="s">
         <v>2059</v>
       </c>
-      <c r="F52" s="68" t="s">
-        <v>2062</v>
-      </c>
       <c r="G52" s="68" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -24345,10 +24346,10 @@
         <v>1736</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="G54" s="68" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -4054,9 +4054,6 @@
     <t>Str</t>
   </si>
   <si>
-    <t xml:space="preserve"> pra - yavena</t>
-  </si>
-  <si>
     <t>pra - vanam</t>
   </si>
   <si>
@@ -6437,18 +6434,27 @@
   <si>
     <t>samuvusamuyantuyantUsa(gm)samuyantu</t>
   </si>
+  <si>
+    <t>pra - yavena</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6708,114 +6714,115 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -8241,7 +8248,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="70" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -8298,7 +8305,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -8507,7 +8514,7 @@
         <v>27</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
@@ -8864,7 +8871,7 @@
         <v>18</v>
       </c>
       <c r="C99" s="70" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -9357,7 +9364,7 @@
         <v>12</v>
       </c>
       <c r="C125" s="70" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
@@ -9657,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>850</v>
@@ -9999,7 +10006,7 @@
         <v>17</v>
       </c>
       <c r="C159" s="70" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
@@ -12695,7 +12702,7 @@
         <v>1139</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -12718,7 +12725,7 @@
         <v>1139</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -12768,10 +12775,10 @@
         <v>1139</v>
       </c>
       <c r="L9" s="4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>1454</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -12794,10 +12801,10 @@
         <v>1139</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -12820,10 +12827,10 @@
         <v>1139</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>1096</v>
@@ -13051,10 +13058,10 @@
         <v>1167</v>
       </c>
       <c r="N20" s="53" t="s">
+        <v>1593</v>
+      </c>
+      <c r="Q20" s="53" t="s">
         <v>1594</v>
-      </c>
-      <c r="Q20" s="53" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13133,13 +13140,13 @@
         <v>369</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>1457</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>1458</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>1459</v>
       </c>
       <c r="K25" s="32" t="s">
         <v>1139</v>
@@ -13173,7 +13180,7 @@
         <v>374</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="K27" s="32" t="s">
         <v>1139</v>
@@ -13190,7 +13197,7 @@
         <v>375</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>1139</v>
@@ -13210,7 +13217,7 @@
         <v>882</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>1139</v>
@@ -13230,7 +13237,7 @@
         <v>1019</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>1139</v>
@@ -13325,7 +13332,7 @@
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>387</v>
@@ -13405,7 +13412,7 @@
         <v>269</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>1205</v>
@@ -13428,7 +13435,7 @@
         <v>388</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="L41" s="51"/>
     </row>
@@ -13521,7 +13528,7 @@
     </row>
     <row r="7" spans="1:24" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>345</v>
@@ -13538,7 +13545,7 @@
     </row>
     <row r="8" spans="1:24" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>345</v>
@@ -13555,7 +13562,7 @@
     </row>
     <row r="9" spans="1:24" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>345</v>
@@ -13604,28 +13611,28 @@
         <v>1139</v>
       </c>
       <c r="M11" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>1629</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>1630</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>1631</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="V11" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>1632</v>
       </c>
-      <c r="V11" s="4" t="s">
-        <v>1635</v>
-      </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>1633</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13656,7 +13663,7 @@
         <v>359</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="K13" s="32" t="s">
         <v>1139</v>
@@ -13665,10 +13672,10 @@
         <v>1001</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>2012</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13762,16 +13769,16 @@
         <v>1142</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>1211</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>1614</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>1615</v>
       </c>
       <c r="P22" s="32" t="s">
         <v>1139</v>
@@ -13782,16 +13789,16 @@
         <v>1170</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>1616</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>1618</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>1617</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>1619</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>1139</v>
@@ -13802,13 +13809,13 @@
         <v>1175</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>1605</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>1606</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>1607</v>
       </c>
       <c r="P24" s="32" t="s">
         <v>1139</v>
@@ -13819,13 +13826,13 @@
         <v>1171</v>
       </c>
       <c r="J25" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>1601</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>1602</v>
       </c>
       <c r="P25" s="32" t="s">
         <v>1139</v>
@@ -13839,10 +13846,10 @@
         <v>828</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>1603</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>1604</v>
       </c>
       <c r="P26" s="32" t="s">
         <v>1139</v>
@@ -13850,16 +13857,16 @@
     </row>
     <row r="27" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="I27" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>1623</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>1625</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>1626</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>1624</v>
       </c>
       <c r="P27" s="32" t="s">
         <v>1139</v>
@@ -13870,13 +13877,13 @@
         <v>1173</v>
       </c>
       <c r="J28" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>1608</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>1613</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>1609</v>
       </c>
       <c r="P28" s="32" t="s">
         <v>1139</v>
@@ -13887,13 +13894,13 @@
         <v>1172</v>
       </c>
       <c r="J29" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>1610</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>1611</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>1612</v>
       </c>
       <c r="P29" s="32" t="s">
         <v>1139</v>
@@ -13901,16 +13908,16 @@
     </row>
     <row r="30" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="I30" s="39" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="J30" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>1794</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>1795</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>1796</v>
       </c>
       <c r="P30" s="32" t="s">
         <v>1139</v>
@@ -13918,16 +13925,16 @@
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="I31" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>1620</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>1605</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>1621</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>1622</v>
       </c>
       <c r="P31" s="32" t="s">
         <v>1139</v>
@@ -13995,7 +14002,7 @@
         <v>359</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="K35" s="32" t="s">
         <v>1139</v>
@@ -14098,7 +14105,7 @@
         <v>359</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="K40" s="32" t="s">
         <v>1139</v>
@@ -14224,7 +14231,7 @@
         <v>359</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="K46" s="32" t="s">
         <v>1139</v>
@@ -14260,7 +14267,7 @@
         <v>1176</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="K48" s="32" t="s">
         <v>1139</v>
@@ -14406,7 +14413,7 @@
         <v>1214</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14455,7 +14462,7 @@
         <v>1214</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -14641,7 +14648,7 @@
       </c>
       <c r="J72" s="34"/>
       <c r="K72" s="34" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14695,10 +14702,10 @@
         <v>1236</v>
       </c>
       <c r="I77" s="34" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J77" s="34" t="s">
         <v>1474</v>
-      </c>
-      <c r="J77" s="34" t="s">
-        <v>1475</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>1237</v>
@@ -14709,7 +14716,7 @@
     </row>
     <row r="78" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C78" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>1239</v>
@@ -14756,7 +14763,7 @@
         <v>427</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>1242</v>
@@ -14949,13 +14956,13 @@
         <v>980</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="L90" s="53" t="s">
         <v>1139</v>
@@ -15003,19 +15010,19 @@
     </row>
     <row r="93" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C93" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>980</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="L93" s="53" t="s">
         <v>1139</v>
@@ -15131,7 +15138,7 @@
         <v>1145</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>943</v>
@@ -15366,7 +15373,7 @@
         <v>1139</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
@@ -15461,13 +15468,13 @@
         <v>1143</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="L113" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="114" spans="3:13" ht="18" x14ac:dyDescent="0.25">
@@ -15478,13 +15485,13 @@
         <v>1144</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="L114" s="32" t="s">
         <v>1149</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
   </sheetData>
@@ -15497,8 +15504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15558,7 +15565,7 @@
         <v>1207</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>1139</v>
@@ -15567,7 +15574,7 @@
         <v>1208</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
@@ -15612,12 +15619,12 @@
         <v>902</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15640,12 +15647,12 @@
         <v>903</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="4" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15668,12 +15675,12 @@
         <v>904</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
       <c r="P11" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15702,12 +15709,12 @@
         <v>907</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15730,17 +15737,17 @@
         <v>908</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
       <c r="P13" s="4" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>269</v>
@@ -15758,12 +15765,12 @@
         <v>1279</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="4" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15777,10 +15784,10 @@
         <v>388</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>1339</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>1340</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>1141</v>
@@ -15823,19 +15830,19 @@
         <v>388</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="L17" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="M17" s="32" t="s">
         <v>1498</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="P17" s="4" t="s">
         <v>1499</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -15856,10 +15863,10 @@
         <v>1139</v>
       </c>
       <c r="M19" s="32" t="s">
+        <v>1500</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>1501</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15911,20 +15918,20 @@
         <v>388</v>
       </c>
       <c r="G23" s="32" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>1341</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>1342</v>
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M23" s="32" t="s">
+        <v>1502</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>1503</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15938,7 +15945,7 @@
         <v>902</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J24" s="51" t="s">
         <v>1141</v>
@@ -15955,19 +15962,19 @@
         <v>388</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>1139</v>
       </c>
       <c r="M25" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>1505</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15978,19 +15985,19 @@
         <v>471</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>1347</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>1348</v>
       </c>
       <c r="J26" s="51" t="s">
         <v>1141</v>
       </c>
       <c r="M26" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>1345</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -16069,8 +16076,8 @@
       <c r="G32" s="39" t="s">
         <v>1215</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>1286</v>
+      <c r="H32" s="72" t="s">
+        <v>2073</v>
       </c>
       <c r="K32" s="51" t="s">
         <v>1141</v>
@@ -16081,10 +16088,10 @@
         <v>25</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="K33" s="51" t="s">
         <v>1141</v>
@@ -16122,7 +16129,7 @@
         <v>952</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="N36" s="32" t="s">
         <v>1139</v>
@@ -16148,7 +16155,7 @@
         <v>1141</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>1139</v>
@@ -16216,10 +16223,10 @@
         <v>485</v>
       </c>
       <c r="G42" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>1289</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>1290</v>
       </c>
       <c r="K42" s="51" t="s">
         <v>1141</v>
@@ -16233,10 +16240,10 @@
         <v>486</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="K43" s="51" t="s">
         <v>1141</v>
@@ -16253,7 +16260,7 @@
         <v>887</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K44" s="51" t="s">
         <v>1141</v>
@@ -16267,10 +16274,10 @@
         <v>488</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K45" s="51" t="s">
         <v>1141</v>
@@ -16284,10 +16291,10 @@
         <v>489</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="K46" s="51" t="s">
         <v>1141</v>
@@ -16301,10 +16308,10 @@
         <v>490</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K47" s="51" t="s">
         <v>1141</v>
@@ -16329,7 +16336,7 @@
         <v>956</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>1154</v>
@@ -16344,10 +16351,10 @@
       </c>
       <c r="E50" s="39"/>
       <c r="G50" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>1154</v>
@@ -16362,10 +16369,10 @@
       </c>
       <c r="E51" s="39"/>
       <c r="G51" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>1303</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>1304</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>1154</v>
@@ -16412,10 +16419,10 @@
       </c>
       <c r="E54" s="39"/>
       <c r="G54" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>1154</v>
@@ -16434,10 +16441,10 @@
       </c>
       <c r="E56" s="39"/>
       <c r="G56" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K56" s="51" t="s">
         <v>1141</v>
@@ -16455,7 +16462,7 @@
         <v>1072</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="K57" s="51" t="s">
         <v>1141</v>
@@ -16467,7 +16474,7 @@
         <v>7.13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>397</v>
@@ -16476,10 +16483,10 @@
         <v>496</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I59" s="61" t="s">
         <v>1508</v>
-      </c>
-      <c r="I59" s="61" t="s">
-        <v>1509</v>
       </c>
       <c r="K59" s="51" t="s">
         <v>1141</v>
@@ -16505,7 +16512,7 @@
         <v>7.14</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>497</v>
@@ -16541,10 +16548,10 @@
       </c>
       <c r="D65" s="28"/>
       <c r="G65" s="32" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>1139</v>
@@ -16566,13 +16573,13 @@
         <v>269</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16586,10 +16593,10 @@
         <v>269</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>1139</v>
@@ -16606,10 +16613,10 @@
         <v>269</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>1139</v>
@@ -16626,10 +16633,10 @@
         <v>269</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>1139</v>
@@ -16649,7 +16656,7 @@
         <v>1259</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>1139</v>
@@ -16666,10 +16673,10 @@
         <v>269</v>
       </c>
       <c r="G72" s="32" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>1319</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>1320</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>1139</v>
@@ -16761,7 +16768,7 @@
         <v>578</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="83" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16793,10 +16800,10 @@
         <v>583</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16813,27 +16820,27 @@
         <v>583</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>981</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="L86" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="M86" s="4" t="s">
         <v>1353</v>
-      </c>
-      <c r="M86" s="4" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="87" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16856,7 +16863,7 @@
         <v>1139</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="R87" s="4" t="s">
         <v>935</v>
@@ -16885,13 +16892,13 @@
         <v>940</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R88" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="S88" s="4" t="s">
         <v>1358</v>
-      </c>
-      <c r="S88" s="4" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16914,13 +16921,13 @@
         <v>940</v>
       </c>
       <c r="M89" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="R89" s="4" t="s">
         <v>1357</v>
       </c>
-      <c r="R89" s="4" t="s">
+      <c r="S89" s="4" t="s">
         <v>1358</v>
-      </c>
-      <c r="S89" s="4" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16934,19 +16941,19 @@
         <v>798</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="K90" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M90" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="T90" s="4" t="s">
         <v>1360</v>
-      </c>
-      <c r="R90" s="4" t="s">
-        <v>1362</v>
-      </c>
-      <c r="T90" s="4" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="91" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16960,16 +16967,16 @@
         <v>798</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K91" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M91" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="R91" s="4" t="s">
         <v>1364</v>
-      </c>
-      <c r="R91" s="4" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="92" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16989,22 +16996,22 @@
         <v>1139</v>
       </c>
       <c r="L92" s="32" t="s">
+        <v>1365</v>
+      </c>
+      <c r="M92" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="Q92" s="32" t="s">
+        <v>1797</v>
+      </c>
+      <c r="R92" s="58" t="s">
         <v>1367</v>
       </c>
-      <c r="Q92" s="32" t="s">
+      <c r="S92" s="58" t="s">
+        <v>1368</v>
+      </c>
+      <c r="T92" s="4" t="s">
         <v>1798</v>
-      </c>
-      <c r="R92" s="58" t="s">
-        <v>1368</v>
-      </c>
-      <c r="S92" s="58" t="s">
-        <v>1369</v>
-      </c>
-      <c r="T92" s="4" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="93" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17026,7 +17033,7 @@
       </c>
       <c r="L94" s="39"/>
       <c r="M94" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17046,7 +17053,7 @@
         <v>1139</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="96" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17060,13 +17067,13 @@
         <v>798</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K96" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="97" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17080,21 +17087,21 @@
         <v>798</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="K97" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="98" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>590</v>
@@ -17109,7 +17116,7 @@
         <v>1139</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17123,13 +17130,13 @@
         <v>798</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="K99" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="100" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17143,19 +17150,19 @@
         <v>798</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="K100" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="L100" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="P100" s="4" t="s">
         <v>1380</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>1379</v>
-      </c>
-      <c r="P100" s="4" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="101" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17169,7 +17176,7 @@
         <v>798</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>1253</v>
@@ -17178,10 +17185,10 @@
         <v>1139</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="S101" s="59" t="s">
         <v>914</v>
@@ -17189,7 +17196,7 @@
     </row>
     <row r="102" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>598</v>
@@ -17207,26 +17214,26 @@
         <v>1139</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="M102" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="O102" s="4" t="s">
         <v>1384</v>
       </c>
-      <c r="O102" s="4" t="s">
+      <c r="P102" s="4" t="s">
         <v>1385</v>
       </c>
-      <c r="P102" s="4" t="s">
+      <c r="R102" s="32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="S102" s="32" t="s">
         <v>1386</v>
-      </c>
-      <c r="R102" s="32" t="s">
-        <v>1388</v>
-      </c>
-      <c r="S102" s="32" t="s">
-        <v>1387</v>
       </c>
       <c r="T102" s="32"/>
       <c r="U102" s="32" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="103" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17246,7 +17253,7 @@
         <v>1139</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="104" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17260,30 +17267,30 @@
         <v>798</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="K104" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="105" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="J105" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>1393</v>
       </c>
-      <c r="K105" s="4" t="s">
-        <v>1394</v>
-      </c>
       <c r="L105" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="106" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17312,7 +17319,7 @@
         <v>1139</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17341,7 +17348,7 @@
         <v>1139</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="108" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17349,7 +17356,7 @@
         <v>878</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>269</v>
@@ -17364,7 +17371,7 @@
         <v>1139</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="109" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17390,7 +17397,7 @@
         <v>1139</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="110" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17416,7 +17423,7 @@
         <v>1139</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17439,7 +17446,7 @@
         <v>1139</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="112" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17486,7 +17493,7 @@
         <v>1139</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17512,7 +17519,7 @@
         <v>1139</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17523,7 +17530,7 @@
         <v>888</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>269</v>
@@ -17538,7 +17545,7 @@
         <v>890</v>
       </c>
       <c r="I115" s="59" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J115" s="59" t="s">
         <v>892</v>
@@ -17550,7 +17557,7 @@
         <v>887</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="N115" s="4" t="s">
         <v>450</v>
@@ -17559,7 +17566,7 @@
         <v>922</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17582,7 +17589,7 @@
         <v>1139</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17605,7 +17612,7 @@
         <v>1139</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17634,7 +17641,7 @@
         <v>1139</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17657,12 +17664,12 @@
         <v>1139</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C120" s="39" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>269</v>
@@ -17677,7 +17684,7 @@
         <v>1139</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17694,7 +17701,7 @@
         <v>798</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>898</v>
@@ -17732,7 +17739,7 @@
         <v>1139</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17741,7 +17748,7 @@
         <v>9.23</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>269</v>
@@ -17750,19 +17757,19 @@
         <v>613</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="J124" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="L124" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="M124" s="4" t="s">
         <v>1416</v>
-      </c>
-      <c r="M124" s="4" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17776,13 +17783,13 @@
         <v>613</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="J125" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17796,7 +17803,7 @@
         <v>613</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>1076</v>
@@ -17805,7 +17812,7 @@
         <v>1139</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17819,13 +17826,13 @@
         <v>613</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="J127" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17845,7 +17852,7 @@
         <v>1139</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="129" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17859,13 +17866,13 @@
         <v>613</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="J129" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="130" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17879,7 +17886,7 @@
         <v>613</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>1058</v>
@@ -17888,10 +17895,10 @@
         <v>1139</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="131" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17915,7 +17922,7 @@
         <v>1139</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="133" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17935,7 +17942,7 @@
         <v>1139</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="134" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17953,10 +17960,10 @@
         <v>388</v>
       </c>
       <c r="H135" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="L135" s="4" t="s">
         <v>1430</v>
-      </c>
-      <c r="L135" s="4" t="s">
-        <v>1431</v>
       </c>
       <c r="M135" s="4" t="s">
         <v>777</v>
@@ -17970,10 +17977,10 @@
         <v>388</v>
       </c>
       <c r="H136" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="L136" s="4" t="s">
         <v>1432</v>
-      </c>
-      <c r="L136" s="4" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="137" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17984,10 +17991,10 @@
         <v>388</v>
       </c>
       <c r="H137" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L137" s="4" t="s">
         <v>1434</v>
-      </c>
-      <c r="L137" s="4" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17998,10 +18005,10 @@
         <v>388</v>
       </c>
       <c r="H138" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="L138" s="4" t="s">
         <v>1436</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18018,10 +18025,10 @@
         <v>1139</v>
       </c>
       <c r="K139" s="51" t="s">
+        <v>1437</v>
+      </c>
+      <c r="L139" s="4" t="s">
         <v>1438</v>
-      </c>
-      <c r="L139" s="4" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18029,10 +18036,10 @@
         <v>842</v>
       </c>
       <c r="K140" s="51" t="s">
+        <v>1439</v>
+      </c>
+      <c r="L140" s="4" t="s">
         <v>1440</v>
-      </c>
-      <c r="L140" s="4" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18040,10 +18047,10 @@
         <v>843</v>
       </c>
       <c r="K141" s="51" t="s">
+        <v>1441</v>
+      </c>
+      <c r="L141" s="4" t="s">
         <v>1442</v>
-      </c>
-      <c r="L141" s="4" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18051,18 +18058,18 @@
         <v>844</v>
       </c>
       <c r="K142" s="51" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G143" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K143" s="51" t="s">
         <v>1445</v>
-      </c>
-      <c r="K143" s="51" t="s">
-        <v>1446</v>
       </c>
       <c r="L143" s="4" t="s">
         <v>668</v>
@@ -18070,18 +18077,18 @@
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G144" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K144" s="51" t="s">
         <v>1447</v>
       </c>
-      <c r="K144" s="51" t="s">
+      <c r="L144" s="4" t="s">
         <v>1448</v>
-      </c>
-      <c r="L144" s="4" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="145" spans="7:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G145" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="K145" s="51"/>
     </row>
@@ -18317,28 +18324,28 @@
         <v>352</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>508</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="L6" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>508</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18347,22 +18354,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>1809</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>1808</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>1810</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>1811</v>
       </c>
       <c r="L7" s="32" t="s">
         <v>1139</v>
@@ -18386,10 +18393,10 @@
         <v>465</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>1812</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>1813</v>
       </c>
       <c r="L8" s="32" t="s">
         <v>1139</v>
@@ -18407,34 +18414,34 @@
         <v>352</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>509</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>1815</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>1816</v>
       </c>
       <c r="L9" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>1816</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>1817</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>1818</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>509</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>1819</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18443,7 +18450,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>352</v>
@@ -18452,22 +18459,22 @@
         <v>82</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="L10" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="N10" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>1822</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18488,10 +18495,10 @@
         <v>512</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>1825</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>1826</v>
       </c>
       <c r="L11" s="32" t="s">
         <v>1139</v>
@@ -18509,16 +18516,16 @@
         <v>352</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>513</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>1827</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>1828</v>
       </c>
       <c r="L12" s="32" t="s">
         <v>1139</v>
@@ -18545,40 +18552,40 @@
         <v>742</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="L13" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>510</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>1835</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>1836</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>1837</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>1838</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>923</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>925</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18596,25 +18603,25 @@
         <v>1165</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="L14" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>514</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18647,7 +18654,7 @@
         <v>352</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="L16" s="32" t="s">
         <v>1139</v>
@@ -18665,7 +18672,7 @@
         <v>352</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>355</v>
@@ -18674,7 +18681,7 @@
         <v>742</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="L17" s="32" t="s">
         <v>1139</v>
@@ -18698,10 +18705,10 @@
         <v>515</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>1843</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>1844</v>
       </c>
       <c r="L18" s="32" t="s">
         <v>1139</v>
@@ -18719,16 +18726,16 @@
         <v>352</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>516</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>1845</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>1846</v>
       </c>
       <c r="L19" s="32" t="s">
         <v>1139</v>
@@ -18740,28 +18747,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>1847</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>1848</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>1849</v>
       </c>
       <c r="L20" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="21" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18776,7 +18783,7 @@
         <v>352</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>518</v>
@@ -18785,7 +18792,7 @@
         <v>529</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>1139</v>
@@ -18803,31 +18810,31 @@
         <v>352</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>519</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="L22" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>519</v>
       </c>
       <c r="O22" s="4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>1859</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="23" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18848,10 +18855,10 @@
         <v>520</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>1861</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>1862</v>
       </c>
       <c r="L23" s="32" t="s">
         <v>1139</v>
@@ -18878,7 +18885,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>352</v>
@@ -18887,13 +18894,13 @@
         <v>1010</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>1864</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>1865</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>1866</v>
       </c>
       <c r="L25" s="32" t="s">
         <v>1139</v>
@@ -18905,7 +18912,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>352</v>
@@ -18914,28 +18921,28 @@
         <v>1027</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>1867</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>1868</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M26" s="4" t="s">
+        <v>1868</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>1863</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>1869</v>
       </c>
-      <c r="N26" s="4" t="s">
-        <v>1864</v>
-      </c>
-      <c r="O26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>1870</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="27" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18950,22 +18957,22 @@
         <v>352</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>523</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>1872</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>1873</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>1874</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="28" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18980,7 +18987,7 @@
         <v>352</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>522</v>
@@ -18989,7 +18996,7 @@
         <v>817</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="L28" s="32" t="s">
         <v>1139</v>
@@ -19007,16 +19014,16 @@
         <v>352</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>526</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>1878</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>1879</v>
       </c>
       <c r="L29" s="32" t="s">
         <v>1139</v>
@@ -19034,16 +19041,16 @@
         <v>352</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>524</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="L30" s="32" t="s">
         <v>1139</v>
@@ -19055,19 +19062,19 @@
         <v>26</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="L31" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.25">
@@ -19082,7 +19089,7 @@
         <v>352</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>525</v>
@@ -19091,22 +19098,22 @@
         <v>1185</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="L32" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>525</v>
       </c>
       <c r="O32" s="4" t="s">
+        <v>1888</v>
+      </c>
+      <c r="P32" s="4" t="s">
         <v>1889</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19118,37 +19125,37 @@
         <v>527</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>1892</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>1893</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>1894</v>
       </c>
       <c r="L34" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M34" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N34" s="4" t="s">
         <v>1519</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>1520</v>
       </c>
-      <c r="O34" s="4" t="s">
-        <v>1521</v>
-      </c>
       <c r="P34" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19160,28 +19167,28 @@
         <v>527</v>
       </c>
       <c r="I35" s="4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>1895</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>1896</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>527</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>527</v>
@@ -19190,13 +19197,13 @@
         <v>735</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="U35" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="V35" s="4" t="s">
         <v>1903</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19210,10 +19217,10 @@
         <v>8.9</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>1522</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>1523</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>352</v>
@@ -19222,13 +19229,13 @@
         <v>1012</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>1904</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>1905</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>1906</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>1907</v>
       </c>
       <c r="L38" s="32" t="s">
         <v>1139</v>
@@ -19236,19 +19243,19 @@
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D39" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>1175</v>
       </c>
       <c r="H39" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>1525</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>1526</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>1527</v>
       </c>
       <c r="L39" s="32" t="s">
         <v>1139</v>
@@ -19263,53 +19270,53 @@
         <v>528</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>1907</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>1909</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>1910</v>
       </c>
       <c r="L41" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>464</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="D42" s="61"/>
       <c r="G42" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>1511</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>1512</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>1513</v>
-      </c>
       <c r="J42" s="4" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="L42" s="32" t="s">
         <v>1139</v>
@@ -19317,22 +19324,22 @@
     </row>
     <row r="43" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C43" s="6" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="M43" s="4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>1514</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>1515</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>286</v>
       </c>
       <c r="P43" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="R43" s="4" t="s">
         <v>1516</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="44" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19340,38 +19347,38 @@
         <v>8.11</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>1531</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>1532</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>1529</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>1530</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>1531</v>
-      </c>
       <c r="J44" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="K44" s="53"/>
       <c r="L44" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="M44" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="N44" s="4" t="s">
         <v>1914</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="45" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19383,7 +19390,7 @@
         <v>529</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>529</v>
@@ -19392,16 +19399,16 @@
         <v>352</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>529</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19422,10 +19429,10 @@
         <v>1055</v>
       </c>
       <c r="J48" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="O48" s="4" t="s">
         <v>1565</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19439,13 +19446,13 @@
         <v>531</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>1567</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="O49" s="4" t="s">
         <v>1568</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19459,13 +19466,13 @@
         <v>531</v>
       </c>
       <c r="I50" s="4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>1570</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>1571</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19483,10 +19490,10 @@
         <v>534</v>
       </c>
       <c r="I52" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>1563</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19500,10 +19507,10 @@
         <v>534</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="J53" s="62" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19518,19 +19525,19 @@
         <v>534</v>
       </c>
       <c r="I55" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>1575</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="O55" s="4" t="s">
         <v>1576</v>
       </c>
-      <c r="O55" s="4" t="s">
+      <c r="Q55" s="4" t="s">
         <v>1577</v>
       </c>
-      <c r="Q55" s="4" t="s">
+      <c r="R55" s="4" t="s">
         <v>1578</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19583,16 +19590,16 @@
         <v>541</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>1253</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="N62" s="4" t="s">
         <v>1535</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19600,16 +19607,16 @@
         <v>405</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G63" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="N63" s="4" t="s">
         <v>1581</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19617,16 +19624,16 @@
         <v>542</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H64" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="N64" s="4" t="s">
         <v>1537</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="65" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19634,16 +19641,16 @@
         <v>543</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G65" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="N65" s="4" t="s">
         <v>1540</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>1539</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19651,16 +19658,16 @@
         <v>544</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>1035</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19668,16 +19675,16 @@
         <v>547</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G67" s="39" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>1560</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>1561</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="68" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19685,16 +19692,16 @@
         <v>545</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>1543</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>1544</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="69" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19702,16 +19709,16 @@
         <v>546</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G69" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>1546</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="N69" s="4" t="s">
         <v>1547</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="70" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19719,16 +19726,16 @@
         <v>548</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>895</v>
       </c>
       <c r="H70" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N70" s="4" t="s">
         <v>1549</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="71" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19736,16 +19743,16 @@
         <v>549</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G71" s="4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>1552</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="N71" s="4" t="s">
         <v>1553</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="72" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19753,16 +19760,16 @@
         <v>550</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G72" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N72" s="4" t="s">
         <v>1556</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>1555</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="73" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19783,19 +19790,19 @@
         <v>415</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="J74" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>907</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="75" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19806,17 +19813,17 @@
         <v>345</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H75" s="56"/>
       <c r="J75" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K75" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="N75" s="4" t="s">
         <v>1586</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="76" spans="1:19" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19827,25 +19834,25 @@
         <v>345</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="J76" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K76" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="N76" s="4" t="s">
         <v>1589</v>
       </c>
-      <c r="N76" s="4" t="s">
-        <v>1590</v>
-      </c>
       <c r="P76" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="Q76" s="4" t="s">
         <v>1042</v>
@@ -19856,22 +19863,22 @@
         <v>8.26</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>345</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="J77" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K77" s="4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="N77" s="4" t="s">
         <v>1592</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
@@ -19900,57 +19907,57 @@
         <v>345</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="J79" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K79" s="4" t="s">
+        <v>1922</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>1923</v>
       </c>
-      <c r="L79" s="4" t="s">
-        <v>1931</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>1924</v>
-      </c>
       <c r="N79" s="4" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="E80" s="6" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H80" s="66"/>
       <c r="I80" s="66"/>
       <c r="J80" s="6"/>
       <c r="K80" s="5" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>738</v>
       </c>
       <c r="M80" s="5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="N80" s="4" t="s">
         <v>1920</v>
       </c>
-      <c r="N80" s="4" t="s">
-        <v>1921</v>
-      </c>
       <c r="O80" s="5" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>1017</v>
@@ -19959,10 +19966,10 @@
         <v>355</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -19973,22 +19980,22 @@
         <v>345</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="J81" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K81" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L81" s="4" t="s">
         <v>1946</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>1947</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>276</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -19999,28 +20006,28 @@
         <v>345</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="J82" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="L82" s="4" t="s">
+        <v>1926</v>
+      </c>
+      <c r="M82" s="4" t="s">
         <v>1927</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>1928</v>
-      </c>
       <c r="N82" s="4" t="s">
+        <v>1933</v>
+      </c>
+      <c r="O82" s="4" t="s">
         <v>1934</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>1935</v>
       </c>
       <c r="P82" s="4" t="s">
         <v>556</v>
@@ -20028,76 +20035,76 @@
     </row>
     <row r="83" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="E83" s="4" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>345</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J83" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K83" s="4" t="s">
+        <v>1929</v>
+      </c>
+      <c r="L83" s="4" t="s">
         <v>1930</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="M83" s="4" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N83" s="4" t="s">
         <v>1931</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>1929</v>
-      </c>
-      <c r="N83" s="4" t="s">
-        <v>1932</v>
       </c>
       <c r="O83" s="4" t="s">
         <v>1161</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="E84" s="6" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="66"/>
       <c r="J84" s="4"/>
       <c r="K84" s="5" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L84" s="5" t="s">
         <v>1939</v>
       </c>
-      <c r="L84" s="5" t="s">
+      <c r="M84" s="5" t="s">
         <v>1940</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>1941</v>
       </c>
       <c r="N84" s="4"/>
     </row>
     <row r="85" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="E85" s="6" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>1943</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>1532</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>1944</v>
-      </c>
       <c r="H85" s="6" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="I85" s="66"/>
       <c r="J85" s="4"/>
@@ -20108,7 +20115,7 @@
     </row>
     <row r="86" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="E86" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>345</v>
@@ -20127,36 +20134,36 @@
         <v>544</v>
       </c>
       <c r="M86" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="N86" s="4" t="s">
         <v>1949</v>
-      </c>
-      <c r="N86" s="4" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E87" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>345</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="J87" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>292</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20185,7 +20192,7 @@
         <v>470</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20202,16 +20209,16 @@
         <v>1139</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>558</v>
       </c>
       <c r="M89" s="4" t="s">
+        <v>1962</v>
+      </c>
+      <c r="N89" s="4" t="s">
         <v>1963</v>
-      </c>
-      <c r="N89" s="4" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -20232,10 +20239,10 @@
         <v>1011</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="J91" s="32" t="s">
         <v>1139</v>
@@ -20247,10 +20254,10 @@
         <v>560</v>
       </c>
       <c r="M91" s="4" t="s">
+        <v>1964</v>
+      </c>
+      <c r="N91" s="4" t="s">
         <v>1965</v>
-      </c>
-      <c r="N91" s="4" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20267,22 +20274,22 @@
         <v>345</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="J92" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>292</v>
       </c>
       <c r="M92" s="4" t="s">
+        <v>1969</v>
+      </c>
+      <c r="N92" s="4" t="s">
         <v>1970</v>
-      </c>
-      <c r="N92" s="4" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20299,22 +20306,22 @@
         <v>359</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="J93" s="32" t="s">
         <v>1139</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>563</v>
       </c>
       <c r="M93" s="4" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N93" s="4" t="s">
         <v>1973</v>
-      </c>
-      <c r="N93" s="4" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -20338,10 +20345,10 @@
         <v>990</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="98" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20352,10 +20359,10 @@
         <v>866</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>528</v>
@@ -20364,7 +20371,7 @@
         <v>273</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20375,42 +20382,42 @@
         <v>866</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>565</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>866</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="L100" s="4" t="s">
+        <v>1981</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>1981</v>
+      </c>
+      <c r="N100" s="4" t="s">
         <v>1982</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>1982</v>
-      </c>
-      <c r="N100" s="4" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="101" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20421,10 +20428,10 @@
         <v>866</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>515</v>
@@ -20433,7 +20440,7 @@
         <v>470</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20458,13 +20465,13 @@
         <v>8.34</v>
       </c>
       <c r="E105" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>1986</v>
       </c>
-      <c r="G105" s="4" t="s">
-        <v>1987</v>
-      </c>
       <c r="K105" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>557</v>
@@ -20473,10 +20480,10 @@
         <v>470</v>
       </c>
       <c r="N105" s="4" t="s">
+        <v>1987</v>
+      </c>
+      <c r="O105" s="4" t="s">
         <v>1988</v>
-      </c>
-      <c r="O105" s="4" t="s">
-        <v>1989</v>
       </c>
     </row>
     <row r="106" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20484,13 +20491,13 @@
         <v>273</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>560</v>
@@ -20499,7 +20506,7 @@
         <v>273</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="107" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20510,33 +20517,33 @@
         <v>405</v>
       </c>
       <c r="H107" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>1993</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>1994</v>
       </c>
       <c r="L107" s="4" t="s">
         <v>405</v>
       </c>
       <c r="M107" s="4" t="s">
+        <v>1994</v>
+      </c>
+      <c r="O107" s="4" t="s">
         <v>1995</v>
-      </c>
-      <c r="O107" s="4" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="108" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="K108" s="4" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="L108" s="4" t="s">
         <v>405</v>
       </c>
       <c r="M108" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="O108" s="4" t="s">
         <v>1997</v>
-      </c>
-      <c r="O108" s="4" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20556,13 +20563,13 @@
         <v>569</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>1155</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="110" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22424,7 +22431,7 @@
     </row>
     <row r="168" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D168" s="69" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -23009,7 +23016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -23025,26 +23032,26 @@
   <sheetData>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B2" s="63" t="s">
         <v>801</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D2" s="63"/>
       <c r="E2" s="63" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="F2" s="64" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G2" s="64" t="s">
         <v>1737</v>
       </c>
-      <c r="G2" s="64" t="s">
-        <v>1738</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -23067,23 +23074,23 @@
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -23093,23 +23100,23 @@
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>1769</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1770</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -23125,20 +23132,20 @@
         <v>567</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>1750</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>1751</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -23153,20 +23160,20 @@
         <v>567</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>2010</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>2008</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2009</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>2011</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -23181,19 +23188,19 @@
         <v>567</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>1773</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1705</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>1775</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>1774</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -23209,19 +23216,19 @@
         <v>567</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>1739</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>1740</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -23231,23 +23238,23 @@
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>1778</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>1779</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -23257,23 +23264,23 @@
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="67" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -23283,23 +23290,23 @@
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>1782</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>1783</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>1784</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -23309,23 +23316,23 @@
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>1786</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>1787</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -23335,23 +23342,23 @@
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -23361,23 +23368,23 @@
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>1753</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>1755</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>1754</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -23387,25 +23394,25 @@
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F16" s="67" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G16" s="67" t="s">
         <v>2016</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>2017</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -23421,17 +23428,17 @@
         <v>567</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="67" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F17" s="67" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G17" s="67" t="s">
         <v>2018</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>2019</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -23441,23 +23448,23 @@
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F18" s="67" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G18" s="67" t="s">
         <v>2020</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>2021</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -23473,17 +23480,17 @@
         <v>567</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -23493,23 +23500,23 @@
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F20" s="71" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G20" s="67" t="s">
         <v>2022</v>
-      </c>
-      <c r="G20" s="67" t="s">
-        <v>2023</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -23519,23 +23526,23 @@
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>1767</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>1768</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -23545,23 +23552,23 @@
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -23577,17 +23584,17 @@
         <v>567</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F23" s="67" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G23" s="67" t="s">
         <v>2024</v>
-      </c>
-      <c r="G23" s="67" t="s">
-        <v>2025</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -23597,25 +23604,25 @@
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F24" s="67" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G24" s="67" t="s">
         <v>2026</v>
-      </c>
-      <c r="G24" s="67" t="s">
-        <v>2027</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -23625,28 +23632,28 @@
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C25" s="32" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>1659</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>1660</v>
-      </c>
       <c r="E25" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>1790</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="H25" s="67" t="s">
         <v>2028</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>1791</v>
-      </c>
-      <c r="H25" s="67" t="s">
-        <v>2029</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -23655,23 +23662,23 @@
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="67" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="G26" s="67" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -23687,19 +23694,19 @@
         <v>567</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="G27" s="71" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -23709,26 +23716,26 @@
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F28" s="53" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>2001</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>2002</v>
-      </c>
       <c r="H28" s="32" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -23737,25 +23744,25 @@
     </row>
     <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -23765,23 +23772,23 @@
     </row>
     <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="G30" s="71" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -23791,23 +23798,23 @@
     </row>
     <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="G31" s="67" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -23817,17 +23824,17 @@
     </row>
     <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -23839,17 +23846,17 @@
     </row>
     <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -23861,17 +23868,17 @@
     </row>
     <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -23889,17 +23896,17 @@
         <v>567</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="67" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F35" s="67" t="s">
         <v>2033</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="G35" s="67" t="s">
         <v>2034</v>
-      </c>
-      <c r="G35" s="67" t="s">
-        <v>2035</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -23909,23 +23916,23 @@
     </row>
     <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F36" s="67" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G36" s="67" t="s">
         <v>2036</v>
-      </c>
-      <c r="G36" s="67" t="s">
-        <v>2037</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -23935,23 +23942,23 @@
     </row>
     <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -23961,23 +23968,23 @@
     </row>
     <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F38" s="67" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G38" s="67" t="s">
         <v>2039</v>
-      </c>
-      <c r="G38" s="67" t="s">
-        <v>2040</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -23993,17 +24000,17 @@
         <v>567</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F39" s="67" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G39" s="71" t="s">
         <v>2041</v>
-      </c>
-      <c r="G39" s="71" t="s">
-        <v>2042</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -24013,23 +24020,23 @@
     </row>
     <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="F40" s="67" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="G40" s="67" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -24039,23 +24046,23 @@
     </row>
     <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>1760</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>1762</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>1761</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -24065,23 +24072,23 @@
     </row>
     <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>1764</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>1765</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -24097,20 +24104,20 @@
         <v>567</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>1742</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="61" t="s">
         <v>1743</v>
-      </c>
-      <c r="H43" s="61" t="s">
-        <v>1744</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -24119,23 +24126,23 @@
     </row>
     <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="G44" s="68" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -24173,25 +24180,25 @@
     </row>
     <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E47" s="68" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F47" s="68" t="s">
         <v>2044</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="G47" s="68" t="s">
         <v>2045</v>
-      </c>
-      <c r="G47" s="68" t="s">
-        <v>2046</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -24201,21 +24208,21 @@
     </row>
     <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="68" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F48" s="68" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G48" s="68" t="s">
         <v>2047</v>
-      </c>
-      <c r="F48" s="68" t="s">
-        <v>2045</v>
-      </c>
-      <c r="G48" s="68" t="s">
-        <v>2048</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -24225,21 +24232,21 @@
     </row>
     <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="68" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F49" s="68" t="s">
         <v>2049</v>
       </c>
-      <c r="F49" s="68" t="s">
+      <c r="G49" s="68" t="s">
         <v>2050</v>
-      </c>
-      <c r="G49" s="68" t="s">
-        <v>2051</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -24249,21 +24256,21 @@
     </row>
     <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="68" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F50" s="68" t="s">
         <v>2052</v>
       </c>
-      <c r="F50" s="68" t="s">
+      <c r="G50" s="68" t="s">
         <v>2053</v>
-      </c>
-      <c r="G50" s="68" t="s">
-        <v>2054</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -24273,21 +24280,21 @@
     </row>
     <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="68" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -24297,21 +24304,21 @@
     </row>
     <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="68" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F52" s="68" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G52" s="68" t="s">
         <v>2059</v>
-      </c>
-      <c r="G52" s="68" t="s">
-        <v>2060</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -24335,21 +24342,21 @@
     </row>
     <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G54" s="68" t="s">
         <v>2061</v>
-      </c>
-      <c r="G54" s="68" t="s">
-        <v>2062</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -6442,13 +6442,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6716,114 +6722,114 @@
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15504,7 +15510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -23016,7 +23022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -18257,11 +18257,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23022,7 +23022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -7112,7 +7112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
@@ -12640,7 +12640,7 @@
   <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
@@ -13461,10 +13461,10 @@
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15510,7 +15510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -18257,11 +18257,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20623,11 +20623,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22406,7 +22406,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D162" s="4" t="s">
+      <c r="D162" s="32" t="s">
         <v>771</v>
       </c>
     </row>
@@ -22431,7 +22431,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="32" t="s">
         <v>767</v>
       </c>
     </row>
@@ -23022,7 +23022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -13461,7 +13461,7 @@
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
@@ -18258,7 +18258,7 @@
   <dimension ref="A2:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
@@ -20624,7 +20624,7 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D167" sqref="D167"/>
@@ -23022,7 +23022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -7112,8 +7112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13461,7 +13461,7 @@
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
@@ -15510,7 +15510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -20623,8 +20623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D167" sqref="D167"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -7112,7 +7112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
@@ -20623,11 +20623,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D167" sqref="D167"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -20623,8 +20623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
@@ -23022,8 +23022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -20623,11 +20623,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23022,7 +23022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -15510,7 +15510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -20623,7 +20623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -15510,8 +15510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20624,10 +20624,10 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D129" sqref="D129"/>
+      <selection pane="bottomRight" activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22426,7 +22426,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="32" t="s">
         <v>772</v>
       </c>
     </row>
@@ -22534,7 +22534,7 @@
       </c>
     </row>
     <row r="188" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E188" s="4" t="s">
+      <c r="E188" s="32" t="s">
         <v>788</v>
       </c>
     </row>
@@ -22544,12 +22544,12 @@
       </c>
     </row>
     <row r="190" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E190" s="4" t="s">
+      <c r="E190" s="32" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="191" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E191" s="4" t="s">
+      <c r="E191" s="32" t="s">
         <v>796</v>
       </c>
     </row>
@@ -23022,8 +23022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -23023,7 +23023,7 @@
   <dimension ref="A2:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -23022,8 +23022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -6258,9 +6258,6 @@
     <t>idamuvuvidamidamu no na uvidamidamu naH</t>
   </si>
   <si>
-    <t>vyuvuvivyu tritastrita uvivyua tritaH</t>
-  </si>
-  <si>
     <t>tamU tam tamu</t>
   </si>
   <si>
@@ -6436,19 +6433,28 @@
   </si>
   <si>
     <t>pra - yavena</t>
+  </si>
+  <si>
+    <t>vyuvuvivyu tritastrita uvivyu tritaH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6720,116 +6726,119 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8254,7 +8263,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="70" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -8311,7 +8320,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -8520,7 +8529,7 @@
         <v>27</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
@@ -8877,7 +8886,7 @@
         <v>18</v>
       </c>
       <c r="C99" s="70" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -9370,7 +9379,7 @@
         <v>12</v>
       </c>
       <c r="C125" s="70" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
@@ -9670,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>850</v>
@@ -10012,7 +10021,7 @@
         <v>17</v>
       </c>
       <c r="C159" s="70" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
@@ -16083,7 +16092,7 @@
         <v>1215</v>
       </c>
       <c r="H32" s="72" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="K32" s="51" t="s">
         <v>1141</v>
@@ -22437,7 +22446,7 @@
     </row>
     <row r="168" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D168" s="69" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -23022,8 +23031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23092,10 +23101,10 @@
       <c r="E4" s="4" t="s">
         <v>1701</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="73" t="s">
         <v>1775</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="73" t="s">
         <v>2013</v>
       </c>
       <c r="H4" s="4"/>
@@ -23259,7 +23268,7 @@
       <c r="F10" s="4" t="s">
         <v>1777</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="73" t="s">
         <v>1778</v>
       </c>
       <c r="H10" s="4"/>
@@ -23285,8 +23294,8 @@
       <c r="F11" s="4" t="s">
         <v>1780</v>
       </c>
-      <c r="G11" s="67" t="s">
-        <v>2014</v>
+      <c r="G11" s="74" t="s">
+        <v>2073</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -23353,7 +23362,7 @@
       <c r="B14" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="74" t="s">
         <v>1645</v>
       </c>
       <c r="D14" s="4"/>
@@ -23364,7 +23373,7 @@
         <v>1740</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -23386,10 +23395,10 @@
       <c r="E15" s="4" t="s">
         <v>1752</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="74" t="s">
         <v>1754</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="74" t="s">
         <v>1753</v>
       </c>
       <c r="H15" s="4"/>
@@ -23415,10 +23424,10 @@
         <v>1710</v>
       </c>
       <c r="F16" s="67" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G16" s="67" t="s">
         <v>2015</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>2016</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -23441,10 +23450,10 @@
         <v>1711</v>
       </c>
       <c r="F17" s="67" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G17" s="67" t="s">
         <v>2017</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>2018</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -23467,10 +23476,10 @@
         <v>1712</v>
       </c>
       <c r="F18" s="67" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G18" s="67" t="s">
         <v>2019</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>2020</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -23518,11 +23527,11 @@
       <c r="E20" s="4" t="s">
         <v>1714</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="74" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G20" s="74" t="s">
         <v>2021</v>
-      </c>
-      <c r="G20" s="67" t="s">
-        <v>2022</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -23547,7 +23556,7 @@
       <c r="F21" s="4" t="s">
         <v>1766</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="74" t="s">
         <v>1767</v>
       </c>
       <c r="H21" s="4"/>
@@ -23597,10 +23606,10 @@
         <v>1717</v>
       </c>
       <c r="F23" s="67" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G23" s="67" t="s">
         <v>2023</v>
-      </c>
-      <c r="G23" s="67" t="s">
-        <v>2024</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -23625,10 +23634,10 @@
         <v>1718</v>
       </c>
       <c r="F24" s="67" t="s">
+        <v>2024</v>
+      </c>
+      <c r="G24" s="67" t="s">
         <v>2025</v>
-      </c>
-      <c r="G24" s="67" t="s">
-        <v>2026</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -23653,13 +23662,13 @@
         <v>1789</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>1790</v>
       </c>
       <c r="H25" s="67" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -23684,7 +23693,7 @@
         <v>1774</v>
       </c>
       <c r="G26" s="67" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -23699,7 +23708,7 @@
       <c r="B27" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="74" t="s">
         <v>1662</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -23711,8 +23720,8 @@
       <c r="F27" s="4" t="s">
         <v>1774</v>
       </c>
-      <c r="G27" s="71" t="s">
-        <v>2071</v>
+      <c r="G27" s="74" t="s">
+        <v>2070</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -23791,10 +23800,10 @@
         <v>1721</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="G30" s="71" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -23820,7 +23829,7 @@
         <v>1766</v>
       </c>
       <c r="G31" s="67" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -23906,13 +23915,13 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="67" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F35" s="67" t="s">
         <v>2032</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="G35" s="67" t="s">
         <v>2033</v>
-      </c>
-      <c r="G35" s="67" t="s">
-        <v>2034</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -23934,11 +23943,11 @@
       <c r="E36" s="4" t="s">
         <v>1726</v>
       </c>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="74" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G36" s="74" t="s">
         <v>2035</v>
-      </c>
-      <c r="G36" s="67" t="s">
-        <v>2036</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -23979,7 +23988,7 @@
       <c r="B38" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="75" t="s">
         <v>1675</v>
       </c>
       <c r="D38" s="4"/>
@@ -23987,10 +23996,10 @@
         <v>1728</v>
       </c>
       <c r="F38" s="67" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G38" s="74" t="s">
         <v>2038</v>
-      </c>
-      <c r="G38" s="67" t="s">
-        <v>2039</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -24013,10 +24022,10 @@
         <v>1729</v>
       </c>
       <c r="F39" s="67" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G39" s="71" t="s">
         <v>2040</v>
-      </c>
-      <c r="G39" s="71" t="s">
-        <v>2041</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -24031,18 +24040,18 @@
       <c r="B40" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="74" t="s">
         <v>1696</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>1730</v>
       </c>
-      <c r="F40" s="67" t="s">
-        <v>2035</v>
+      <c r="F40" s="74" t="s">
+        <v>2034</v>
       </c>
       <c r="G40" s="67" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -24148,7 +24157,7 @@
         <v>1766</v>
       </c>
       <c r="G44" s="68" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -24198,13 +24207,13 @@
         <v>1659</v>
       </c>
       <c r="E47" s="68" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F47" s="68" t="s">
         <v>2043</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="G47" s="68" t="s">
         <v>2044</v>
-      </c>
-      <c r="G47" s="68" t="s">
-        <v>2045</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -24222,13 +24231,13 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="68" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F48" s="68" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G48" s="68" t="s">
         <v>2046</v>
-      </c>
-      <c r="F48" s="68" t="s">
-        <v>2044</v>
-      </c>
-      <c r="G48" s="68" t="s">
-        <v>2047</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -24246,13 +24255,13 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="68" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F49" s="68" t="s">
         <v>2048</v>
       </c>
-      <c r="F49" s="68" t="s">
+      <c r="G49" s="68" t="s">
         <v>2049</v>
-      </c>
-      <c r="G49" s="68" t="s">
-        <v>2050</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -24270,13 +24279,13 @@
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="68" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F50" s="68" t="s">
         <v>2051</v>
       </c>
-      <c r="F50" s="68" t="s">
+      <c r="G50" s="68" t="s">
         <v>2052</v>
-      </c>
-      <c r="G50" s="68" t="s">
-        <v>2053</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -24294,13 +24303,13 @@
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="68" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -24318,13 +24327,13 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="68" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F52" s="68" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G52" s="68" t="s">
         <v>2058</v>
-      </c>
-      <c r="G52" s="68" t="s">
-        <v>2059</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -24359,10 +24368,10 @@
         <v>1735</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G54" s="68" t="s">
         <v>2060</v>
-      </c>
-      <c r="G54" s="68" t="s">
-        <v>2061</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -6442,13 +6442,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6728,117 +6734,117 @@
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20632,8 +20638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C177" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="E188" sqref="E188"/>
@@ -23031,7 +23037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -6442,13 +6442,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6732,119 +6738,120 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -20639,7 +20646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -23038,8 +23045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23160,7 +23167,7 @@
       <c r="E6" s="4" t="s">
         <v>1702</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="77" t="s">
         <v>1748</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -23218,7 +23225,7 @@
       <c r="E8" s="4" t="s">
         <v>1703</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="77" t="s">
         <v>1773</v>
       </c>
       <c r="G8" s="4" t="s">

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -6442,13 +6442,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6740,119 +6746,119 @@
   </cellStyleXfs>
   <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18281,7 +18287,7 @@
   <dimension ref="A2:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
@@ -20646,11 +20652,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C171" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E185" sqref="E185"/>
+      <selection pane="bottomRight" activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22307,10 +22313,10 @@
       <c r="A141" s="29">
         <v>11.15</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="32" t="s">
         <v>747</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="32" t="s">
         <v>402</v>
       </c>
       <c r="G141" s="29" t="s">
@@ -22487,7 +22493,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E174" s="4" t="s">
+      <c r="E174" s="32" t="s">
         <v>774</v>
       </c>
     </row>
@@ -22587,7 +22593,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E194" s="4" t="s">
+      <c r="E194" s="32" t="s">
         <v>792</v>
       </c>
     </row>
@@ -23045,7 +23051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -13489,8 +13489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
@@ -20652,7 +20652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -13489,7 +13489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -20652,11 +20652,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E174" sqref="E174"/>
+      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -13490,7 +13490,7 @@
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
@@ -15539,7 +15539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
@@ -18287,7 +18287,7 @@
   <dimension ref="A2:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
@@ -20653,10 +20653,10 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomRight" activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -20653,7 +20653,7 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="F164" sqref="F164"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -6442,13 +6442,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6744,119 +6750,120 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -12669,7 +12676,7 @@
   <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
@@ -13490,10 +13497,10 @@
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15539,7 +15546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
@@ -18287,10 +18294,10 @@
   <dimension ref="A2:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20588,7 +20595,7 @@
       <c r="C109" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="78" t="s">
         <v>568</v>
       </c>
       <c r="E109" s="4" t="s">
@@ -20653,7 +20660,7 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="F164" sqref="F164"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="2074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="2074">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -12676,7 +12676,7 @@
   <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
@@ -20660,10 +20660,10 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F164" sqref="F164"/>
+      <selection pane="bottomRight" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21604,30 +21604,48 @@
       <c r="E88" s="4" t="s">
         <v>713</v>
       </c>
+      <c r="G88" s="29" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="89" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E89" s="4" t="s">
         <v>708</v>
       </c>
+      <c r="G89" s="29" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="90" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E90" s="4" t="s">
         <v>709</v>
       </c>
+      <c r="G90" s="29" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="91" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E91" s="4" t="s">
         <v>710</v>
       </c>
+      <c r="G91" s="29" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="92" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E92" s="4" t="s">
         <v>711</v>
       </c>
+      <c r="G92" s="29" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="93" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E93" s="4" t="s">
         <v>712</v>
+      </c>
+      <c r="G93" s="29" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="94" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22137,10 +22155,10 @@
       <c r="A129" s="29">
         <v>11.13</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="32" t="s">
         <v>738</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="32" t="s">
         <v>739</v>
       </c>
       <c r="G129" s="29" t="s">
@@ -22482,7 +22500,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="D170" s="4" t="s">
+      <c r="D170" s="32" t="s">
         <v>768</v>
       </c>
     </row>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -13496,8 +13496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
@@ -20659,11 +20659,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -13496,7 +13496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -20659,8 +20659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C56" sqref="C56"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -13496,8 +13496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
@@ -20659,7 +20659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -13497,7 +13497,7 @@
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
@@ -23076,7 +23076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -13496,7 +13496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -18293,7 +18293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -20660,7 +20660,7 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C56" sqref="C56"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -6442,13 +6442,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6752,121 +6758,121 @@
   </cellStyleXfs>
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7149,8 +7155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10560,7 +10566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N218"/>
   <sheetViews>
-    <sheetView topLeftCell="B98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
@@ -20660,7 +20666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -10566,7 +10566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
@@ -13504,7 +13504,7 @@
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
@@ -15553,7 +15553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
@@ -18301,7 +18301,7 @@
   <dimension ref="A2:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
@@ -20666,8 +20666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C168" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="E179" sqref="E179"/>
@@ -23083,7 +23083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -7155,7 +7155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -13504,7 +13504,7 @@
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
@@ -18300,8 +18300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
@@ -20666,11 +20666,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C150" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E179" sqref="E179"/>
+      <selection pane="bottomRight" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21624,7 +21624,7 @@
       </c>
     </row>
     <row r="90" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="32" t="s">
         <v>708</v>
       </c>
       <c r="G90" s="29" t="s">

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -12683,7 +12683,7 @@
   <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
@@ -13504,7 +13504,7 @@
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
@@ -15553,7 +15553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
       <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
@@ -18300,8 +18300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D110" sqref="D110"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5F3515-CA84-44C3-A022-2FA1538ACFF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Special Anuswaram" sheetId="8" r:id="rId8"/>
     <sheet name="Special Test Cases" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6441,7 +6442,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7152,7 +7153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L192"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
@@ -10563,7 +10564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N218"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
@@ -12679,7 +12680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13500,7 +13501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15550,10 +15551,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
@@ -18297,7 +18298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20663,14 +20664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22664,7 +22665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23080,7 +23081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:L63"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5F3515-CA84-44C3-A022-2FA1538ACFF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8D77EF-99B2-44BC-B0B5-B9054F8184DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20668,10 +20668,10 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomRight" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8D77EF-99B2-44BC-B0B5-B9054F8184DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B2BCA9-C598-44DD-9CA5-C4879F29FC6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -6757,7 +6757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6874,6 +6874,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20667,7 +20668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -23084,8 +23085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23183,7 +23184,7 @@
       <c r="F5" s="4" t="s">
         <v>1766</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="80" t="s">
         <v>1767</v>
       </c>
       <c r="H5" s="4"/>
@@ -23199,7 +23200,7 @@
       <c r="B6" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="80" t="s">
         <v>1789</v>
       </c>
       <c r="D6" s="4"/>
@@ -23209,7 +23210,7 @@
       <c r="F6" s="77" t="s">
         <v>1747</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="80" t="s">
         <v>1748</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -23799,7 +23800,7 @@
       <c r="F28" s="53" t="s">
         <v>1998</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="80" t="s">
         <v>1999</v>
       </c>
       <c r="H28" s="32" t="s">

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B2BCA9-C598-44DD-9CA5-C4879F29FC6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC5A10B-CCE7-477B-87E2-18EF2347AA7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6443,13 +6443,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6757,123 +6763,124 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -13506,7 +13513,7 @@
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
@@ -15555,7 +15562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
@@ -23085,8 +23092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23800,7 +23807,7 @@
       <c r="F28" s="53" t="s">
         <v>1998</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="81" t="s">
         <v>1999</v>
       </c>
       <c r="H28" s="32" t="s">

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC5A10B-CCE7-477B-87E2-18EF2347AA7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39448F3E-1007-47EF-B4BC-D82336E7B639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -6443,13 +6443,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6765,123 +6771,123 @@
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7164,7 +7170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -10575,7 +10581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N218"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B151" workbookViewId="0">
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
@@ -12692,7 +12698,7 @@
   <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
@@ -15562,7 +15568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
@@ -20676,7 +20682,7 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="I76" sqref="I76"/>
@@ -23092,7 +23098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+    <sheetView topLeftCell="D13" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39448F3E-1007-47EF-B4BC-D82336E7B639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF92FABE-36B6-4C8B-90C4-003E1EA8F2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF92FABE-36B6-4C8B-90C4-003E1EA8F2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8659026-F31C-423A-B9E1-C67513B537D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8659026-F31C-423A-B9E1-C67513B537D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80B3494-0022-486A-ABAC-C3CCFEF99086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -6769,7 +6769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6888,6 +6888,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13519,7 +13520,7 @@
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
@@ -15568,7 +15569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
@@ -23098,8 +23099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23197,7 +23198,7 @@
       <c r="F5" s="4" t="s">
         <v>1766</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="82" t="s">
         <v>1767</v>
       </c>
       <c r="H5" s="4"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80B3494-0022-486A-ABAC-C3CCFEF99086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D82FFD-10AA-4263-80B8-BD5DBA9F941A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -6443,13 +6450,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6771,124 +6784,124 @@
   </cellStyleXfs>
   <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23099,8 +23112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D82FFD-10AA-4263-80B8-BD5DBA9F941A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B88B379-5FDD-405B-8063-796E470EDBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -12711,7 +12711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -23112,7 +23112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B88B379-5FDD-405B-8063-796E470EDBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Special Anuswaram" sheetId="8" r:id="rId8"/>
     <sheet name="Special Test Cases" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="2074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="2075">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -6445,11 +6444,14 @@
   <si>
     <t>acCA</t>
   </si>
+  <si>
+    <t>2.2.4.8(11)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7181,7 +7183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L192"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
@@ -10592,7 +10594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N218"/>
   <sheetViews>
     <sheetView topLeftCell="B151" workbookViewId="0">
@@ -12708,10 +12710,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -13529,7 +13531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15579,7 +15581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U294"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
@@ -18326,7 +18328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20692,14 +20694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I76" sqref="I76"/>
+      <selection pane="bottomRight" activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20708,6 +20710,7 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
@@ -22410,82 +22413,85 @@
         <v>748</v>
       </c>
     </row>
-    <row r="145" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D145" s="4" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="146" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D146" s="4" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="147" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D147" s="4" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="148" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D148" s="4" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="149" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D149" s="4" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="150" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D150" s="4" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="151" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D151" s="4" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="152" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D152" s="4" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="153" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D153" s="4" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="154" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D154" s="4" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="155" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D155" s="4" t="s">
+    <row r="155" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D155" s="32" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="156" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I155" s="29" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="156" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D156" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="157" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D157" s="4" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="158" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D158" s="32" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="159" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D159" s="4" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="160" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D160" s="4" t="s">
         <v>761</v>
       </c>
@@ -22693,7 +22699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23109,7 +23115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L63"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\texts\TS Jatai Working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ED5859-6938-404D-8C54-5FB05FB67247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Special Anuswaram" sheetId="8" r:id="rId8"/>
     <sheet name="Special Test Cases" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -6451,7 +6453,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7183,7 +7185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L192"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
@@ -10594,7 +10596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N218"/>
   <sheetViews>
     <sheetView topLeftCell="B151" workbookViewId="0">
@@ -12710,10 +12712,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -13531,7 +13533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15581,7 +15583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:U294"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
@@ -18328,7 +18330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20694,11 +20696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C151" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="I155" sqref="I155"/>
@@ -22699,7 +22701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23115,10 +23117,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E62CFCB-861E-45C8-A8EA-193490B78CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0732ADD1-0E62-4101-9ED3-A2E5CE07D644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6454,13 +6454,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6788,125 +6794,125 @@
   </cellStyleXfs>
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -20703,7 +20709,7 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="E56" sqref="E56"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0732ADD1-0E62-4101-9ED3-A2E5CE07D644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADFA200-79C9-43AD-847F-09F08EC386DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="2075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3459" uniqueCount="2076">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -6449,18 +6449,27 @@
   <si>
     <t>jAyamAnaH</t>
   </si>
+  <si>
+    <t>3.2.5.7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6792,129 +6801,130 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15595,7 +15605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
@@ -20708,11 +20718,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C111" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E56" sqref="E56"/>
+      <selection pane="bottomRight" activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22585,84 +22595,87 @@
         <v>774</v>
       </c>
     </row>
-    <row r="177" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E177" s="4" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="178" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E178" s="4" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="179" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E179" s="4" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="180" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E180" s="4" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="181" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E181" s="4" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="182" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E182" s="4" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="183" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E183" s="4" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="184" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E184" s="4" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="185" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E185" s="59" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="186" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E186" s="4" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="187" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E187" s="4" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="188" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E188" s="32" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="189" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E189" s="4" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="190" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E190" s="32" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="191" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E191" s="32" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="192" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E192" s="4" t="s">
+    <row r="192" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E192" s="32" t="s">
         <v>788</v>
+      </c>
+      <c r="I192" s="84" t="s">
+        <v>2075</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADFA200-79C9-43AD-847F-09F08EC386DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E323D33-3322-47E0-98BD-B5F56C108A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -10618,7 +10618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N218"/>
   <sheetViews>
-    <sheetView topLeftCell="B151" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
@@ -15605,7 +15605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E323D33-3322-47E0-98BD-B5F56C108A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF7DC2-A50C-48FB-9BCF-71BEB0BEAE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -10618,7 +10618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
@@ -12734,8 +12734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
@@ -20719,7 +20719,7 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="E192" sqref="E192"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF7DC2-A50C-48FB-9BCF-71BEB0BEAE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A650BFA8-D2B3-4390-9AE1-40D636F2CCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3459" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3460" uniqueCount="2077">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -6451,6 +6451,9 @@
   </si>
   <si>
     <t>3.2.5.7</t>
+  </si>
+  <si>
+    <t>2.5.8.6</t>
   </si>
 </sst>
 </file>
@@ -12734,7 +12737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -20718,11 +20721,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E192" sqref="E192"/>
+      <selection pane="bottomRight" activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22517,57 +22520,60 @@
         <v>760</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D161" s="4" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D162" s="32" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D163" s="32" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I163" s="29" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D164" s="32" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D165" s="4" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D166" s="32" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D167" s="32" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D168" s="69" t="s">
         <v>2058</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D169" s="4" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="D170" s="32" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>11.17</v>
       </c>
@@ -22575,22 +22581,22 @@
         <v>770</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E173" s="4" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E174" s="32" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E175" s="4" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E176" s="4" t="s">
         <v>774</v>
       </c>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A650BFA8-D2B3-4390-9AE1-40D636F2CCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A264DEB7-3A46-454B-8B61-0A769B624ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -18355,7 +18355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:V118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -20721,11 +20721,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I164" sqref="I164"/>
+      <selection pane="bottomRight" activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A264DEB7-3A46-454B-8B61-0A769B624ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224C1EC3-62DF-4CCA-88A7-D81461260EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -18355,7 +18355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -20721,11 +20721,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D126" sqref="D126"/>
+      <selection pane="bottomRight" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224C1EC3-62DF-4CCA-88A7-D81461260EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BF5357-69A3-4C1E-9256-489466030A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20722,7 +20722,7 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D119" sqref="D119"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BF5357-69A3-4C1E-9256-489466030A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC923B46-155A-4B2B-8166-19D71DB9ECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -6804,7 +6804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6844,12 +6844,10 @@
     <xf numFmtId="2" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6868,7 +6866,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6884,10 +6881,8 @@
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7210,8 +7205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L192"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8351,7 +8346,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="65" t="s">
         <v>2062</v>
       </c>
       <c r="D66" s="15"/>
@@ -8974,7 +8969,7 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="C99" s="70" t="s">
+      <c r="C99" s="65" t="s">
         <v>2059</v>
       </c>
       <c r="D99" s="15"/>
@@ -9202,7 +9197,7 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="C111" s="79" t="s">
+      <c r="C111" s="74" t="s">
         <v>2072</v>
       </c>
       <c r="D111" s="15"/>
@@ -9467,7 +9462,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C125" s="70" t="s">
+      <c r="C125" s="65" t="s">
         <v>2060</v>
       </c>
       <c r="D125" s="15"/>
@@ -9767,10 +9762,10 @@
       <c r="B141" s="15">
         <v>1</v>
       </c>
-      <c r="C141" s="23" t="s">
+      <c r="C141" s="15" t="s">
         <v>2065</v>
       </c>
-      <c r="D141" s="24" t="s">
+      <c r="D141" s="23" t="s">
         <v>847</v>
       </c>
       <c r="E141" s="15" t="s">
@@ -10109,7 +10104,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="C159" s="70" t="s">
+      <c r="C159" s="65" t="s">
         <v>2061</v>
       </c>
       <c r="D159" s="15"/>
@@ -10651,151 +10646,151 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="1:14" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>4.2</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>4.3</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>4.5</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="C10" s="25"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>4.7</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>4.8</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="4"/>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
+      <c r="A14" s="33">
         <v>4.9000000000000004</v>
       </c>
       <c r="B14" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="45" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="4">
@@ -10818,21 +10813,21 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="A15" s="35">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="25">
         <v>4.0999999999999996</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="24" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="A16" s="34">
         <v>4.1100000000000003</v>
       </c>
       <c r="B16" s="4">
@@ -11568,7 +11563,7 @@
       <c r="B82" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="C82" s="30" t="s">
         <v>1084</v>
       </c>
     </row>
@@ -11582,10 +11577,10 @@
     </row>
     <row r="84" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="27">
+      <c r="A85" s="25">
         <v>4.2</v>
       </c>
-      <c r="B85" s="27">
+      <c r="B85" s="25">
         <v>4.2</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -11596,7 +11591,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B86" s="27">
+      <c r="B86" s="25">
         <v>4.2</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -11604,7 +11599,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B87" s="27">
+      <c r="B87" s="25">
         <v>4.2</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -11612,7 +11607,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B88" s="27">
+      <c r="B88" s="25">
         <v>4.2</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -11620,7 +11615,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B89" s="27">
+      <c r="B89" s="25">
         <v>4.2</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -11628,7 +11623,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B90" s="27">
+      <c r="B90" s="25">
         <v>4.2</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -11636,7 +11631,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B91" s="27">
+      <c r="B91" s="25">
         <v>4.2</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -12110,10 +12105,10 @@
       </c>
     </row>
     <row r="123" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A123" s="27">
+      <c r="A123" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B123" s="27">
+      <c r="B123" s="25">
         <v>4.4000000000000004</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -12130,7 +12125,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B124" s="27">
+      <c r="B124" s="25">
         <v>4.4000000000000004</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -12478,10 +12473,10 @@
       </c>
     </row>
     <row r="149" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A149" s="27">
+      <c r="A149" s="25">
         <v>4.5</v>
       </c>
-      <c r="D149" s="27">
+      <c r="D149" s="25">
         <v>4.5</v>
       </c>
       <c r="E149" s="4" t="s">
@@ -12492,7 +12487,7 @@
       <c r="A150" s="4">
         <v>4.51</v>
       </c>
-      <c r="D150" s="27">
+      <c r="D150" s="25">
         <v>4.51</v>
       </c>
       <c r="E150" s="4" t="s">
@@ -12504,7 +12499,7 @@
       <c r="A152" s="4">
         <v>4.5199999999999996</v>
       </c>
-      <c r="D152" s="47">
+      <c r="D152" s="44">
         <v>4.5199999999999996</v>
       </c>
       <c r="E152" s="5" t="s">
@@ -12513,11 +12508,11 @@
     </row>
     <row r="153" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="154" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="32" t="s">
         <v>848</v>
       </c>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
     </row>
     <row r="155" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="156" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -12802,7 +12797,7 @@
       <c r="H6" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -12825,7 +12820,7 @@
       <c r="H7" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -12848,7 +12843,7 @@
       <c r="H8" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -12857,7 +12852,6 @@
       <c r="M8" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -12875,7 +12869,7 @@
       <c r="H9" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -12901,7 +12895,7 @@
       <c r="H10" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -12927,7 +12921,7 @@
       <c r="H11" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -12956,7 +12950,7 @@
       <c r="H12" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="51" t="s">
         <v>1138</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -12967,7 +12961,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="25">
         <v>5.0999999999999996</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -12988,7 +12982,7 @@
       <c r="J13" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="K13" s="55" t="s">
+      <c r="K13" s="51" t="s">
         <v>1138</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -12996,7 +12990,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>5.0999999999999996</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -13017,7 +13011,7 @@
       <c r="J14" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="51" t="s">
         <v>1138</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -13025,7 +13019,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="25">
         <v>5.0999999999999996</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -13046,7 +13040,7 @@
       <c r="J15" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -13074,7 +13068,7 @@
       <c r="F17" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -13100,7 +13094,7 @@
       <c r="I18" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -13126,45 +13120,45 @@
       <c r="I19" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="53">
+    <row r="20" spans="1:17" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
         <v>5.14</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="K20" s="60" t="s">
+      <c r="K20" s="55" t="s">
         <v>1136</v>
       </c>
-      <c r="L20" s="53" t="s">
+      <c r="L20" s="24" t="s">
         <v>1163</v>
       </c>
-      <c r="M20" s="53" t="s">
+      <c r="M20" s="24" t="s">
         <v>1164</v>
       </c>
-      <c r="N20" s="53" t="s">
+      <c r="N20" s="24" t="s">
         <v>1590</v>
       </c>
-      <c r="Q20" s="53" t="s">
+      <c r="Q20" s="24" t="s">
         <v>1591</v>
       </c>
     </row>
@@ -13181,7 +13175,7 @@
       <c r="I21" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13198,7 +13192,7 @@
       <c r="I22" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13215,7 +13209,7 @@
       <c r="I23" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13229,7 +13223,7 @@
       <c r="D24" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -13252,7 +13246,7 @@
       <c r="G25" s="4" t="s">
         <v>1455</v>
       </c>
-      <c r="K25" s="32" t="s">
+      <c r="K25" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13269,7 +13263,7 @@
       <c r="H26" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13286,7 +13280,7 @@
       <c r="H27" s="4" t="s">
         <v>1288</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13303,7 +13297,7 @@
       <c r="H28" s="4" t="s">
         <v>1456</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13323,7 +13317,7 @@
       <c r="I29" s="4" t="s">
         <v>1457</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13343,7 +13337,7 @@
       <c r="I30" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13360,7 +13354,7 @@
       <c r="H31" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="K31" s="34"/>
+      <c r="K31" s="32"/>
     </row>
     <row r="32" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -13375,10 +13369,10 @@
       <c r="H32" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="K32" s="34"/>
+      <c r="K32" s="32"/>
     </row>
     <row r="33" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
+      <c r="A33" s="25">
         <v>5.2</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -13413,7 +13407,7 @@
       <c r="J34" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="L34" s="32" t="s">
+      <c r="L34" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13430,7 +13424,7 @@
       <c r="H35" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13450,7 +13444,7 @@
       <c r="I36" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="L36" s="32" t="s">
+      <c r="L36" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13467,7 +13461,7 @@
       <c r="H37" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="L37" s="32" t="s">
+      <c r="L37" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13484,7 +13478,7 @@
       <c r="I38" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="L38" s="32" t="s">
+      <c r="L38" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13501,7 +13495,7 @@
       <c r="I39" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="L39" s="32" t="s">
+      <c r="L39" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13524,7 +13518,7 @@
       <c r="J40" s="4" t="s">
         <v>1203</v>
       </c>
-      <c r="L40" s="32" t="s">
+      <c r="L40" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13541,7 +13535,7 @@
       <c r="F41" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="L41" s="51"/>
+      <c r="L41" s="48"/>
     </row>
     <row r="42" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -13626,7 +13620,7 @@
       <c r="I6" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13643,7 +13637,7 @@
       <c r="I7" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13660,7 +13654,7 @@
       <c r="I8" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13677,7 +13671,7 @@
       <c r="I9" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13694,7 +13688,7 @@
       <c r="I10" s="4" t="s">
         <v>1204</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13711,7 +13705,7 @@
       <c r="I11" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -13752,7 +13746,7 @@
       <c r="I12" s="4" t="s">
         <v>1206</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13769,7 +13763,7 @@
       <c r="I13" s="4" t="s">
         <v>2008</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -13795,7 +13789,7 @@
       <c r="I14" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13812,7 +13806,7 @@
       <c r="I15" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13829,7 +13823,7 @@
       <c r="I16" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13869,7 +13863,7 @@
       <c r="A22" s="4">
         <v>6.4</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>1139</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -13884,7 +13878,7 @@
       <c r="M22" s="4" t="s">
         <v>1611</v>
       </c>
-      <c r="P22" s="32" t="s">
+      <c r="P22" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13904,7 +13898,7 @@
       <c r="M23" s="4" t="s">
         <v>1615</v>
       </c>
-      <c r="P23" s="32" t="s">
+      <c r="P23" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13921,7 +13915,7 @@
       <c r="M24" s="4" t="s">
         <v>1603</v>
       </c>
-      <c r="P24" s="32" t="s">
+      <c r="P24" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13938,7 +13932,7 @@
       <c r="M25" s="4" t="s">
         <v>1598</v>
       </c>
-      <c r="P25" s="32" t="s">
+      <c r="P25" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13955,7 +13949,7 @@
       <c r="M26" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="P26" s="32" t="s">
+      <c r="P26" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13972,7 +13966,7 @@
       <c r="M27" s="4" t="s">
         <v>1620</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P27" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -13989,7 +13983,7 @@
       <c r="M28" s="4" t="s">
         <v>1605</v>
       </c>
-      <c r="P28" s="32" t="s">
+      <c r="P28" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14006,12 +14000,12 @@
       <c r="M29" s="4" t="s">
         <v>1608</v>
       </c>
-      <c r="P29" s="32" t="s">
+      <c r="P29" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="4" t="s">
         <v>1623</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -14023,7 +14017,7 @@
       <c r="M30" s="4" t="s">
         <v>1792</v>
       </c>
-      <c r="P30" s="32" t="s">
+      <c r="P30" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14040,7 +14034,7 @@
       <c r="M31" s="4" t="s">
         <v>1618</v>
       </c>
-      <c r="P31" s="32" t="s">
+      <c r="P31" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14064,8 +14058,8 @@
       <c r="I33" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="J33" s="56"/>
-      <c r="K33" s="32" t="s">
+      <c r="J33" s="44"/>
+      <c r="K33" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14088,7 +14082,7 @@
       <c r="I34" s="4" t="s">
         <v>1207</v>
       </c>
-      <c r="K34" s="32" t="s">
+      <c r="K34" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14108,7 +14102,7 @@
       <c r="I35" s="4" t="s">
         <v>1466</v>
       </c>
-      <c r="K35" s="32" t="s">
+      <c r="K35" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14128,7 +14122,7 @@
       <c r="I36" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="K36" s="32" t="s">
+      <c r="K36" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14151,7 +14145,7 @@
       <c r="J37" s="4" t="s">
         <v>1243</v>
       </c>
-      <c r="K37" s="32" t="s">
+      <c r="K37" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14171,7 +14165,7 @@
       <c r="I38" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="K38" s="32" t="s">
+      <c r="K38" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14191,7 +14185,7 @@
       <c r="I39" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="K39" s="32" t="s">
+      <c r="K39" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14211,7 +14205,7 @@
       <c r="I40" s="4" t="s">
         <v>1465</v>
       </c>
-      <c r="K40" s="32" t="s">
+      <c r="K40" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14231,7 +14225,7 @@
       <c r="I41" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="K41" s="32" t="s">
+      <c r="K41" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14251,7 +14245,7 @@
       <c r="I42" s="4" t="s">
         <v>1244</v>
       </c>
-      <c r="K42" s="32" t="s">
+      <c r="K42" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14259,7 +14253,7 @@
       <c r="A43" s="4">
         <v>6.5</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="31" t="s">
         <v>409</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -14271,7 +14265,7 @@
       <c r="I43" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="K43" s="32" t="s">
+      <c r="K43" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14291,7 +14285,7 @@
       <c r="I44" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="K44" s="32" t="s">
+      <c r="K44" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14311,7 +14305,7 @@
       <c r="I45" s="4" t="s">
         <v>1246</v>
       </c>
-      <c r="K45" s="32" t="s">
+      <c r="K45" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L45" s="4" t="s">
@@ -14337,7 +14331,7 @@
       <c r="I46" s="4" t="s">
         <v>1467</v>
       </c>
-      <c r="K46" s="32" t="s">
+      <c r="K46" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L46" s="4" t="s">
@@ -14373,7 +14367,7 @@
       <c r="J48" s="4" t="s">
         <v>1322</v>
       </c>
-      <c r="K48" s="32" t="s">
+      <c r="K48" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L48" s="4" t="s">
@@ -14549,14 +14543,14 @@
       </c>
     </row>
     <row r="58" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="32" t="s">
         <v>1213</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34" t="s">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="32" t="s">
         <v>760</v>
       </c>
       <c r="I58" s="6" t="s">
@@ -14573,11 +14567,11 @@
     <row r="60" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="28">
+      <c r="A62" s="26">
         <v>6.6</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="26" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14632,7 +14626,7 @@
       <c r="C66" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="H66" s="54"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C67" s="4" t="s">
@@ -14650,7 +14644,7 @@
       <c r="H67" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="I67" s="34" t="s">
+      <c r="I67" s="32" t="s">
         <v>1138</v>
       </c>
       <c r="J67" s="4" t="s">
@@ -14667,7 +14661,7 @@
       <c r="H68" s="4" t="s">
         <v>1220</v>
       </c>
-      <c r="I68" s="34" t="s">
+      <c r="I68" s="32" t="s">
         <v>1138</v>
       </c>
       <c r="J68" s="4" t="s">
@@ -14684,7 +14678,7 @@
       <c r="H69" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="I69" s="34" t="s">
+      <c r="I69" s="32" t="s">
         <v>1138</v>
       </c>
       <c r="J69" s="4" t="s">
@@ -14701,7 +14695,7 @@
       <c r="H70" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="32" t="s">
         <v>1138</v>
       </c>
       <c r="J70" s="4" t="s">
@@ -14721,13 +14715,13 @@
       <c r="F71" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H71" s="34" t="s">
+      <c r="H71" s="32" t="s">
         <v>1227</v>
       </c>
-      <c r="I71" s="34" t="s">
+      <c r="I71" s="32" t="s">
         <v>1230</v>
       </c>
-      <c r="J71" s="34" t="s">
+      <c r="J71" s="32" t="s">
         <v>1228</v>
       </c>
       <c r="K71" s="4" t="s">
@@ -14747,11 +14741,11 @@
       <c r="H72" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="I72" s="34" t="s">
+      <c r="I72" s="32" t="s">
         <v>1138</v>
       </c>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34" t="s">
+      <c r="J72" s="32"/>
+      <c r="K72" s="32" t="s">
         <v>1323</v>
       </c>
     </row>
@@ -14765,7 +14759,7 @@
       <c r="H73" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="I73" s="34" t="s">
+      <c r="I73" s="32" t="s">
         <v>1138</v>
       </c>
       <c r="J73" s="4" t="s">
@@ -14780,10 +14774,10 @@
       <c r="A75" s="4">
         <v>6.9</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="24" t="s">
         <v>842</v>
       </c>
-      <c r="E75" s="41"/>
+      <c r="E75" s="38"/>
       <c r="H75" s="4" t="s">
         <v>1186</v>
       </c>
@@ -14796,25 +14790,25 @@
     </row>
     <row r="76" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="27">
+      <c r="A77" s="25">
         <v>6.1</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="H77" s="34" t="s">
+      <c r="H77" s="32" t="s">
         <v>1233</v>
       </c>
-      <c r="I77" s="34" t="s">
+      <c r="I77" s="32" t="s">
         <v>1470</v>
       </c>
-      <c r="J77" s="34" t="s">
+      <c r="J77" s="32" t="s">
         <v>1471</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>1234</v>
       </c>
-      <c r="M77" s="32" t="s">
+      <c r="M77" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14825,11 +14819,11 @@
       <c r="H78" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="I78" s="34"/>
+      <c r="I78" s="32"/>
       <c r="K78" s="4" t="s">
         <v>1235</v>
       </c>
-      <c r="M78" s="32" t="s">
+      <c r="M78" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14837,7 +14831,7 @@
       <c r="A79" s="4">
         <v>6.11</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="C79" s="44" t="s">
         <v>1189</v>
       </c>
       <c r="D79" s="4" t="s">
@@ -14849,18 +14843,18 @@
       <c r="H79" s="4" t="s">
         <v>1238</v>
       </c>
-      <c r="I79" s="34" t="s">
+      <c r="I79" s="32" t="s">
         <v>1138</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>1237</v>
       </c>
-      <c r="M79" s="32" t="s">
+      <c r="M79" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="80" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C80" s="47" t="s">
+      <c r="C80" s="44" t="s">
         <v>1189</v>
       </c>
       <c r="D80" s="4" t="s">
@@ -14872,13 +14866,13 @@
       <c r="H80" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="I80" s="34" t="s">
+      <c r="I80" s="32" t="s">
         <v>1138</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="M80" s="32" t="s">
+      <c r="M80" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14902,7 +14896,7 @@
       <c r="J82" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="L82" s="53" t="s">
+      <c r="L82" s="24" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14922,7 +14916,7 @@
       <c r="J83" s="4" t="s">
         <v>1254</v>
       </c>
-      <c r="L83" s="53" t="s">
+      <c r="L83" s="24" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14942,7 +14936,7 @@
       <c r="J84" s="4" t="s">
         <v>1255</v>
       </c>
-      <c r="L84" s="53" t="s">
+      <c r="L84" s="24" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14962,7 +14956,7 @@
       <c r="J85" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="L85" s="53" t="s">
+      <c r="L85" s="24" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14982,7 +14976,7 @@
       <c r="J86" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="L86" s="53" t="s">
+      <c r="L86" s="24" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -15002,7 +14996,7 @@
       <c r="J87" s="4" t="s">
         <v>1261</v>
       </c>
-      <c r="L87" s="53" t="s">
+      <c r="L87" s="24" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -15022,7 +15016,7 @@
       <c r="J88" s="4" t="s">
         <v>1262</v>
       </c>
-      <c r="L88" s="53" t="s">
+      <c r="L88" s="24" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -15042,7 +15036,7 @@
       <c r="J89" s="4" t="s">
         <v>1263</v>
       </c>
-      <c r="L89" s="53" t="s">
+      <c r="L89" s="24" t="s">
         <v>1136</v>
       </c>
       <c r="M89" s="4" t="s">
@@ -15068,7 +15062,7 @@
       <c r="J90" s="4" t="s">
         <v>1325</v>
       </c>
-      <c r="L90" s="53" t="s">
+      <c r="L90" s="24" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -15088,7 +15082,7 @@
       <c r="J91" s="4" t="s">
         <v>1265</v>
       </c>
-      <c r="L91" s="53" t="s">
+      <c r="L91" s="24" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -15108,7 +15102,7 @@
       <c r="J92" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="L92" s="53" t="s">
+      <c r="L92" s="24" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -15128,7 +15122,7 @@
       <c r="J93" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="L93" s="53" t="s">
+      <c r="L93" s="24" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -15148,16 +15142,16 @@
       <c r="J94" s="4" t="s">
         <v>1268</v>
       </c>
-      <c r="L94" s="53" t="s">
+      <c r="L94" s="24" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
+      <c r="A96" s="37">
         <v>6.14</v>
       </c>
-      <c r="B96" s="60" t="s">
+      <c r="B96" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -15169,7 +15163,7 @@
       <c r="F96" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G96" s="52" t="s">
+      <c r="G96" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="H96" s="4" t="s">
@@ -15183,7 +15177,7 @@
       </c>
     </row>
     <row r="97" spans="2:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B97" s="60" t="s">
+      <c r="B97" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -15195,7 +15189,7 @@
       <c r="F97" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G97" s="52" t="s">
+      <c r="G97" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="H97" s="4" t="s">
@@ -15206,10 +15200,10 @@
       </c>
     </row>
     <row r="98" spans="2:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B98" s="60" t="s">
+      <c r="B98" s="55" t="s">
         <v>1136</v>
       </c>
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="4" t="s">
         <v>448</v>
       </c>
       <c r="E98" s="4" t="s">
@@ -15218,7 +15212,7 @@
       <c r="F98" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G98" s="52" t="s">
+      <c r="G98" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="H98" s="4" t="s">
@@ -15226,7 +15220,7 @@
       </c>
     </row>
     <row r="99" spans="2:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B99" s="60" t="s">
+      <c r="B99" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -15238,7 +15232,7 @@
       <c r="F99" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G99" s="32" t="s">
+      <c r="G99" s="30" t="s">
         <v>1142</v>
       </c>
       <c r="H99" s="4" t="s">
@@ -15264,7 +15258,7 @@
       </c>
     </row>
     <row r="100" spans="2:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B100" s="60" t="s">
+      <c r="B100" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -15276,7 +15270,7 @@
       <c r="F100" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G100" s="32" t="s">
+      <c r="G100" s="30" t="s">
         <v>1142</v>
       </c>
       <c r="H100" s="4" t="s">
@@ -15299,7 +15293,7 @@
       </c>
     </row>
     <row r="101" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B101" s="60" t="s">
+      <c r="B101" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -15312,7 +15306,7 @@
       <c r="F101" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G101" s="52" t="s">
+      <c r="G101" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="H101" s="4" t="s">
@@ -15320,10 +15314,10 @@
       </c>
     </row>
     <row r="102" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B102" s="60" t="s">
+      <c r="B102" s="55" t="s">
         <v>1136</v>
       </c>
-      <c r="C102" s="39" t="s">
+      <c r="C102" s="4" t="s">
         <v>452</v>
       </c>
       <c r="D102" s="4"/>
@@ -15333,7 +15327,7 @@
       <c r="F102" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G102" s="52" t="s">
+      <c r="G102" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="H102" s="4" t="s">
@@ -15344,10 +15338,10 @@
       </c>
     </row>
     <row r="103" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B103" s="60" t="s">
+      <c r="B103" s="55" t="s">
         <v>1136</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="C103" s="4" t="s">
         <v>930</v>
       </c>
       <c r="D103" s="4"/>
@@ -15357,7 +15351,7 @@
       <c r="F103" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G103" s="52" t="s">
+      <c r="G103" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="H103" s="4" t="s">
@@ -15365,7 +15359,7 @@
       </c>
     </row>
     <row r="104" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B104" s="60" t="s">
+      <c r="B104" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -15378,7 +15372,7 @@
       <c r="F104" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G104" s="52" t="s">
+      <c r="G104" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="H104" s="4" t="s">
@@ -15386,7 +15380,7 @@
       </c>
     </row>
     <row r="105" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B105" s="60" t="s">
+      <c r="B105" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -15399,7 +15393,7 @@
       <c r="F105" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G105" s="32" t="s">
+      <c r="G105" s="30" t="s">
         <v>1142</v>
       </c>
       <c r="H105" s="4" t="s">
@@ -15413,7 +15407,7 @@
       </c>
     </row>
     <row r="106" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B106" s="60" t="s">
+      <c r="B106" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -15426,7 +15420,7 @@
       <c r="F106" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G106" s="52" t="s">
+      <c r="G106" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="I106" s="4" t="s">
@@ -15452,7 +15446,7 @@
       </c>
     </row>
     <row r="107" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B107" s="60" t="s">
+      <c r="B107" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -15465,7 +15459,7 @@
       <c r="F107" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G107" s="52" t="s">
+      <c r="G107" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="H107" s="4" t="s">
@@ -15473,7 +15467,7 @@
       </c>
     </row>
     <row r="108" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B108" s="60" t="s">
+      <c r="B108" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -15486,7 +15480,7 @@
       <c r="F108" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G108" s="52" t="s">
+      <c r="G108" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="H108" s="4" t="s">
@@ -15494,7 +15488,7 @@
       </c>
     </row>
     <row r="109" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B109" s="60" t="s">
+      <c r="B109" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -15507,7 +15501,7 @@
       <c r="F109" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G109" s="52" t="s">
+      <c r="G109" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="H109" s="4" t="s">
@@ -15515,7 +15509,7 @@
       </c>
     </row>
     <row r="110" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B110" s="60" t="s">
+      <c r="B110" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -15528,7 +15522,7 @@
       <c r="F110" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G110" s="52" t="s">
+      <c r="G110" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="H110" s="4" t="s">
@@ -15536,7 +15530,7 @@
       </c>
     </row>
     <row r="111" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B111" s="60" t="s">
+      <c r="B111" s="55" t="s">
         <v>1136</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -15549,7 +15543,7 @@
       <c r="F111" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G111" s="52" t="s">
+      <c r="G111" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="H111" s="4" t="s">
@@ -15562,7 +15556,7 @@
       <c r="F112" s="4"/>
     </row>
     <row r="113" spans="3:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="24" t="s">
         <v>855</v>
       </c>
       <c r="D113" s="4"/>
@@ -15574,7 +15568,7 @@
       <c r="K113" s="4" t="s">
         <v>1331</v>
       </c>
-      <c r="L113" s="32" t="s">
+      <c r="L113" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M113" s="4" t="s">
@@ -15582,7 +15576,7 @@
       </c>
     </row>
     <row r="114" spans="3:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="24" t="s">
         <v>459</v>
       </c>
       <c r="J114" s="4" t="s">
@@ -15591,7 +15585,7 @@
       <c r="K114" s="4" t="s">
         <v>1332</v>
       </c>
-      <c r="L114" s="32" t="s">
+      <c r="L114" s="30" t="s">
         <v>1146</v>
       </c>
       <c r="M114" s="4" t="s">
@@ -15671,17 +15665,17 @@
       <c r="H7" s="4" t="s">
         <v>1333</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="30" t="s">
         <v>1334</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
@@ -15696,12 +15690,12 @@
       <c r="G8" s="4" t="s">
         <v>1204</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="30" t="s">
         <v>1136</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -15716,17 +15710,17 @@
       <c r="G9" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="30" t="s">
         <v>1480</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="4" t="s">
         <v>1481</v>
       </c>
@@ -15744,17 +15738,17 @@
       <c r="G10" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="30" t="s">
         <v>1482</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="4" t="s">
         <v>1483</v>
       </c>
@@ -15772,17 +15766,17 @@
       <c r="G11" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="30" t="s">
         <v>1484</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="4" t="s">
         <v>1485</v>
       </c>
@@ -15806,17 +15800,17 @@
       <c r="I12" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="30" t="s">
         <v>1486</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="4" t="s">
         <v>1487</v>
       </c>
@@ -15834,17 +15828,17 @@
       <c r="G13" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="30" t="s">
         <v>1488</v>
       </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="4" t="s">
         <v>1489</v>
       </c>
@@ -15862,17 +15856,17 @@
       <c r="G14" s="4" t="s">
         <v>1276</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>1276</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="30" t="s">
         <v>1491</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="4" t="s">
         <v>1492</v>
       </c>
@@ -15896,7 +15890,7 @@
       <c r="J15" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -15913,13 +15907,13 @@
       <c r="F16" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="52" t="s">
         <v>1277</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -15933,16 +15927,16 @@
       <c r="F17" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="52" t="s">
         <v>1493</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>1494</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="30" t="s">
         <v>1495</v>
       </c>
       <c r="P17" s="4" t="s">
@@ -15963,10 +15957,10 @@
       <c r="H19" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="30" t="s">
         <v>1136</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="30" t="s">
         <v>1497</v>
       </c>
       <c r="P19" s="4" t="s">
@@ -15986,7 +15980,7 @@
       <c r="J20" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -16021,17 +16015,17 @@
       <c r="F23" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="30" t="s">
         <v>1337</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>1338</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32" t="s">
+      <c r="K23" s="30"/>
+      <c r="L23" s="30" t="s">
         <v>1136</v>
       </c>
-      <c r="M23" s="32" t="s">
+      <c r="M23" s="30" t="s">
         <v>1499</v>
       </c>
       <c r="P23" s="4" t="s">
@@ -16051,7 +16045,7 @@
       <c r="H24" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="J24" s="51" t="s">
+      <c r="J24" s="48" t="s">
         <v>1138</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -16065,7 +16059,7 @@
       <c r="F25" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="30" t="s">
         <v>1592</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -16094,7 +16088,7 @@
       <c r="H26" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="J26" s="51" t="s">
+      <c r="J26" s="48" t="s">
         <v>1138</v>
       </c>
       <c r="M26" s="4" t="s">
@@ -16118,7 +16112,7 @@
       <c r="H28" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="48" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -16138,7 +16132,7 @@
       <c r="J29" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="K29" s="51" t="s">
+      <c r="K29" s="48" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -16152,7 +16146,7 @@
       <c r="H30" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="K30" s="51" t="s">
+      <c r="K30" s="48" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -16163,13 +16157,13 @@
       <c r="C31" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="4" t="s">
         <v>1281</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="K31" s="51" t="s">
+      <c r="K31" s="48" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -16177,13 +16171,13 @@
       <c r="C32" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="H32" s="72" t="s">
+      <c r="H32" s="67" t="s">
         <v>2069</v>
       </c>
-      <c r="K32" s="51" t="s">
+      <c r="K32" s="48" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -16197,7 +16191,7 @@
       <c r="H33" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="K33" s="51" t="s">
+      <c r="K33" s="48" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -16211,7 +16205,7 @@
       <c r="G34" s="4" t="s">
         <v>1193</v>
       </c>
-      <c r="K34" s="51" t="s">
+      <c r="K34" s="48" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -16235,7 +16229,7 @@
       <c r="H36" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="N36" s="32" t="s">
+      <c r="N36" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -16255,7 +16249,7 @@
       <c r="I37" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="K37" s="51" t="s">
+      <c r="K37" s="48" t="s">
         <v>1138</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -16285,7 +16279,7 @@
       <c r="I39" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="K39" s="51" t="s">
+      <c r="K39" s="48" t="s">
         <v>1138</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -16311,7 +16305,7 @@
       <c r="I40" s="4" t="s">
         <v>1272</v>
       </c>
-      <c r="K40" s="51" t="s">
+      <c r="K40" s="48" t="s">
         <v>1138</v>
       </c>
       <c r="N40" s="4" t="s">
@@ -16332,7 +16326,7 @@
       <c r="I42" s="4" t="s">
         <v>1286</v>
       </c>
-      <c r="K42" s="51" t="s">
+      <c r="K42" s="48" t="s">
         <v>1138</v>
       </c>
       <c r="N42" s="4" t="s">
@@ -16349,7 +16343,7 @@
       <c r="I43" s="4" t="s">
         <v>1287</v>
       </c>
-      <c r="K43" s="51" t="s">
+      <c r="K43" s="48" t="s">
         <v>1138</v>
       </c>
       <c r="N43" s="4" t="s">
@@ -16366,7 +16360,7 @@
       <c r="I44" s="4" t="s">
         <v>1289</v>
       </c>
-      <c r="K44" s="51" t="s">
+      <c r="K44" s="48" t="s">
         <v>1138</v>
       </c>
       <c r="N44" s="4" t="s">
@@ -16383,7 +16377,7 @@
       <c r="I45" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="K45" s="51" t="s">
+      <c r="K45" s="48" t="s">
         <v>1138</v>
       </c>
       <c r="N45" s="4" t="s">
@@ -16400,7 +16394,7 @@
       <c r="I46" s="4" t="s">
         <v>1292</v>
       </c>
-      <c r="K46" s="51" t="s">
+      <c r="K46" s="48" t="s">
         <v>1138</v>
       </c>
       <c r="N46" s="4" t="s">
@@ -16417,7 +16411,7 @@
       <c r="I47" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="K47" s="51" t="s">
+      <c r="K47" s="48" t="s">
         <v>1138</v>
       </c>
       <c r="N47" s="4" t="s">
@@ -16435,7 +16429,6 @@
       <c r="D49" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="39"/>
       <c r="G49" s="4" t="s">
         <v>953</v>
       </c>
@@ -16453,7 +16446,6 @@
       <c r="D50" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E50" s="39"/>
       <c r="G50" s="4" t="s">
         <v>1298</v>
       </c>
@@ -16471,7 +16463,6 @@
       <c r="D51" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E51" s="39"/>
       <c r="G51" s="4" t="s">
         <v>1299</v>
       </c>
@@ -16489,11 +16480,10 @@
       <c r="D52" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="E52" s="39"/>
       <c r="G52" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="I52" s="52"/>
+      <c r="I52" s="49"/>
       <c r="L52" s="4" t="s">
         <v>1151</v>
       </c>
@@ -16505,11 +16495,10 @@
       <c r="D53" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="E53" s="39"/>
       <c r="G53" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="I53" s="52"/>
+      <c r="I53" s="49"/>
       <c r="L53" s="4" t="s">
         <v>1151</v>
       </c>
@@ -16521,7 +16510,6 @@
       <c r="D54" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="E54" s="39"/>
       <c r="G54" s="4" t="s">
         <v>1302</v>
       </c>
@@ -16543,14 +16531,13 @@
       <c r="D56" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="E56" s="39"/>
       <c r="G56" s="4" t="s">
         <v>1304</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="K56" s="51" t="s">
+      <c r="K56" s="48" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -16561,14 +16548,13 @@
       <c r="D57" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="E57" s="39"/>
       <c r="G57" s="4" t="s">
         <v>1069</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="K57" s="51" t="s">
+      <c r="K57" s="48" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -16589,10 +16575,10 @@
       <c r="G59" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="I59" s="61" t="s">
+      <c r="I59" s="56" t="s">
         <v>1505</v>
       </c>
-      <c r="K59" s="51" t="s">
+      <c r="K59" s="48" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -16647,11 +16633,11 @@
       <c r="A65" s="4">
         <v>7.15</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="G65" s="32" t="s">
+      <c r="D65" s="26"/>
+      <c r="G65" s="30" t="s">
         <v>1318</v>
       </c>
       <c r="I65" s="4" t="s">
@@ -16696,7 +16682,7 @@
       <c r="F68" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G68" s="32" t="s">
+      <c r="G68" s="30" t="s">
         <v>1309</v>
       </c>
       <c r="I68" s="4" t="s">
@@ -16716,7 +16702,7 @@
       <c r="F69" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G69" s="32" t="s">
+      <c r="G69" s="30" t="s">
         <v>1314</v>
       </c>
       <c r="I69" s="4" t="s">
@@ -16736,7 +16722,7 @@
       <c r="F70" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G70" s="32" t="s">
+      <c r="G70" s="30" t="s">
         <v>1313</v>
       </c>
       <c r="I70" s="4" t="s">
@@ -16756,7 +16742,7 @@
       <c r="F71" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G71" s="32" t="s">
+      <c r="G71" s="30" t="s">
         <v>1256</v>
       </c>
       <c r="I71" s="4" t="s">
@@ -16776,7 +16762,7 @@
       <c r="F72" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G72" s="32" t="s">
+      <c r="G72" s="30" t="s">
         <v>1315</v>
       </c>
       <c r="I72" s="4" t="s">
@@ -16788,17 +16774,17 @@
     </row>
     <row r="73" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="D74" s="28"/>
+      <c r="D74" s="26"/>
     </row>
     <row r="75" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="27">
+      <c r="A76" s="25">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="24" t="s">
         <v>572</v>
       </c>
     </row>
@@ -16865,7 +16851,7 @@
       <c r="J82" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="K82" s="52" t="s">
+      <c r="K82" s="49" t="s">
         <v>1198</v>
       </c>
       <c r="M82" s="4" t="s">
@@ -16888,7 +16874,7 @@
       <c r="H83" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="J83" s="52"/>
+      <c r="J83" s="49"/>
     </row>
     <row r="84" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C84" s="4" t="s">
@@ -16960,10 +16946,10 @@
       <c r="F87" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="J87" s="32" t="s">
+      <c r="J87" s="30" t="s">
         <v>937</v>
       </c>
-      <c r="K87" s="32" t="s">
+      <c r="K87" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M87" s="4" t="s">
@@ -16989,7 +16975,7 @@
       <c r="J88" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="K88" s="32" t="s">
+      <c r="K88" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L88" s="4" t="s">
@@ -17018,7 +17004,7 @@
       <c r="J89" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="K89" s="32" t="s">
+      <c r="K89" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L89" s="4" t="s">
@@ -17047,7 +17033,7 @@
       <c r="J90" s="4" t="s">
         <v>1318</v>
       </c>
-      <c r="K90" s="32" t="s">
+      <c r="K90" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M90" s="4" t="s">
@@ -17073,7 +17059,7 @@
       <c r="J91" s="4" t="s">
         <v>1359</v>
       </c>
-      <c r="K91" s="32" t="s">
+      <c r="K91" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M91" s="4" t="s">
@@ -17096,22 +17082,22 @@
       <c r="J92" s="4" t="s">
         <v>1199</v>
       </c>
-      <c r="K92" s="32" t="s">
+      <c r="K92" s="30" t="s">
         <v>1136</v>
       </c>
-      <c r="L92" s="32" t="s">
+      <c r="L92" s="30" t="s">
         <v>1362</v>
       </c>
       <c r="M92" s="4" t="s">
         <v>1363</v>
       </c>
-      <c r="Q92" s="32" t="s">
+      <c r="Q92" s="30" t="s">
         <v>1794</v>
       </c>
-      <c r="R92" s="58" t="s">
+      <c r="R92" s="53" t="s">
         <v>1364</v>
       </c>
-      <c r="S92" s="58" t="s">
+      <c r="S92" s="53" t="s">
         <v>1365</v>
       </c>
       <c r="T92" s="4" t="s">
@@ -17129,13 +17115,12 @@
       <c r="F94" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="J94" s="39" t="s">
+      <c r="J94" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="K94" s="32" t="s">
+      <c r="K94" s="30" t="s">
         <v>1136</v>
       </c>
-      <c r="L94" s="39"/>
       <c r="M94" s="4" t="s">
         <v>1796</v>
       </c>
@@ -17153,7 +17138,7 @@
       <c r="J95" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="K95" s="32" t="s">
+      <c r="K95" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M95" s="4" t="s">
@@ -17173,7 +17158,7 @@
       <c r="J96" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="K96" s="32" t="s">
+      <c r="K96" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M96" s="4" t="s">
@@ -17193,7 +17178,7 @@
       <c r="J97" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="K97" s="32" t="s">
+      <c r="K97" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M97" s="4" t="s">
@@ -17216,7 +17201,7 @@
       <c r="J98" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="K98" s="32" t="s">
+      <c r="K98" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M98" s="4" t="s">
@@ -17236,7 +17221,7 @@
       <c r="J99" s="4" t="s">
         <v>1309</v>
       </c>
-      <c r="K99" s="32" t="s">
+      <c r="K99" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M99" s="4" t="s">
@@ -17256,7 +17241,7 @@
       <c r="J100" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="K100" s="32" t="s">
+      <c r="K100" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L100" s="4" t="s">
@@ -17285,7 +17270,7 @@
       <c r="J101" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="K101" s="32" t="s">
+      <c r="K101" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L101" s="4" t="s">
@@ -17294,7 +17279,7 @@
       <c r="M101" s="4" t="s">
         <v>1378</v>
       </c>
-      <c r="S101" s="59" t="s">
+      <c r="S101" s="54" t="s">
         <v>911</v>
       </c>
     </row>
@@ -17314,7 +17299,7 @@
       <c r="J102" s="4" t="s">
         <v>1140</v>
       </c>
-      <c r="K102" s="32" t="s">
+      <c r="K102" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L102" s="4" t="s">
@@ -17329,14 +17314,14 @@
       <c r="P102" s="4" t="s">
         <v>1382</v>
       </c>
-      <c r="R102" s="32" t="s">
+      <c r="R102" s="30" t="s">
         <v>1384</v>
       </c>
-      <c r="S102" s="32" t="s">
+      <c r="S102" s="30" t="s">
         <v>1383</v>
       </c>
-      <c r="T102" s="32"/>
-      <c r="U102" s="32" t="s">
+      <c r="T102" s="30"/>
+      <c r="U102" s="30" t="s">
         <v>1595</v>
       </c>
     </row>
@@ -17353,7 +17338,7 @@
       <c r="J103" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="K103" s="32" t="s">
+      <c r="K103" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M103" s="4" t="s">
@@ -17373,7 +17358,7 @@
       <c r="J104" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="K104" s="32" t="s">
+      <c r="K104" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L104" s="4" t="s">
@@ -17419,7 +17404,7 @@
       <c r="H106" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="K106" s="32" t="s">
+      <c r="K106" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M106" s="4" t="s">
@@ -17448,7 +17433,7 @@
       <c r="I107" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="K107" s="32" t="s">
+      <c r="K107" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M107" s="4" t="s">
@@ -17471,7 +17456,7 @@
       <c r="H108" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="K108" s="32" t="s">
+      <c r="K108" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M108" s="4" t="s">
@@ -17497,7 +17482,7 @@
       <c r="H109" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="K109" s="32" t="s">
+      <c r="K109" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M109" s="4" t="s">
@@ -17523,7 +17508,7 @@
       <c r="H110" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="K110" s="32" t="s">
+      <c r="K110" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M110" s="4" t="s">
@@ -17546,7 +17531,7 @@
       <c r="H111" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="K111" s="32" t="s">
+      <c r="K111" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M111" s="4" t="s">
@@ -17593,7 +17578,7 @@
       <c r="H113" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="K113" s="32" t="s">
+      <c r="K113" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M113" s="4" t="s">
@@ -17619,7 +17604,7 @@
       <c r="H114" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="K114" s="32" t="s">
+      <c r="K114" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M114" s="4" t="s">
@@ -17642,19 +17627,19 @@
       <c r="F115" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="G115" s="59" t="s">
+      <c r="G115" s="54" t="s">
         <v>886</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="I115" s="59" t="s">
+      <c r="I115" s="54" t="s">
         <v>1797</v>
       </c>
-      <c r="J115" s="59" t="s">
+      <c r="J115" s="54" t="s">
         <v>889</v>
       </c>
-      <c r="K115" s="32" t="s">
+      <c r="K115" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L115" s="4" t="s">
@@ -17689,7 +17674,7 @@
       <c r="H116" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="K116" s="32" t="s">
+      <c r="K116" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M116" s="4" t="s">
@@ -17712,7 +17697,7 @@
       <c r="H117" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="K117" s="32" t="s">
+      <c r="K117" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M117" s="4" t="s">
@@ -17741,7 +17726,7 @@
       <c r="I118" s="4" t="s">
         <v>1201</v>
       </c>
-      <c r="K118" s="32" t="s">
+      <c r="K118" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M118" s="4" t="s">
@@ -17764,7 +17749,7 @@
       <c r="H119" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="K119" s="32" t="s">
+      <c r="K119" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M119" s="4" t="s">
@@ -17772,7 +17757,7 @@
       </c>
     </row>
     <row r="120" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C120" s="39" t="s">
+      <c r="C120" s="4" t="s">
         <v>1407</v>
       </c>
       <c r="D120" s="4" t="s">
@@ -17784,7 +17769,7 @@
       <c r="H120" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="K120" s="32" t="s">
+      <c r="K120" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M120" s="4" t="s">
@@ -17839,7 +17824,7 @@
       <c r="H122" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="K122" s="32" t="s">
+      <c r="K122" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M122" s="4" t="s">
@@ -17863,7 +17848,7 @@
       <c r="H124" s="4" t="s">
         <v>1410</v>
       </c>
-      <c r="J124" s="32" t="s">
+      <c r="J124" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K124" s="4" t="s">
@@ -17889,7 +17874,7 @@
       <c r="H125" s="4" t="s">
         <v>1414</v>
       </c>
-      <c r="J125" s="32" t="s">
+      <c r="J125" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L125" s="4" t="s">
@@ -17912,7 +17897,7 @@
       <c r="I126" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="J126" s="32" t="s">
+      <c r="J126" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L126" s="4" t="s">
@@ -17932,7 +17917,7 @@
       <c r="H127" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="J127" s="32" t="s">
+      <c r="J127" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L127" s="4" t="s">
@@ -17952,7 +17937,7 @@
       <c r="H128" s="4" t="s">
         <v>1072</v>
       </c>
-      <c r="J128" s="32" t="s">
+      <c r="J128" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L128" s="4" t="s">
@@ -17972,7 +17957,7 @@
       <c r="H129" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="J129" s="32" t="s">
+      <c r="J129" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L129" s="4" t="s">
@@ -17995,7 +17980,7 @@
       <c r="I130" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="J130" s="32" t="s">
+      <c r="J130" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L130" s="4" t="s">
@@ -18022,7 +18007,7 @@
       <c r="H132" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="J132" s="32" t="s">
+      <c r="J132" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L132" s="4" t="s">
@@ -18042,7 +18027,7 @@
       <c r="H133" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="J133" s="32" t="s">
+      <c r="J133" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="L133" s="4" t="s">
@@ -18125,10 +18110,10 @@
       <c r="G139" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="J139" s="32" t="s">
+      <c r="J139" s="30" t="s">
         <v>1136</v>
       </c>
-      <c r="K139" s="51" t="s">
+      <c r="K139" s="48" t="s">
         <v>1434</v>
       </c>
       <c r="L139" s="4" t="s">
@@ -18139,7 +18124,7 @@
       <c r="G140" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="K140" s="51" t="s">
+      <c r="K140" s="48" t="s">
         <v>1436</v>
       </c>
       <c r="L140" s="4" t="s">
@@ -18150,7 +18135,7 @@
       <c r="G141" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="K141" s="51" t="s">
+      <c r="K141" s="48" t="s">
         <v>1438</v>
       </c>
       <c r="L141" s="4" t="s">
@@ -18161,7 +18146,7 @@
       <c r="G142" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="K142" s="51" t="s">
+      <c r="K142" s="48" t="s">
         <v>1434</v>
       </c>
       <c r="L142" s="4" t="s">
@@ -18172,7 +18157,7 @@
       <c r="G143" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="K143" s="51" t="s">
+      <c r="K143" s="48" t="s">
         <v>1442</v>
       </c>
       <c r="L143" s="4" t="s">
@@ -18183,7 +18168,7 @@
       <c r="G144" s="4" t="s">
         <v>1443</v>
       </c>
-      <c r="K144" s="51" t="s">
+      <c r="K144" s="48" t="s">
         <v>1444</v>
       </c>
       <c r="L144" s="4" t="s">
@@ -18194,7 +18179,7 @@
       <c r="G145" s="4" t="s">
         <v>1446</v>
       </c>
-      <c r="K145" s="51"/>
+      <c r="K145" s="48"/>
     </row>
     <row r="146" spans="7:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="147" spans="7:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -18439,7 +18424,7 @@
       <c r="J6" s="4" t="s">
         <v>1801</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="N6" s="4" t="s">
@@ -18475,7 +18460,7 @@
       <c r="J7" s="4" t="s">
         <v>1807</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -18502,7 +18487,7 @@
       <c r="J8" s="4" t="s">
         <v>1809</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -18529,7 +18514,7 @@
       <c r="J9" s="4" t="s">
         <v>1812</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="N9" s="4" t="s">
@@ -18553,7 +18538,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>1817</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -18571,7 +18556,7 @@
       <c r="J10" s="4" t="s">
         <v>1820</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -18604,7 +18589,7 @@
       <c r="J11" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -18631,7 +18616,7 @@
       <c r="J12" s="4" t="s">
         <v>1824</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -18658,7 +18643,7 @@
       <c r="J13" s="4" t="s">
         <v>1825</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -18715,7 +18700,7 @@
       <c r="J14" s="4" t="s">
         <v>1837</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -18742,7 +18727,7 @@
       <c r="G15" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -18760,7 +18745,7 @@
       <c r="G16" s="6" t="s">
         <v>1995</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -18787,7 +18772,7 @@
       <c r="J17" s="4" t="s">
         <v>1838</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -18814,7 +18799,7 @@
       <c r="J18" s="4" t="s">
         <v>1840</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -18841,7 +18826,7 @@
       <c r="J19" s="4" t="s">
         <v>1842</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -18868,7 +18853,7 @@
       <c r="J20" s="4" t="s">
         <v>1845</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M20" s="4" t="s">
@@ -18898,7 +18883,7 @@
       <c r="J21" s="4" t="s">
         <v>1850</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="L21" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -18925,7 +18910,7 @@
       <c r="J22" s="4" t="s">
         <v>1852</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M22" s="4" t="s">
@@ -18964,7 +18949,7 @@
       <c r="J23" s="4" t="s">
         <v>1858</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -18979,7 +18964,7 @@
       <c r="F24" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -19006,7 +18991,7 @@
       <c r="J25" s="4" t="s">
         <v>1862</v>
       </c>
-      <c r="L25" s="32" t="s">
+      <c r="L25" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -19033,7 +19018,7 @@
       <c r="J26" s="4" t="s">
         <v>1864</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M26" s="4" t="s">
@@ -19054,7 +19039,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="30" t="s">
         <v>522</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -19072,7 +19057,7 @@
       <c r="J27" s="4" t="s">
         <v>1870</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M27" s="4" t="s">
@@ -19102,7 +19087,7 @@
       <c r="J28" s="4" t="s">
         <v>1872</v>
       </c>
-      <c r="L28" s="32" t="s">
+      <c r="L28" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -19129,7 +19114,7 @@
       <c r="J29" s="4" t="s">
         <v>1875</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -19156,7 +19141,7 @@
       <c r="J30" s="4" t="s">
         <v>1877</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -19174,7 +19159,7 @@
       <c r="G31" s="4" t="s">
         <v>1881</v>
       </c>
-      <c r="L31" s="32" t="s">
+      <c r="L31" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M31" s="4" t="s">
@@ -19204,7 +19189,7 @@
       <c r="J32" s="4" t="s">
         <v>1880</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="L32" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M32" s="4" t="s">
@@ -19228,7 +19213,7 @@
       <c r="C34" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="56" t="s">
         <v>1514</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -19246,7 +19231,7 @@
       <c r="J34" s="4" t="s">
         <v>1890</v>
       </c>
-      <c r="L34" s="32" t="s">
+      <c r="L34" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M34" s="4" t="s">
@@ -19263,7 +19248,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D35" s="61"/>
+      <c r="D35" s="56"/>
       <c r="G35" s="4" t="s">
         <v>1162</v>
       </c>
@@ -19276,7 +19261,7 @@
       <c r="J35" s="4" t="s">
         <v>1892</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M35" s="4" t="s">
@@ -19311,10 +19296,10 @@
       </c>
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D36" s="61"/>
+      <c r="D36" s="56"/>
     </row>
     <row r="37" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D37" s="61"/>
+      <c r="D37" s="56"/>
     </row>
     <row r="38" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -19341,7 +19326,7 @@
       <c r="J38" s="4" t="s">
         <v>1903</v>
       </c>
-      <c r="L38" s="32" t="s">
+      <c r="L38" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -19361,19 +19346,19 @@
       <c r="J39" s="4" t="s">
         <v>1523</v>
       </c>
-      <c r="L39" s="32" t="s">
+      <c r="L39" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="40" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:22" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
+      <c r="A41" s="25">
         <v>8.1</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="56" t="s">
         <v>1524</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -19391,7 +19376,7 @@
       <c r="J41" s="4" t="s">
         <v>1906</v>
       </c>
-      <c r="L41" s="32" t="s">
+      <c r="L41" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M41" s="4" t="s">
@@ -19408,8 +19393,8 @@
       </c>
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="D42" s="61"/>
+      <c r="A42" s="25"/>
+      <c r="D42" s="56"/>
       <c r="G42" s="4" t="s">
         <v>1507</v>
       </c>
@@ -19422,7 +19407,7 @@
       <c r="J42" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="L42" s="32" t="s">
+      <c r="L42" s="30" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -19474,8 +19459,8 @@
       <c r="J44" s="4" t="s">
         <v>1909</v>
       </c>
-      <c r="K44" s="53"/>
-      <c r="L44" s="32" t="s">
+      <c r="K44" s="24"/>
+      <c r="L44" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="M44" s="4" t="s">
@@ -19502,7 +19487,7 @@
       <c r="F46" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G46" s="39" t="s">
+      <c r="G46" s="4" t="s">
         <v>1881</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -19613,7 +19598,7 @@
       <c r="I53" s="4" t="s">
         <v>1570</v>
       </c>
-      <c r="J53" s="62" t="s">
+      <c r="J53" s="57" t="s">
         <v>1569</v>
       </c>
     </row>
@@ -19659,9 +19644,6 @@
       <c r="F58" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
     </row>
     <row r="59" spans="1:18" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E59" s="4" t="s">
@@ -19670,9 +19652,6 @@
       <c r="F59" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
     </row>
     <row r="60" spans="1:18" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E60" s="4" t="s">
@@ -19681,9 +19660,6 @@
       <c r="F60" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
     </row>
     <row r="61" spans="1:18" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:18" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19781,7 +19757,7 @@
       <c r="E67" s="4" t="s">
         <v>1530</v>
       </c>
-      <c r="G67" s="39" t="s">
+      <c r="G67" s="4" t="s">
         <v>1556</v>
       </c>
       <c r="H67" s="4" t="s">
@@ -19890,13 +19866,13 @@
       <c r="G74" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="H74" s="28" t="s">
+      <c r="H74" s="26" t="s">
         <v>414</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="J74" s="32" t="s">
+      <c r="J74" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K74" s="4" t="s">
@@ -19919,8 +19895,8 @@
       <c r="G75" s="4" t="s">
         <v>1581</v>
       </c>
-      <c r="H75" s="56"/>
-      <c r="J75" s="32" t="s">
+      <c r="H75" s="44"/>
+      <c r="J75" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K75" s="4" t="s">
@@ -19946,7 +19922,7 @@
       <c r="I76" s="4" t="s">
         <v>1932</v>
       </c>
-      <c r="J76" s="32" t="s">
+      <c r="J76" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K76" s="4" t="s">
@@ -19975,7 +19951,7 @@
       <c r="G77" s="4" t="s">
         <v>1587</v>
       </c>
-      <c r="J77" s="32" t="s">
+      <c r="J77" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K77" s="4" t="s">
@@ -19992,16 +19968,16 @@
       <c r="F78" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
       <c r="J78" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="K78" s="66"/>
-      <c r="L78" s="66"/>
-      <c r="M78" s="66"/>
-      <c r="N78" s="66"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
     </row>
     <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="E79" s="4" t="s">
@@ -20019,7 +19995,7 @@
       <c r="I79" s="4" t="s">
         <v>1955</v>
       </c>
-      <c r="J79" s="32" t="s">
+      <c r="J79" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K79" s="4" t="s">
@@ -20045,8 +20021,8 @@
       <c r="G80" s="6" t="s">
         <v>1954</v>
       </c>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
       <c r="J80" s="6"/>
       <c r="K80" s="5" t="s">
         <v>1918</v>
@@ -20086,7 +20062,7 @@
       <c r="G81" s="4" t="s">
         <v>1942</v>
       </c>
-      <c r="J81" s="32" t="s">
+      <c r="J81" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K81" s="4" t="s">
@@ -20115,7 +20091,7 @@
       <c r="H82" s="4" t="s">
         <v>1933</v>
       </c>
-      <c r="J82" s="32" t="s">
+      <c r="J82" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K82" s="4" t="s">
@@ -20153,7 +20129,7 @@
       <c r="I83" s="4" t="s">
         <v>1948</v>
       </c>
-      <c r="J83" s="32" t="s">
+      <c r="J83" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K83" s="4" t="s">
@@ -20184,7 +20160,7 @@
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
-      <c r="I84" s="66"/>
+      <c r="I84" s="61"/>
       <c r="J84" s="4"/>
       <c r="K84" s="5" t="s">
         <v>1935</v>
@@ -20210,7 +20186,7 @@
       <c r="H85" s="6" t="s">
         <v>1956</v>
       </c>
-      <c r="I85" s="66"/>
+      <c r="I85" s="61"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -20228,7 +20204,7 @@
         <v>1032</v>
       </c>
       <c r="H86" s="4"/>
-      <c r="J86" s="32" t="s">
+      <c r="J86" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K86" s="4" t="s">
@@ -20254,7 +20230,7 @@
       <c r="G87" s="4" t="s">
         <v>1951</v>
       </c>
-      <c r="J87" s="32" t="s">
+      <c r="J87" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K87" s="4" t="s">
@@ -20283,7 +20259,7 @@
       <c r="F88" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="J88" s="32" t="s">
+      <c r="J88" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K88" s="4" t="s">
@@ -20309,7 +20285,7 @@
       <c r="F89" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="J89" s="32" t="s">
+      <c r="J89" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K89" s="4" t="s">
@@ -20348,7 +20324,7 @@
       <c r="I91" s="4" t="s">
         <v>1963</v>
       </c>
-      <c r="J91" s="32" t="s">
+      <c r="J91" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K91" s="4" t="s">
@@ -20380,7 +20356,7 @@
       <c r="G92" s="4" t="s">
         <v>1965</v>
       </c>
-      <c r="J92" s="32" t="s">
+      <c r="J92" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K92" s="4" t="s">
@@ -20397,7 +20373,7 @@
       </c>
     </row>
     <row r="93" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="27">
+      <c r="A93" s="25">
         <v>8.3000000000000007</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -20412,7 +20388,7 @@
       <c r="G93" s="4" t="s">
         <v>1968</v>
       </c>
-      <c r="J93" s="32" t="s">
+      <c r="J93" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="K93" s="4" t="s">
@@ -20431,7 +20407,7 @@
     <row r="94" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C96" s="38" t="s">
+      <c r="C96" s="36" t="s">
         <v>864</v>
       </c>
     </row>
@@ -20614,7 +20590,7 @@
       </c>
     </row>
     <row r="107" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A107" s="27">
+      <c r="A107" s="25">
         <v>8.35</v>
       </c>
       <c r="E107" s="5" t="s">
@@ -20651,13 +20627,13 @@
       </c>
     </row>
     <row r="109" spans="1:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A109" s="32">
+      <c r="A109" s="30">
         <v>9.16</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="D109" s="78" t="s">
+      <c r="D109" s="73" t="s">
         <v>567</v>
       </c>
       <c r="E109" s="4" t="s">
@@ -20721,7 +20697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -20769,8 +20745,8 @@
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+    <row r="6" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <v>12.2</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -20779,12 +20755,12 @@
       <c r="F6" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="27" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+    <row r="7" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
         <v>12.3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -20793,926 +20769,926 @@
       <c r="D7" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>623</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>623</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>623</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+    <row r="11" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
         <v>12.4</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>630</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="27" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="29" t="s">
+    <row r="13" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="27" t="s">
         <v>631</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="27" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="29" t="s">
+    <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="27" t="s">
         <v>632</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="27" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="29" t="s">
+    <row r="15" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="27" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
         <v>12.5</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="27" t="s">
         <v>638</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="27" t="s">
         <v>640</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="29" t="s">
+    <row r="18" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="27" t="s">
         <v>639</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="27" t="s">
         <v>640</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+    <row r="19" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
         <v>12.6</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="41" t="s">
         <v>991</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="42" t="s">
         <v>992</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="41" t="s">
         <v>993</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="41" t="s">
         <v>994</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="41" t="s">
         <v>995</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="M20" s="41" t="s">
         <v>996</v>
       </c>
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="41" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="41" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D22" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="41" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D23" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="41" t="s">
         <v>1000</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="41" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+    <row r="24" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
         <v>12.7</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="27" t="s">
         <v>684</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E25" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E26" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E27" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E28" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E29" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="34" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="35" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E35" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="37" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E37" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="38" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E38" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E40" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="41" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="42" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E42" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="43" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="44" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E44" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="45" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E45" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="46" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E46" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="47" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="48" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E49" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E50" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E51" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E52" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="29">
+    <row r="54" spans="1:7" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="27">
         <v>12.8</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D55" s="83" t="s">
+    <row r="55" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D55" s="78" t="s">
         <v>2074</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D56" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D57" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D58" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G58" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D59" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D60" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D61" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D62" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="G62" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D63" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D64" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D65" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G65" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D66" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D67" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="G67" s="29" t="s">
+      <c r="G67" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="30" t="s">
+    <row r="68" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28" t="s">
         <v>686</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30">
+      <c r="B69" s="28"/>
+      <c r="C69" s="28">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29">
+    <row r="70" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="27">
         <v>11.3</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="27" t="s">
         <v>687</v>
       </c>
-      <c r="F71" s="29" t="s">
+      <c r="F71" s="27" t="s">
         <v>688</v>
       </c>
-      <c r="H71" s="29" t="s">
+      <c r="H71" s="27" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="29" t="s">
+    <row r="72" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="27" t="s">
         <v>687</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F72" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="H72" s="29">
+      <c r="H72" s="27">
         <v>5.6</v>
       </c>
-      <c r="I72" s="29">
+      <c r="I72" s="27">
         <v>5.7</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="29" t="s">
+    <row r="73" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="27" t="s">
         <v>689</v>
       </c>
-      <c r="F73" s="29" t="s">
+      <c r="F73" s="27" t="s">
         <v>690</v>
       </c>
-      <c r="H73" s="29" t="s">
+      <c r="H73" s="27" t="s">
         <v>1094</v>
       </c>
-      <c r="I73" s="29" t="s">
+      <c r="I73" s="27" t="s">
         <v>1095</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="J73" s="27" t="s">
         <v>1096</v>
       </c>
-      <c r="K73" s="29" t="s">
+      <c r="K73" s="27" t="s">
         <v>1097</v>
       </c>
-      <c r="L73" s="29" t="s">
+      <c r="L73" s="27" t="s">
         <v>1098</v>
       </c>
-      <c r="M73" s="29" t="s">
+      <c r="M73" s="27" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="29" t="s">
+    <row r="74" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="F74" s="29" t="s">
+      <c r="F74" s="27" t="s">
         <v>692</v>
       </c>
-      <c r="H74" s="42" t="s">
+      <c r="H74" s="39" t="s">
         <v>988</v>
       </c>
-      <c r="I74" s="42" t="s">
+      <c r="I74" s="39" t="s">
         <v>881</v>
       </c>
-      <c r="J74" s="42" t="s">
+      <c r="J74" s="39" t="s">
         <v>989</v>
       </c>
-      <c r="K74" s="42" t="s">
+      <c r="K74" s="39" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="29" t="s">
+    <row r="75" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="F75" s="29" t="s">
+      <c r="F75" s="27" t="s">
         <v>693</v>
       </c>
-      <c r="H75" s="42" t="s">
+      <c r="H75" s="39" t="s">
         <v>978</v>
       </c>
-      <c r="I75" s="44" t="s">
+      <c r="I75" s="41" t="s">
         <v>979</v>
       </c>
-      <c r="J75" s="42" t="s">
+      <c r="J75" s="39" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="29" t="s">
+    <row r="76" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="27" t="s">
         <v>694</v>
       </c>
-      <c r="F76" s="29" t="s">
+      <c r="F76" s="27" t="s">
         <v>695</v>
       </c>
-      <c r="H76" s="49">
+      <c r="H76" s="46">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I76" s="29">
+      <c r="I76" s="27">
         <v>4.2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="29" t="s">
+    <row r="77" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="F77" s="29" t="s">
+      <c r="F77" s="27" t="s">
         <v>696</v>
       </c>
-      <c r="H77" s="42" t="s">
+      <c r="H77" s="39" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="29" t="s">
+    <row r="78" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="27" t="s">
         <v>697</v>
       </c>
-      <c r="H78" s="44" t="s">
+      <c r="H78" s="41" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="29" t="s">
+    <row r="79" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="F79" s="29" t="s">
+      <c r="F79" s="27" t="s">
         <v>698</v>
       </c>
-      <c r="H79" s="44" t="s">
+      <c r="H79" s="41" t="s">
         <v>984</v>
       </c>
-      <c r="I79" s="42" t="s">
+      <c r="I79" s="39" t="s">
         <v>985</v>
       </c>
-      <c r="J79" s="43" t="s">
+      <c r="J79" s="40" t="s">
         <v>986</v>
       </c>
-      <c r="K79" s="43" t="s">
+      <c r="K79" s="40" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="42" t="s">
+    <row r="80" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="F80" s="42" t="s">
+      <c r="F80" s="39" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C81" s="29" t="s">
+    <row r="81" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C81" s="27" t="s">
         <v>689</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="H81" s="29" t="s">
+      <c r="H81" s="27" t="s">
         <v>1118</v>
       </c>
-      <c r="I81" s="29" t="s">
+      <c r="I81" s="27" t="s">
         <v>1119</v>
       </c>
-      <c r="J81" s="29" t="s">
+      <c r="J81" s="27" t="s">
         <v>1120</v>
       </c>
-      <c r="K81" s="29" t="s">
+      <c r="K81" s="27" t="s">
         <v>1121</v>
       </c>
-      <c r="L81" s="29" t="s">
+      <c r="L81" s="27" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C82" s="29" t="s">
+    <row r="82" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C82" s="27" t="s">
         <v>689</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="H82" s="29" t="s">
+      <c r="H82" s="27" t="s">
         <v>1123</v>
       </c>
-      <c r="I82" s="29" t="s">
+      <c r="I82" s="27" t="s">
         <v>1124</v>
       </c>
-      <c r="J82" s="29" t="s">
+      <c r="J82" s="27" t="s">
         <v>982</v>
       </c>
-      <c r="K82" s="30" t="s">
+      <c r="K82" s="28" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="83" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C83" s="29" t="s">
+    <row r="83" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C83" s="27" t="s">
         <v>689</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="H83" s="29" t="s">
+      <c r="H83" s="27" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C84" s="29" t="s">
+    <row r="84" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C84" s="27" t="s">
         <v>689</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="H84" s="29" t="s">
+      <c r="H84" s="27" t="s">
         <v>1088</v>
       </c>
-      <c r="I84" s="29" t="s">
+      <c r="I84" s="27" t="s">
         <v>1089</v>
       </c>
-      <c r="J84" s="29" t="s">
+      <c r="J84" s="27" t="s">
         <v>1090</v>
       </c>
-      <c r="K84" s="29" t="s">
+      <c r="K84" s="27" t="s">
         <v>1091</v>
       </c>
-      <c r="L84" s="29" t="s">
+      <c r="L84" s="27" t="s">
         <v>1092</v>
       </c>
-      <c r="M84" s="29" t="s">
+      <c r="M84" s="27" t="s">
         <v>1093</v>
       </c>
-      <c r="N84" s="29" t="s">
+      <c r="N84" s="27" t="s">
         <v>1100</v>
       </c>
-      <c r="O84" s="29" t="s">
+      <c r="O84" s="27" t="s">
         <v>1101</v>
       </c>
-      <c r="P84" s="29" t="s">
+      <c r="P84" s="27" t="s">
         <v>1102</v>
       </c>
-      <c r="Q84" s="29" t="s">
+      <c r="Q84" s="27" t="s">
         <v>1103</v>
       </c>
-      <c r="R84" s="29" t="s">
+      <c r="R84" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="S84" s="29" t="s">
+      <c r="S84" s="27" t="s">
         <v>1105</v>
       </c>
-      <c r="T84" s="29" t="s">
+      <c r="T84" s="27" t="s">
         <v>1106</v>
       </c>
-      <c r="U84" s="29" t="s">
+      <c r="U84" s="27" t="s">
         <v>1107</v>
       </c>
-      <c r="V84" s="29" t="s">
+      <c r="V84" s="27" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="F85" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="H85" s="29" t="s">
+      <c r="H85" s="27" t="s">
         <v>1109</v>
       </c>
-      <c r="I85" s="29" t="s">
+      <c r="I85" s="27" t="s">
         <v>1110</v>
       </c>
-      <c r="J85" s="29" t="s">
+      <c r="J85" s="27" t="s">
         <v>1111</v>
       </c>
-      <c r="K85" s="29" t="s">
+      <c r="K85" s="27" t="s">
         <v>1112</v>
       </c>
-      <c r="L85" s="29" t="s">
+      <c r="L85" s="27" t="s">
         <v>1113</v>
       </c>
-      <c r="M85" s="29" t="s">
+      <c r="M85" s="27" t="s">
         <v>1114</v>
       </c>
-      <c r="N85" s="29" t="s">
+      <c r="N85" s="27" t="s">
         <v>1115</v>
       </c>
-      <c r="O85" s="29" t="s">
+      <c r="O85" s="27" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="86" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C86" s="29" t="s">
+    <row r="86" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C86" s="27" t="s">
         <v>689</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="H86" s="29" t="s">
+      <c r="H86" s="27" t="s">
         <v>1126</v>
       </c>
-      <c r="I86" s="29" t="s">
+      <c r="I86" s="27" t="s">
         <v>1127</v>
       </c>
-      <c r="J86" s="29" t="s">
+      <c r="J86" s="27" t="s">
         <v>1128</v>
       </c>
-      <c r="K86" s="29" t="s">
+      <c r="K86" s="27" t="s">
         <v>1129</v>
       </c>
-      <c r="L86" s="29" t="s">
+      <c r="L86" s="27" t="s">
         <v>1130</v>
       </c>
-      <c r="M86" s="29" t="s">
+      <c r="M86" s="27" t="s">
         <v>1131</v>
       </c>
-      <c r="N86" s="29" t="s">
+      <c r="N86" s="27" t="s">
         <v>1132</v>
       </c>
-      <c r="O86" s="29" t="s">
+      <c r="O86" s="27" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="29">
+    <row r="87" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A88" s="27">
         <v>11.4</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E89" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="G89" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E90" s="32" t="s">
+    <row r="90" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E90" s="30" t="s">
         <v>707</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="91" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E91" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="G91" s="29" t="s">
+      <c r="G91" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E92" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="G92" s="29" t="s">
+      <c r="G92" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E93" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="G93" s="29" t="s">
+      <c r="G93" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="94" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A94" s="29">
+    <row r="94" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94" s="27">
         <v>11.5</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -21721,56 +21697,56 @@
       <c r="D94" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="G94" s="29" t="s">
+      <c r="G94" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H94" s="45" t="s">
+      <c r="H94" s="42" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="95" spans="1:22" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" s="27" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
         <v>717</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="G95" s="29" t="s">
+      <c r="G95" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H95" s="45" t="s">
+      <c r="H95" s="42" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="96" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C96" s="4" t="s">
         <v>714</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="G96" s="29" t="s">
+      <c r="G96" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H96" s="45" t="s">
+      <c r="H96" s="42" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C97" s="4" t="s">
         <v>715</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="G97" s="29" t="s">
+      <c r="G97" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H97" s="45" t="s">
+      <c r="H97" s="42" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C98" s="6" t="s">
         <v>857</v>
       </c>
@@ -21778,43 +21754,43 @@
         <v>713</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C99" s="4" t="s">
         <v>716</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="G99" s="29" t="s">
+      <c r="G99" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H99" s="45" t="s">
+      <c r="H99" s="42" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
         <v>858</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="G100" s="29" t="s">
+      <c r="G100" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H100" s="45" t="s">
+      <c r="H100" s="42" t="s">
         <v>1003</v>
       </c>
-      <c r="I100" s="45" t="s">
+      <c r="I100" s="42" t="s">
         <v>1004</v>
       </c>
-      <c r="J100" s="45" t="s">
+      <c r="J100" s="42" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A102" s="29">
+    <row r="101" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" s="27">
         <v>11.6</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -21823,30 +21799,30 @@
       <c r="D102" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G102" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H102" s="45" t="s">
+      <c r="H102" s="42" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C103" s="4" t="s">
         <v>718</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="G103" s="29" t="s">
+      <c r="G103" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H103" s="45" t="s">
+      <c r="H103" s="42" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A105" s="29">
+    <row r="104" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A105" s="27">
         <v>11.7</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -21855,33 +21831,33 @@
       <c r="D105" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="G105" s="29" t="s">
+      <c r="G105" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H105" s="45" t="s">
+      <c r="H105" s="42" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C106" s="4" t="s">
         <v>720</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="G106" s="29" t="s">
+      <c r="G106" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H106" s="45" t="s">
+      <c r="H106" s="42" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A108" s="29">
+    <row r="108" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A108" s="27">
         <v>11.8</v>
       </c>
       <c r="C108" s="6" t="s">
@@ -21891,46 +21867,46 @@
         <v>722</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C109" s="4" t="s">
         <v>254</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="G109" s="29" t="s">
+      <c r="G109" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H109" s="45" t="s">
+      <c r="H109" s="42" t="s">
         <v>1008</v>
       </c>
-      <c r="I109" s="45" t="s">
+      <c r="I109" s="42" t="s">
         <v>1009</v>
       </c>
-      <c r="J109" s="45" t="s">
+      <c r="J109" s="42" t="s">
         <v>1010</v>
       </c>
-      <c r="K109" s="45" t="s">
+      <c r="K109" s="42" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C110" s="4" t="s">
         <v>254</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="G110" s="29" t="s">
+      <c r="G110" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H110" s="45" t="s">
+      <c r="H110" s="42" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A112" s="29">
+    <row r="111" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:11" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A112" s="27">
         <v>11.9</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -21939,48 +21915,48 @@
       <c r="D112" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="G112" s="29" t="s">
+      <c r="G112" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H112" s="45" t="s">
+      <c r="H112" s="42" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C113" s="4" t="s">
         <v>368</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="G113" s="50" t="s">
+      <c r="G113" s="47" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C114" s="3" t="s">
         <v>478</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="G114" s="29" t="s">
+      <c r="G114" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H114" s="45" t="s">
+      <c r="H114" s="42" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="115" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:16" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="31">
+    <row r="117" spans="1:16" s="27" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="29">
         <v>11.1</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -21989,152 +21965,152 @@
       <c r="D117" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="G117" s="29" t="s">
+      <c r="G117" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H117" s="44" t="s">
+      <c r="H117" s="41" t="s">
         <v>1019</v>
       </c>
-      <c r="I117" s="44" t="s">
+      <c r="I117" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="J117" s="44" t="s">
+      <c r="J117" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="K117" s="44" t="s">
+      <c r="K117" s="41" t="s">
         <v>1017</v>
       </c>
-      <c r="L117" s="44" t="s">
+      <c r="L117" s="41" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C118" s="4" t="s">
         <v>727</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="G118" s="29" t="s">
+      <c r="G118" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H118" s="44" t="s">
+      <c r="H118" s="41" t="s">
         <v>1020</v>
       </c>
-      <c r="I118" s="44" t="s">
+      <c r="I118" s="41" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C119" s="4" t="s">
         <v>727</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="G119" s="29" t="s">
+      <c r="G119" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H119" s="44" t="s">
+      <c r="H119" s="41" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C120" s="4" t="s">
         <v>727</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="G120" s="29" t="s">
+      <c r="G120" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H120" s="44" t="s">
+      <c r="H120" s="41" t="s">
         <v>1023</v>
       </c>
-      <c r="I120" s="44" t="s">
+      <c r="I120" s="41" t="s">
         <v>1024</v>
       </c>
-      <c r="J120" s="44" t="s">
+      <c r="J120" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K120" s="44" t="s">
+      <c r="K120" s="41" t="s">
         <v>1026</v>
       </c>
-      <c r="L120" s="44" t="s">
+      <c r="L120" s="41" t="s">
         <v>1027</v>
       </c>
-      <c r="M120" s="44" t="s">
+      <c r="M120" s="41" t="s">
         <v>1028</v>
       </c>
-      <c r="N120" s="44" t="s">
+      <c r="N120" s="41" t="s">
         <v>1029</v>
       </c>
-      <c r="O120" s="44" t="s">
+      <c r="O120" s="41" t="s">
         <v>1030</v>
       </c>
-      <c r="P120" s="44" t="s">
+      <c r="P120" s="41" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H121" s="44" t="s">
+    <row r="121" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H121" s="41" t="s">
         <v>971</v>
       </c>
-      <c r="I121" s="44" t="s">
+      <c r="I121" s="41" t="s">
         <v>1032</v>
       </c>
-      <c r="J121" s="44" t="s">
+      <c r="J121" s="41" t="s">
         <v>1033</v>
       </c>
-      <c r="K121" s="44" t="s">
+      <c r="K121" s="41" t="s">
         <v>1034</v>
       </c>
-      <c r="L121" s="44" t="s">
+      <c r="L121" s="41" t="s">
         <v>1035</v>
       </c>
-      <c r="M121" s="44" t="s">
+      <c r="M121" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="N121" s="44" t="s">
+      <c r="N121" s="41" t="s">
         <v>1036</v>
       </c>
-      <c r="O121" s="44" t="s">
+      <c r="O121" s="41" t="s">
         <v>1037</v>
       </c>
-      <c r="P121" s="44" t="s">
+      <c r="P121" s="41" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H122" s="44" t="s">
+    <row r="122" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H122" s="41" t="s">
         <v>1039</v>
       </c>
-      <c r="I122" s="44" t="s">
+      <c r="I122" s="41" t="s">
         <v>1040</v>
       </c>
-      <c r="J122" s="44" t="s">
+      <c r="J122" s="41" t="s">
         <v>1041</v>
       </c>
-      <c r="K122" s="44" t="s">
+      <c r="K122" s="41" t="s">
         <v>1042</v>
       </c>
-      <c r="L122" s="44" t="s">
+      <c r="L122" s="41" t="s">
         <v>1043</v>
       </c>
-      <c r="M122" s="44" t="s">
+      <c r="M122" s="41" t="s">
         <v>1044</v>
       </c>
-      <c r="N122" s="44" t="s">
+      <c r="N122" s="41" t="s">
         <v>1045</v>
       </c>
-      <c r="O122" s="44" t="s">
+      <c r="O122" s="41" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A124" s="29">
+    <row r="123" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:16" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A124" s="27">
         <v>11.11</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -22143,27 +22119,27 @@
       <c r="D124" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="G124" s="29" t="s">
+      <c r="G124" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H124" s="44" t="s">
+      <c r="H124" s="41" t="s">
         <v>1047</v>
       </c>
-      <c r="I124" s="44" t="s">
+      <c r="I124" s="41" t="s">
         <v>1048</v>
       </c>
-      <c r="J124" s="44" t="s">
+      <c r="J124" s="41" t="s">
         <v>1049</v>
       </c>
-      <c r="K124" s="44" t="s">
+      <c r="K124" s="41" t="s">
         <v>1050</v>
       </c>
-      <c r="L124" s="44" t="s">
+      <c r="L124" s="41" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A125" s="29">
+    <row r="125" spans="1:16" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A125" s="27">
         <v>11.12</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -22172,200 +22148,200 @@
       <c r="D125" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="G125" s="29" t="s">
+      <c r="G125" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H125" s="44" t="s">
+      <c r="H125" s="41" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="126" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C126" s="4" t="s">
         <v>732</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="G126" s="29" t="s">
+      <c r="G126" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H126" s="44" t="s">
+      <c r="H126" s="41" t="s">
         <v>1052</v>
       </c>
-      <c r="I126" s="43" t="s">
+      <c r="I126" s="40" t="s">
         <v>1053</v>
       </c>
-      <c r="J126" s="43" t="s">
+      <c r="J126" s="40" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C127" s="4" t="s">
         <v>732</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="G127" s="29" t="s">
+      <c r="G127" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H127" s="44" t="s">
+      <c r="H127" s="41" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A129" s="29">
+    <row r="128" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A129" s="27">
         <v>11.13</v>
       </c>
-      <c r="C129" s="32" t="s">
+      <c r="C129" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="D129" s="32" t="s">
+      <c r="D129" s="30" t="s">
         <v>737</v>
       </c>
-      <c r="G129" s="29" t="s">
+      <c r="G129" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H129" s="44" t="s">
+      <c r="H129" s="41" t="s">
         <v>1057</v>
       </c>
-      <c r="I129" s="44" t="s">
+      <c r="I129" s="41" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C130" s="4" t="s">
         <v>736</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="G130" s="29" t="s">
+      <c r="G130" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H130" s="44" t="s">
+      <c r="H130" s="41" t="s">
         <v>1059</v>
       </c>
-      <c r="I130" s="43" t="s">
+      <c r="I130" s="40" t="s">
         <v>876</v>
       </c>
-      <c r="J130" s="44" t="s">
+      <c r="J130" s="41" t="s">
         <v>900</v>
       </c>
-      <c r="K130" s="44" t="s">
+      <c r="K130" s="41" t="s">
         <v>1060</v>
       </c>
-      <c r="L130" s="43" t="s">
+      <c r="L130" s="40" t="s">
         <v>1061</v>
       </c>
-      <c r="M130" s="29" t="s">
+      <c r="M130" s="27" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C131" s="4" t="s">
         <v>736</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="G131" s="29" t="s">
+      <c r="G131" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H131" s="44" t="s">
+      <c r="H131" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="I131" s="44" t="s">
+      <c r="I131" s="41" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C132" s="32" t="s">
+    <row r="132" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C132" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="D132" s="32" t="s">
+      <c r="D132" s="30" t="s">
         <v>739</v>
       </c>
-      <c r="G132" s="29" t="s">
+      <c r="G132" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H132" s="44" t="s">
+      <c r="H132" s="41" t="s">
         <v>1064</v>
       </c>
-      <c r="I132" s="44" t="s">
+      <c r="I132" s="41" t="s">
         <v>1065</v>
       </c>
-      <c r="J132" s="44" t="s">
+      <c r="J132" s="41" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="133" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C133" s="4" t="s">
         <v>736</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="G133" s="29" t="s">
+      <c r="G133" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H133" s="44" t="s">
+      <c r="H133" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="I133" s="44" t="s">
+      <c r="I133" s="41" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C134" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="D134" s="76" t="s">
+      <c r="D134" s="71" t="s">
         <v>2071</v>
       </c>
-      <c r="G134" s="29" t="s">
+      <c r="G134" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H134" s="44" t="s">
+      <c r="H134" s="41" t="s">
         <v>902</v>
       </c>
-      <c r="I134" s="44" t="s">
+      <c r="I134" s="41" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C135" s="4" t="s">
         <v>736</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="G135" s="29" t="s">
+      <c r="G135" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H135" s="46" t="s">
+      <c r="H135" s="43" t="s">
         <v>1069</v>
       </c>
-      <c r="I135" s="46" t="s">
+      <c r="I135" s="43" t="s">
         <v>1070</v>
       </c>
-      <c r="J135" s="46" t="s">
+      <c r="J135" s="43" t="s">
         <v>1071</v>
       </c>
-      <c r="K135" s="46" t="s">
+      <c r="K135" s="43" t="s">
         <v>1072</v>
       </c>
-      <c r="L135" s="43" t="s">
+      <c r="L135" s="40" t="s">
         <v>1073</v>
       </c>
-      <c r="M135" s="46" t="s">
+      <c r="M135" s="43" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="136" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A137" s="29">
+    <row r="136" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A137" s="27">
         <v>11.14</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -22374,202 +22350,202 @@
       <c r="D137" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="G137" s="29" t="s">
+      <c r="G137" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="G138" s="29" t="s">
+      <c r="G138" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="G139" s="29" t="s">
+      <c r="G139" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="140" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A141" s="29">
+    <row r="140" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A141" s="27">
         <v>11.15</v>
       </c>
-      <c r="C141" s="32" t="s">
+      <c r="C141" s="30" t="s">
         <v>745</v>
       </c>
-      <c r="D141" s="32" t="s">
+      <c r="D141" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="G141" s="29" t="s">
+      <c r="G141" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H141" s="44" t="s">
+      <c r="H141" s="41" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="142" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C142" s="4" t="s">
         <v>746</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="G142" s="29" t="s">
+      <c r="G142" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="H142" s="44" t="s">
+      <c r="H142" s="41" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A144" s="29">
+    <row r="143" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:13" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A144" s="27">
         <v>11.16</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="145" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D145" s="4" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="146" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D146" s="4" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="147" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D147" s="4" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="148" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D148" s="4" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="149" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D149" s="4" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="150" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D150" s="4" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="151" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D151" s="4" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="152" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D152" s="4" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="153" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D153" s="4" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="154" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D154" s="4" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="155" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D155" s="32" t="s">
+    <row r="155" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D155" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="I155" s="29" t="s">
+      <c r="I155" s="27" t="s">
         <v>2073</v>
       </c>
     </row>
-    <row r="156" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D156" s="4" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="157" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D157" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="158" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D158" s="32" t="s">
+    <row r="158" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D158" s="30" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="159" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D159" s="4" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="160" spans="4:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D160" s="4" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D161" s="4" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D162" s="32" t="s">
+    <row r="162" spans="1:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D162" s="30" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D163" s="32" t="s">
+    <row r="163" spans="1:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D163" s="30" t="s">
         <v>762</v>
       </c>
-      <c r="I163" s="29" t="s">
+      <c r="I163" s="27" t="s">
         <v>2076</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D164" s="32" t="s">
+    <row r="164" spans="1:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D164" s="30" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D165" s="4" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D166" s="32" t="s">
+    <row r="166" spans="1:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D166" s="30" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D167" s="32" t="s">
+    <row r="167" spans="1:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D167" s="30" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D168" s="69" t="s">
+    <row r="168" spans="1:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D168" s="64" t="s">
         <v>2058</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D169" s="4" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="D170" s="32" t="s">
+      <c r="D170" s="30" t="s">
         <v>766</v>
       </c>
     </row>
@@ -22587,7 +22563,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E174" s="32" t="s">
+      <c r="E174" s="30" t="s">
         <v>772</v>
       </c>
     </row>
@@ -22642,7 +22618,7 @@
       </c>
     </row>
     <row r="185" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E185" s="59" t="s">
+      <c r="E185" s="54" t="s">
         <v>782</v>
       </c>
     </row>
@@ -22657,7 +22633,7 @@
       </c>
     </row>
     <row r="188" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E188" s="32" t="s">
+      <c r="E188" s="30" t="s">
         <v>785</v>
       </c>
     </row>
@@ -22667,20 +22643,20 @@
       </c>
     </row>
     <row r="190" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E190" s="32" t="s">
+      <c r="E190" s="30" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="191" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E191" s="32" t="s">
+      <c r="E191" s="30" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="192" spans="5:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E192" s="32" t="s">
+      <c r="E192" s="30" t="s">
         <v>788</v>
       </c>
-      <c r="I192" s="84" t="s">
+      <c r="I192" s="79" t="s">
         <v>2075</v>
       </c>
     </row>
@@ -22690,7 +22666,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E194" s="32" t="s">
+      <c r="E194" s="30" t="s">
         <v>790</v>
       </c>
     </row>
@@ -22924,7 +22900,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="25">
         <v>16.100000000000001</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -23163,23 +23139,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="58" t="s">
         <v>1704</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="58" t="s">
         <v>1696</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58" t="s">
         <v>1697</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="59" t="s">
         <v>1733</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="59" t="s">
         <v>1734</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -23218,10 +23194,10 @@
       <c r="E4" s="4" t="s">
         <v>1698</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="68" t="s">
         <v>1772</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="68" t="s">
         <v>2010</v>
       </c>
       <c r="H4" s="4"/>
@@ -23237,7 +23213,7 @@
       <c r="B5" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>1635</v>
       </c>
       <c r="D5" s="4"/>
@@ -23247,7 +23223,7 @@
       <c r="F5" s="4" t="s">
         <v>1765</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="77" t="s">
         <v>1766</v>
       </c>
       <c r="H5" s="4"/>
@@ -23263,17 +23239,17 @@
       <c r="B6" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="75" t="s">
         <v>1788</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>1700</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="72" t="s">
         <v>1746</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="75" t="s">
         <v>1747</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -23328,7 +23304,7 @@
       <c r="E8" s="4" t="s">
         <v>1701</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="72" t="s">
         <v>1771</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -23385,7 +23361,7 @@
       <c r="F10" s="4" t="s">
         <v>1774</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="68" t="s">
         <v>1775</v>
       </c>
       <c r="H10" s="4"/>
@@ -23405,13 +23381,13 @@
         <v>1776</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="62" t="s">
         <v>1703</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>1777</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="69" t="s">
         <v>2070</v>
       </c>
       <c r="H11" s="4"/>
@@ -23479,7 +23455,7 @@
       <c r="B14" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="69" t="s">
         <v>1642</v>
       </c>
       <c r="D14" s="4"/>
@@ -23489,7 +23465,7 @@
       <c r="F14" s="4" t="s">
         <v>1737</v>
       </c>
-      <c r="G14" s="71" t="s">
+      <c r="G14" s="66" t="s">
         <v>2066</v>
       </c>
       <c r="H14" s="4"/>
@@ -23512,10 +23488,10 @@
       <c r="E15" s="4" t="s">
         <v>1749</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="69" t="s">
         <v>1751</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="69" t="s">
         <v>1750</v>
       </c>
       <c r="H15" s="4"/>
@@ -23531,19 +23507,19 @@
       <c r="B16" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>1644</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>1731</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="62" t="s">
         <v>1707</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="62" t="s">
         <v>2011</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="62" t="s">
         <v>2012</v>
       </c>
       <c r="H16" s="4"/>
@@ -23563,13 +23539,13 @@
         <v>1784</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="62" t="s">
         <v>1708</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="62" t="s">
         <v>2013</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="62" t="s">
         <v>2014</v>
       </c>
       <c r="H17" s="4"/>
@@ -23585,17 +23561,17 @@
       <c r="B18" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="30" t="s">
         <v>1785</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>1709</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="62" t="s">
         <v>2015</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="62" t="s">
         <v>2016</v>
       </c>
       <c r="H18" s="4"/>
@@ -23618,7 +23594,7 @@
       <c r="E19" s="4" t="s">
         <v>1710</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="60" t="s">
         <v>1753</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -23644,10 +23620,10 @@
       <c r="E20" s="4" t="s">
         <v>1711</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="69" t="s">
         <v>2017</v>
       </c>
-      <c r="G20" s="74" t="s">
+      <c r="G20" s="69" t="s">
         <v>2018</v>
       </c>
       <c r="H20" s="4"/>
@@ -23663,7 +23639,7 @@
       <c r="B21" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="30" t="s">
         <v>1762</v>
       </c>
       <c r="D21" s="4"/>
@@ -23673,7 +23649,7 @@
       <c r="F21" s="4" t="s">
         <v>1763</v>
       </c>
-      <c r="G21" s="74" t="s">
+      <c r="G21" s="69" t="s">
         <v>1764</v>
       </c>
       <c r="H21" s="4"/>
@@ -23689,7 +23665,7 @@
       <c r="B22" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="57" t="s">
         <v>1650</v>
       </c>
       <c r="D22" s="4"/>
@@ -23722,10 +23698,10 @@
       <c r="E23" s="4" t="s">
         <v>1714</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="62" t="s">
         <v>2019</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="62" t="s">
         <v>2020</v>
       </c>
       <c r="H23" s="4"/>
@@ -23750,10 +23726,10 @@
       <c r="E24" s="4" t="s">
         <v>1715</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="62" t="s">
         <v>2021</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="62" t="s">
         <v>2022</v>
       </c>
       <c r="H24" s="4"/>
@@ -23769,7 +23745,7 @@
       <c r="B25" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="30" t="s">
         <v>1655</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -23778,13 +23754,13 @@
       <c r="E25" s="4" t="s">
         <v>1786</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="62" t="s">
         <v>2023</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>1787</v>
       </c>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="62" t="s">
         <v>2024</v>
       </c>
       <c r="I25" s="4"/>
@@ -23803,13 +23779,13 @@
         <v>1658</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="62" t="s">
         <v>1716</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>1771</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="62" t="s">
         <v>2025</v>
       </c>
       <c r="H26" s="4"/>
@@ -23825,19 +23801,19 @@
       <c r="B27" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="69" t="s">
         <v>1659</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>1731</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="36" t="s">
         <v>1691</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>1771</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="69" t="s">
         <v>2067</v>
       </c>
       <c r="H27" s="4"/>
@@ -23860,13 +23836,13 @@
       <c r="E28" s="4" t="s">
         <v>1999</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="24" t="s">
         <v>1997</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="76" t="s">
         <v>1998</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="30" t="s">
         <v>2001</v>
       </c>
       <c r="I28" s="4"/>
@@ -23890,7 +23866,7 @@
       <c r="E29" s="4" t="s">
         <v>1717</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="62" t="s">
         <v>1771</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -23916,10 +23892,10 @@
       <c r="E30" s="4" t="s">
         <v>1718</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="62" t="s">
         <v>2026</v>
       </c>
-      <c r="G30" s="71" t="s">
+      <c r="G30" s="66" t="s">
         <v>2068</v>
       </c>
       <c r="H30" s="4"/>
@@ -23935,7 +23911,7 @@
       <c r="B31" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="30" t="s">
         <v>1695</v>
       </c>
       <c r="D31" s="4"/>
@@ -23945,7 +23921,7 @@
       <c r="F31" s="4" t="s">
         <v>1763</v>
       </c>
-      <c r="G31" s="67" t="s">
+      <c r="G31" s="62" t="s">
         <v>2027</v>
       </c>
       <c r="H31" s="4"/>
@@ -24027,17 +24003,17 @@
       <c r="B35" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="30" t="s">
         <v>1668</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="67" t="s">
+      <c r="E35" s="62" t="s">
         <v>2028</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="62" t="s">
         <v>2029</v>
       </c>
-      <c r="G35" s="67" t="s">
+      <c r="G35" s="62" t="s">
         <v>2030</v>
       </c>
       <c r="H35" s="4"/>
@@ -24060,10 +24036,10 @@
       <c r="E36" s="4" t="s">
         <v>1723</v>
       </c>
-      <c r="F36" s="74" t="s">
+      <c r="F36" s="69" t="s">
         <v>2031</v>
       </c>
-      <c r="G36" s="74" t="s">
+      <c r="G36" s="69" t="s">
         <v>2032</v>
       </c>
       <c r="H36" s="4"/>
@@ -24105,17 +24081,17 @@
       <c r="B38" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="70" t="s">
         <v>1672</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>1725</v>
       </c>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="62" t="s">
         <v>2034</v>
       </c>
-      <c r="G38" s="74" t="s">
+      <c r="G38" s="69" t="s">
         <v>2035</v>
       </c>
       <c r="H38" s="4"/>
@@ -24131,17 +24107,17 @@
       <c r="B39" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="57" t="s">
         <v>1673</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>1726</v>
       </c>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="62" t="s">
         <v>2036</v>
       </c>
-      <c r="G39" s="71" t="s">
+      <c r="G39" s="66" t="s">
         <v>2037</v>
       </c>
       <c r="H39" s="4"/>
@@ -24157,17 +24133,17 @@
       <c r="B40" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="69" t="s">
         <v>1693</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>1727</v>
       </c>
-      <c r="F40" s="74" t="s">
+      <c r="F40" s="69" t="s">
         <v>2031</v>
       </c>
-      <c r="G40" s="67" t="s">
+      <c r="G40" s="62" t="s">
         <v>2033</v>
       </c>
       <c r="H40" s="4"/>
@@ -24209,7 +24185,7 @@
       <c r="B42" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="30" t="s">
         <v>1759</v>
       </c>
       <c r="D42" s="4"/>
@@ -24248,7 +24224,7 @@
       <c r="G43" s="4" t="s">
         <v>1739</v>
       </c>
-      <c r="H43" s="61" t="s">
+      <c r="H43" s="56" t="s">
         <v>1740</v>
       </c>
       <c r="I43" s="4"/>
@@ -24273,7 +24249,7 @@
       <c r="F44" s="4" t="s">
         <v>1763</v>
       </c>
-      <c r="G44" s="68" t="s">
+      <c r="G44" s="63" t="s">
         <v>2038</v>
       </c>
       <c r="H44" s="4"/>
@@ -24317,19 +24293,19 @@
       <c r="B47" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="63" t="s">
         <v>1679</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>1656</v>
       </c>
-      <c r="E47" s="68" t="s">
+      <c r="E47" s="63" t="s">
         <v>2039</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="F47" s="63" t="s">
         <v>2040</v>
       </c>
-      <c r="G47" s="68" t="s">
+      <c r="G47" s="63" t="s">
         <v>2041</v>
       </c>
       <c r="H47" s="4"/>
@@ -24347,13 +24323,13 @@
         <v>1681</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="68" t="s">
+      <c r="E48" s="63" t="s">
         <v>2042</v>
       </c>
-      <c r="F48" s="68" t="s">
+      <c r="F48" s="63" t="s">
         <v>2040</v>
       </c>
-      <c r="G48" s="68" t="s">
+      <c r="G48" s="63" t="s">
         <v>2043</v>
       </c>
       <c r="H48" s="4"/>
@@ -24371,13 +24347,13 @@
         <v>1683</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="68" t="s">
+      <c r="E49" s="63" t="s">
         <v>2044</v>
       </c>
-      <c r="F49" s="68" t="s">
+      <c r="F49" s="63" t="s">
         <v>2045</v>
       </c>
-      <c r="G49" s="68" t="s">
+      <c r="G49" s="63" t="s">
         <v>2046</v>
       </c>
       <c r="H49" s="4"/>
@@ -24395,13 +24371,13 @@
         <v>1685</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="68" t="s">
+      <c r="E50" s="63" t="s">
         <v>2047</v>
       </c>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="63" t="s">
         <v>2048</v>
       </c>
-      <c r="G50" s="68" t="s">
+      <c r="G50" s="63" t="s">
         <v>2049</v>
       </c>
       <c r="H50" s="4"/>
@@ -24419,13 +24395,13 @@
         <v>1687</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="68" t="s">
+      <c r="E51" s="63" t="s">
         <v>2050</v>
       </c>
-      <c r="F51" s="68" t="s">
+      <c r="F51" s="63" t="s">
         <v>2053</v>
       </c>
-      <c r="G51" s="68" t="s">
+      <c r="G51" s="63" t="s">
         <v>2052</v>
       </c>
       <c r="H51" s="4"/>
@@ -24443,13 +24419,13 @@
         <v>1688</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52" s="68" t="s">
+      <c r="E52" s="63" t="s">
         <v>2051</v>
       </c>
-      <c r="F52" s="68" t="s">
+      <c r="F52" s="63" t="s">
         <v>2054</v>
       </c>
-      <c r="G52" s="68" t="s">
+      <c r="G52" s="63" t="s">
         <v>2055</v>
       </c>
       <c r="H52" s="4"/>
@@ -24487,7 +24463,7 @@
       <c r="F54" s="4" t="s">
         <v>2056</v>
       </c>
-      <c r="G54" s="68" t="s">
+      <c r="G54" s="63" t="s">
         <v>2057</v>
       </c>
       <c r="H54" s="4"/>

--- a/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules Sethu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3852464E-918E-4680-B4DF-003B80195198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CC9F8D-2ACE-4162-9A40-D62F2C82253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6460,13 +6460,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6806,124 +6812,124 @@
   </cellStyleXfs>
   <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20699,10 +20705,10 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D169" sqref="D169"/>
+      <selection pane="bottomRight" activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
